--- a/src/public/templates/belpost_label_template.xlsx
+++ b/src/public/templates/belpost_label_template.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Barocco.by\Бланки\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C596E37-F12F-46E3-970E-A9A10D811A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Адресный листок" sheetId="1" r:id="rId4"/>
+    <sheet name="Адресный листок" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Наименование и адрес</t>
   </si>
@@ -174,32 +183,22 @@
   <si>
     <t>громоздкое</t>
   </si>
+  <si>
+    <t>5085/ЭЛС</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -210,19 +209,19 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="8"/>
       <color indexed="11"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="11"/>
       <name val="Arial"/>
@@ -248,7 +247,7 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -259,13 +258,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -316,7 +315,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Arial"/>
@@ -616,462 +615,447 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="145">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff000066"/>
-      <rgbColor rgb="ff0000cc"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF000066"/>
+      <rgbColor rgb="FF0000CC"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
@@ -1087,15 +1071,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 6" descr="Рисунок 6"/>
+        <xdr:cNvPr id="2" name="Рисунок 6" descr="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
-          <a:extLst/>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1121,7 +1109,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1323,7 +1311,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1342,7 +1330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1398,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,7 +1412,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1450,7 +1438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1476,7 +1464,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1502,7 +1490,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1528,7 +1516,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1554,7 +1542,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1580,7 +1568,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1593,9 +1581,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1612,7 +1606,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1631,7 +1625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1657,7 +1651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1683,7 +1677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1709,7 +1703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1735,7 +1729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1761,7 +1755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1787,7 +1781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1813,7 +1807,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1839,7 +1833,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1865,7 +1859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1878,9 +1872,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1894,7 +1894,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1913,7 +1913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1943,7 +1943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1969,7 +1969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1995,7 +1995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2021,7 +2021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2047,7 +2047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2073,7 +2073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2099,7 +2099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2125,7 +2125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2151,7 +2151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2164,68 +2164,78 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP44"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="BZ6" sqref="BZ6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="2" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.35156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.67188" style="1" customWidth="1"/>
-    <col min="5" max="6" width="1.35156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="1.5" style="1" customWidth="1"/>
-    <col min="8" max="9" width="1.35156" style="1" customWidth="1"/>
-    <col min="10" max="12" width="1.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="1.35156" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.5" style="1" customWidth="1"/>
-    <col min="15" max="16" width="1.35156" style="1" customWidth="1"/>
-    <col min="17" max="17" width="1.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="1.35156" style="1" customWidth="1"/>
-    <col min="19" max="19" width="1.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="1.35156" style="1" customWidth="1"/>
-    <col min="21" max="22" width="1.5" style="1" customWidth="1"/>
-    <col min="23" max="24" width="1.35156" style="1" customWidth="1"/>
-    <col min="25" max="27" width="1.5" style="1" customWidth="1"/>
-    <col min="28" max="32" width="1.35156" style="1" customWidth="1"/>
-    <col min="33" max="36" width="1.5" style="1" customWidth="1"/>
-    <col min="37" max="37" width="1.35156" style="1" customWidth="1"/>
-    <col min="38" max="38" width="1.5" style="1" customWidth="1"/>
-    <col min="39" max="39" width="1.35156" style="1" customWidth="1"/>
-    <col min="40" max="40" width="1.5" style="1" customWidth="1"/>
-    <col min="41" max="41" width="1.35156" style="1" customWidth="1"/>
-    <col min="42" max="43" width="1.5" style="1" customWidth="1"/>
-    <col min="44" max="44" width="1.35156" style="1" customWidth="1"/>
-    <col min="45" max="45" width="1.5" style="1" customWidth="1"/>
-    <col min="46" max="47" width="1.35156" style="1" customWidth="1"/>
-    <col min="48" max="49" width="1.5" style="1" customWidth="1"/>
-    <col min="50" max="50" width="1.35156" style="1" customWidth="1"/>
-    <col min="51" max="51" width="1.5" style="1" customWidth="1"/>
-    <col min="52" max="52" width="1.35156" style="1" customWidth="1"/>
-    <col min="53" max="53" width="1.67188" style="1" customWidth="1"/>
-    <col min="54" max="55" width="1.5" style="1" customWidth="1"/>
-    <col min="56" max="96" width="1.35156" style="1" customWidth="1"/>
-    <col min="97" max="97" width="1.5" style="1" customWidth="1"/>
-    <col min="98" max="103" width="1.35156" style="1" customWidth="1"/>
-    <col min="104" max="105" width="1.5" style="1" customWidth="1"/>
-    <col min="106" max="120" width="1.35156" style="1" customWidth="1"/>
-    <col min="121" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="1.44140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="1.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.44140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="1.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="1.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="1.33203125" style="1" customWidth="1"/>
+    <col min="21" max="22" width="1.44140625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="1.33203125" style="1" customWidth="1"/>
+    <col min="25" max="27" width="1.44140625" style="1" customWidth="1"/>
+    <col min="28" max="32" width="1.33203125" style="1" customWidth="1"/>
+    <col min="33" max="36" width="1.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="1.33203125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="1.44140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="1.33203125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="1.44140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="1.33203125" style="1" customWidth="1"/>
+    <col min="42" max="43" width="1.44140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="1.33203125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="1.44140625" style="1" customWidth="1"/>
+    <col min="46" max="47" width="1.33203125" style="1" customWidth="1"/>
+    <col min="48" max="49" width="1.44140625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="1.33203125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="1.44140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="1.33203125" style="1" customWidth="1"/>
+    <col min="53" max="53" width="1.6640625" style="1" customWidth="1"/>
+    <col min="54" max="55" width="1.44140625" style="1" customWidth="1"/>
+    <col min="56" max="96" width="1.33203125" style="1" customWidth="1"/>
+    <col min="97" max="97" width="1.44140625" style="1" customWidth="1"/>
+    <col min="98" max="103" width="1.33203125" style="1" customWidth="1"/>
+    <col min="104" max="105" width="1.44140625" style="1" customWidth="1"/>
+    <col min="106" max="120" width="1.33203125" style="1" customWidth="1"/>
+    <col min="121" max="121" width="8.88671875" style="1" customWidth="1"/>
+    <col min="122" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="8" customHeight="1">
+    <row r="1" spans="1:120" ht="7.95" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2347,7 +2357,7 @@
       <c r="DO1" s="2"/>
       <c r="DP1" s="2"/>
     </row>
-    <row r="2" ht="8" customHeight="1">
+    <row r="2" spans="1:120" ht="7.95" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -2469,10 +2479,10 @@
       <c r="DO2" s="2"/>
       <c r="DP2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:120" ht="15" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="8"/>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
@@ -2511,7 +2521,7 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
-      <c r="AN3" t="s" s="10">
+      <c r="AN3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="AO3" s="11"/>
@@ -2533,59 +2543,63 @@
       <c r="BE3" s="12"/>
       <c r="BF3" s="12"/>
       <c r="BG3" s="12"/>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14"/>
-      <c r="BN3" t="s" s="9">
+      <c r="BH3" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI3" s="76"/>
+      <c r="BJ3" s="123"/>
+      <c r="BK3" s="123"/>
+      <c r="BL3" s="123"/>
+      <c r="BM3" s="123"/>
+      <c r="BN3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="BO3" s="11"/>
-      <c r="BP3" s="15"/>
-      <c r="BQ3" s="15"/>
-      <c r="BR3" s="15"/>
-      <c r="BS3" s="15"/>
-      <c r="BT3" s="15"/>
-      <c r="BU3" s="15"/>
-      <c r="BV3" s="15"/>
-      <c r="BW3" s="15"/>
-      <c r="BX3" s="15"/>
-      <c r="BY3" s="15"/>
-      <c r="BZ3" s="15"/>
-      <c r="CA3" s="16"/>
-      <c r="CB3" s="16"/>
-      <c r="CC3" s="16"/>
-      <c r="CD3" s="16"/>
-      <c r="CE3" s="16"/>
-      <c r="CF3" s="16"/>
-      <c r="CG3" s="16"/>
-      <c r="CH3" s="16"/>
-      <c r="CI3" s="16"/>
-      <c r="CJ3" s="16"/>
-      <c r="CK3" s="16"/>
-      <c r="CL3" s="17"/>
-      <c r="CM3" s="18"/>
-      <c r="CN3" s="16"/>
-      <c r="CO3" s="16"/>
-      <c r="CP3" s="16"/>
-      <c r="CQ3" s="16"/>
-      <c r="CR3" s="16"/>
-      <c r="CS3" s="16"/>
-      <c r="CT3" s="16"/>
-      <c r="CU3" s="16"/>
-      <c r="CV3" s="16"/>
-      <c r="CW3" s="16"/>
-      <c r="CX3" s="16"/>
-      <c r="CY3" s="16"/>
-      <c r="CZ3" s="16"/>
-      <c r="DA3" s="16"/>
-      <c r="DB3" s="16"/>
-      <c r="DC3" s="16"/>
-      <c r="DD3" s="16"/>
-      <c r="DE3" s="16"/>
-      <c r="DF3" s="16"/>
+      <c r="BP3" s="124">
+        <v>44861</v>
+      </c>
+      <c r="BQ3" s="124"/>
+      <c r="BR3" s="124"/>
+      <c r="BS3" s="124"/>
+      <c r="BT3" s="124"/>
+      <c r="BU3" s="124"/>
+      <c r="BV3" s="124"/>
+      <c r="BW3" s="124"/>
+      <c r="BX3" s="124"/>
+      <c r="BY3" s="124"/>
+      <c r="BZ3" s="124"/>
+      <c r="CA3" s="13"/>
+      <c r="CB3" s="13"/>
+      <c r="CC3" s="13"/>
+      <c r="CD3" s="13"/>
+      <c r="CE3" s="13"/>
+      <c r="CF3" s="13"/>
+      <c r="CG3" s="13"/>
+      <c r="CH3" s="13"/>
+      <c r="CI3" s="13"/>
+      <c r="CJ3" s="13"/>
+      <c r="CK3" s="13"/>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="13"/>
+      <c r="CO3" s="13"/>
+      <c r="CP3" s="13"/>
+      <c r="CQ3" s="13"/>
+      <c r="CR3" s="13"/>
+      <c r="CS3" s="13"/>
+      <c r="CT3" s="13"/>
+      <c r="CU3" s="13"/>
+      <c r="CV3" s="13"/>
+      <c r="CW3" s="13"/>
+      <c r="CX3" s="13"/>
+      <c r="CY3" s="13"/>
+      <c r="CZ3" s="13"/>
+      <c r="DA3" s="13"/>
+      <c r="DB3" s="13"/>
+      <c r="DC3" s="13"/>
+      <c r="DD3" s="13"/>
+      <c r="DE3" s="13"/>
+      <c r="DF3" s="13"/>
       <c r="DG3" s="2"/>
       <c r="DH3" s="2"/>
       <c r="DI3" s="2"/>
@@ -2597,10 +2611,10 @@
       <c r="DO3" s="2"/>
       <c r="DP3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:120" ht="15" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="8"/>
-      <c r="C4" t="s" s="9">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2"/>
@@ -2639,7 +2653,7 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
-      <c r="AN4" t="s" s="10">
+      <c r="AN4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="AO4" s="2"/>
@@ -2656,25 +2670,25 @@
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
-      <c r="BC4" s="19">
+      <c r="BC4" s="133">
         <v>0</v>
       </c>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" t="s" s="21">
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="71"/>
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
       <c r="BK4" s="2"/>
-      <c r="BL4" t="s" s="22">
+      <c r="BL4" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="BM4" s="22"/>
-      <c r="BN4" s="22"/>
-      <c r="BO4" t="s" s="21">
+      <c r="BM4" s="129"/>
+      <c r="BN4" s="129"/>
+      <c r="BO4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="BP4" s="2"/>
@@ -2692,34 +2706,34 @@
       <c r="CB4" s="2"/>
       <c r="CC4" s="2"/>
       <c r="CD4" s="2"/>
-      <c r="CE4" s="16"/>
-      <c r="CF4" s="16"/>
-      <c r="CG4" s="16"/>
-      <c r="CH4" s="16"/>
-      <c r="CI4" s="16"/>
-      <c r="CJ4" s="16"/>
-      <c r="CK4" s="16"/>
-      <c r="CL4" s="17"/>
-      <c r="CM4" s="18"/>
-      <c r="CN4" s="16"/>
-      <c r="CO4" s="16"/>
-      <c r="CP4" s="16"/>
-      <c r="CQ4" s="16"/>
-      <c r="CR4" s="16"/>
-      <c r="CS4" s="16"/>
-      <c r="CT4" s="16"/>
-      <c r="CU4" s="16"/>
-      <c r="CV4" s="16"/>
-      <c r="CW4" s="16"/>
-      <c r="CX4" s="16"/>
-      <c r="CY4" s="16"/>
-      <c r="CZ4" s="16"/>
-      <c r="DA4" s="16"/>
-      <c r="DB4" s="16"/>
-      <c r="DC4" s="16"/>
-      <c r="DD4" s="16"/>
-      <c r="DE4" s="16"/>
-      <c r="DF4" s="16"/>
+      <c r="CE4" s="13"/>
+      <c r="CF4" s="13"/>
+      <c r="CG4" s="13"/>
+      <c r="CH4" s="13"/>
+      <c r="CI4" s="13"/>
+      <c r="CJ4" s="13"/>
+      <c r="CK4" s="13"/>
+      <c r="CL4" s="14"/>
+      <c r="CM4" s="15"/>
+      <c r="CN4" s="13"/>
+      <c r="CO4" s="13"/>
+      <c r="CP4" s="13"/>
+      <c r="CQ4" s="13"/>
+      <c r="CR4" s="13"/>
+      <c r="CS4" s="13"/>
+      <c r="CT4" s="13"/>
+      <c r="CU4" s="13"/>
+      <c r="CV4" s="13"/>
+      <c r="CW4" s="13"/>
+      <c r="CX4" s="13"/>
+      <c r="CY4" s="13"/>
+      <c r="CZ4" s="13"/>
+      <c r="DA4" s="13"/>
+      <c r="DB4" s="13"/>
+      <c r="DC4" s="13"/>
+      <c r="DD4" s="13"/>
+      <c r="DE4" s="13"/>
+      <c r="DF4" s="13"/>
       <c r="DG4" s="2"/>
       <c r="DH4" s="2"/>
       <c r="DI4" s="2"/>
@@ -2731,82 +2745,82 @@
       <c r="DO4" s="2"/>
       <c r="DP4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:120" ht="15" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="8"/>
-      <c r="C5" t="s" s="23">
+      <c r="C5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" t="s" s="22">
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
-      <c r="BC5" s="26"/>
-      <c r="BD5" s="26"/>
-      <c r="BE5" s="26"/>
-      <c r="BF5" s="26"/>
-      <c r="BG5" s="26"/>
-      <c r="BH5" t="s" s="21">
+      <c r="AO5" s="81"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="81"/>
+      <c r="AR5" s="81"/>
+      <c r="AS5" s="81"/>
+      <c r="AT5" s="81"/>
+      <c r="AU5" s="81"/>
+      <c r="AV5" s="81"/>
+      <c r="AW5" s="81"/>
+      <c r="AX5" s="81"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="81"/>
+      <c r="BA5" s="81"/>
+      <c r="BB5" s="81"/>
+      <c r="BC5" s="130"/>
+      <c r="BD5" s="130"/>
+      <c r="BE5" s="130"/>
+      <c r="BF5" s="130"/>
+      <c r="BG5" s="130"/>
+      <c r="BH5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="BI5" s="2"/>
       <c r="BJ5" s="2"/>
       <c r="BK5" s="2"/>
-      <c r="BL5" t="s" s="22">
+      <c r="BL5" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="BM5" s="22"/>
-      <c r="BN5" s="22"/>
-      <c r="BO5" t="s" s="21">
+      <c r="BM5" s="129"/>
+      <c r="BN5" s="129"/>
+      <c r="BO5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="BP5" s="2"/>
@@ -2824,34 +2838,34 @@
       <c r="CB5" s="2"/>
       <c r="CC5" s="2"/>
       <c r="CD5" s="2"/>
-      <c r="CE5" s="16"/>
-      <c r="CF5" s="16"/>
-      <c r="CG5" s="16"/>
-      <c r="CH5" s="16"/>
-      <c r="CI5" s="16"/>
-      <c r="CJ5" s="16"/>
-      <c r="CK5" s="16"/>
-      <c r="CL5" s="17"/>
-      <c r="CM5" s="18"/>
-      <c r="CN5" s="16"/>
-      <c r="CO5" s="16"/>
-      <c r="CP5" s="16"/>
-      <c r="CQ5" s="16"/>
-      <c r="CR5" s="16"/>
-      <c r="CS5" s="16"/>
-      <c r="CT5" s="16"/>
-      <c r="CU5" s="16"/>
+      <c r="CE5" s="13"/>
+      <c r="CF5" s="13"/>
+      <c r="CG5" s="13"/>
+      <c r="CH5" s="13"/>
+      <c r="CI5" s="13"/>
+      <c r="CJ5" s="13"/>
+      <c r="CK5" s="13"/>
+      <c r="CL5" s="14"/>
+      <c r="CM5" s="15"/>
+      <c r="CN5" s="13"/>
+      <c r="CO5" s="13"/>
+      <c r="CP5" s="13"/>
+      <c r="CQ5" s="13"/>
+      <c r="CR5" s="13"/>
+      <c r="CS5" s="13"/>
+      <c r="CT5" s="13"/>
+      <c r="CU5" s="13"/>
       <c r="CV5" s="2"/>
-      <c r="CW5" s="16"/>
-      <c r="CX5" s="16"/>
-      <c r="CY5" s="16"/>
-      <c r="CZ5" s="16"/>
-      <c r="DA5" s="16"/>
-      <c r="DB5" s="16"/>
-      <c r="DC5" s="16"/>
-      <c r="DD5" s="16"/>
-      <c r="DE5" s="16"/>
-      <c r="DF5" s="16"/>
+      <c r="CW5" s="13"/>
+      <c r="CX5" s="13"/>
+      <c r="CY5" s="13"/>
+      <c r="CZ5" s="13"/>
+      <c r="DA5" s="13"/>
+      <c r="DB5" s="13"/>
+      <c r="DC5" s="13"/>
+      <c r="DD5" s="13"/>
+      <c r="DE5" s="13"/>
+      <c r="DF5" s="13"/>
       <c r="DG5" s="2"/>
       <c r="DH5" s="2"/>
       <c r="DI5" s="2"/>
@@ -2863,123 +2877,123 @@
       <c r="DO5" s="2"/>
       <c r="DP5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="8"/>
-      <c r="C6" t="s" s="27">
+      <c r="C6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" t="s" s="10">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="29"/>
-      <c r="AT6" s="29"/>
-      <c r="AU6" s="29"/>
-      <c r="AV6" s="29"/>
-      <c r="AW6" s="29"/>
-      <c r="AX6" s="29"/>
-      <c r="AY6" s="29"/>
-      <c r="AZ6" s="29"/>
-      <c r="BA6" s="29"/>
-      <c r="BB6" s="30"/>
-      <c r="BC6" s="31"/>
-      <c r="BD6" s="31"/>
-      <c r="BE6" s="31"/>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="31"/>
-      <c r="BH6" s="31"/>
-      <c r="BI6" s="31"/>
-      <c r="BJ6" s="31"/>
-      <c r="BK6" t="s" s="32">
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="125"/>
+      <c r="BC6" s="126"/>
+      <c r="BD6" s="126"/>
+      <c r="BE6" s="126"/>
+      <c r="BF6" s="126"/>
+      <c r="BG6" s="126"/>
+      <c r="BH6" s="126"/>
+      <c r="BI6" s="126"/>
+      <c r="BJ6" s="126"/>
+      <c r="BK6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="BL6" s="33"/>
-      <c r="BM6" s="33"/>
-      <c r="BN6" s="33"/>
-      <c r="BO6" s="29"/>
-      <c r="BP6" s="29"/>
-      <c r="BQ6" s="29"/>
-      <c r="BR6" s="29"/>
-      <c r="BS6" s="29"/>
-      <c r="BT6" s="29"/>
-      <c r="BU6" s="29"/>
-      <c r="BV6" s="29"/>
-      <c r="BW6" s="29"/>
-      <c r="BX6" s="29"/>
-      <c r="BY6" s="29"/>
-      <c r="BZ6" s="29"/>
-      <c r="CA6" s="29"/>
-      <c r="CB6" s="29"/>
-      <c r="CC6" s="29"/>
-      <c r="CD6" s="16"/>
-      <c r="CE6" s="16"/>
-      <c r="CF6" s="16"/>
-      <c r="CG6" s="16"/>
-      <c r="CH6" s="16"/>
-      <c r="CI6" s="16"/>
-      <c r="CJ6" s="16"/>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="17"/>
-      <c r="CM6" s="18"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
-      <c r="CP6" s="16"/>
-      <c r="CQ6" s="16"/>
-      <c r="CR6" s="16"/>
-      <c r="CS6" s="16"/>
-      <c r="CT6" s="16"/>
-      <c r="CU6" s="16"/>
-      <c r="CV6" s="16"/>
-      <c r="CW6" s="16"/>
-      <c r="CX6" s="16"/>
-      <c r="CY6" s="16"/>
-      <c r="CZ6" s="16"/>
-      <c r="DA6" s="16"/>
-      <c r="DB6" s="16"/>
-      <c r="DC6" s="16"/>
-      <c r="DD6" s="16"/>
-      <c r="DE6" s="16"/>
-      <c r="DF6" s="16"/>
+      <c r="BL6" s="128"/>
+      <c r="BM6" s="128"/>
+      <c r="BN6" s="128"/>
+      <c r="BO6" s="17"/>
+      <c r="BP6" s="17"/>
+      <c r="BQ6" s="17"/>
+      <c r="BR6" s="17"/>
+      <c r="BS6" s="17"/>
+      <c r="BT6" s="17"/>
+      <c r="BU6" s="17"/>
+      <c r="BV6" s="17"/>
+      <c r="BW6" s="17"/>
+      <c r="BX6" s="17"/>
+      <c r="BY6" s="17"/>
+      <c r="BZ6" s="17"/>
+      <c r="CA6" s="17"/>
+      <c r="CB6" s="17"/>
+      <c r="CC6" s="17"/>
+      <c r="CD6" s="13"/>
+      <c r="CE6" s="13"/>
+      <c r="CF6" s="13"/>
+      <c r="CG6" s="13"/>
+      <c r="CH6" s="13"/>
+      <c r="CI6" s="13"/>
+      <c r="CJ6" s="13"/>
+      <c r="CK6" s="13"/>
+      <c r="CL6" s="14"/>
+      <c r="CM6" s="15"/>
+      <c r="CN6" s="13"/>
+      <c r="CO6" s="13"/>
+      <c r="CP6" s="13"/>
+      <c r="CQ6" s="13"/>
+      <c r="CR6" s="13"/>
+      <c r="CS6" s="13"/>
+      <c r="CT6" s="13"/>
+      <c r="CU6" s="13"/>
+      <c r="CV6" s="13"/>
+      <c r="CW6" s="13"/>
+      <c r="CX6" s="13"/>
+      <c r="CY6" s="13"/>
+      <c r="CZ6" s="13"/>
+      <c r="DA6" s="13"/>
+      <c r="DB6" s="13"/>
+      <c r="DC6" s="13"/>
+      <c r="DD6" s="13"/>
+      <c r="DE6" s="13"/>
+      <c r="DF6" s="13"/>
       <c r="DG6" s="2"/>
       <c r="DH6" s="2"/>
       <c r="DI6" s="2"/>
@@ -2991,119 +3005,119 @@
       <c r="DO6" s="2"/>
       <c r="DP6" s="2"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:120" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="8"/>
-      <c r="C7" t="s" s="34">
+      <c r="C7" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="37"/>
-      <c r="AY7" s="37"/>
-      <c r="AZ7" s="37"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="37"/>
-      <c r="BC7" s="37"/>
-      <c r="BD7" s="37"/>
-      <c r="BE7" s="37"/>
-      <c r="BF7" s="37"/>
-      <c r="BG7" s="37"/>
-      <c r="BH7" s="37"/>
-      <c r="BI7" s="37"/>
-      <c r="BJ7" s="37"/>
-      <c r="BK7" s="37"/>
-      <c r="BL7" s="37"/>
-      <c r="BM7" s="37"/>
-      <c r="BN7" s="37"/>
-      <c r="BO7" s="37"/>
-      <c r="BP7" s="37"/>
-      <c r="BQ7" s="37"/>
-      <c r="BR7" s="37"/>
-      <c r="BS7" s="37"/>
-      <c r="BT7" s="37"/>
-      <c r="BU7" s="37"/>
-      <c r="BV7" s="37"/>
-      <c r="BW7" s="37"/>
-      <c r="BX7" s="37"/>
-      <c r="BY7" s="37"/>
-      <c r="BZ7" s="37"/>
-      <c r="CA7" s="29"/>
-      <c r="CB7" s="29"/>
-      <c r="CC7" s="29"/>
-      <c r="CD7" s="16"/>
-      <c r="CE7" s="16"/>
-      <c r="CF7" s="16"/>
-      <c r="CG7" s="16"/>
-      <c r="CH7" s="16"/>
-      <c r="CI7" s="16"/>
-      <c r="CJ7" s="16"/>
-      <c r="CK7" s="16"/>
-      <c r="CL7" s="17"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="131"/>
+      <c r="AO7" s="132"/>
+      <c r="AP7" s="132"/>
+      <c r="AQ7" s="132"/>
+      <c r="AR7" s="132"/>
+      <c r="AS7" s="132"/>
+      <c r="AT7" s="132"/>
+      <c r="AU7" s="132"/>
+      <c r="AV7" s="132"/>
+      <c r="AW7" s="132"/>
+      <c r="AX7" s="132"/>
+      <c r="AY7" s="132"/>
+      <c r="AZ7" s="132"/>
+      <c r="BA7" s="76"/>
+      <c r="BB7" s="132"/>
+      <c r="BC7" s="132"/>
+      <c r="BD7" s="132"/>
+      <c r="BE7" s="132"/>
+      <c r="BF7" s="132"/>
+      <c r="BG7" s="132"/>
+      <c r="BH7" s="132"/>
+      <c r="BI7" s="132"/>
+      <c r="BJ7" s="132"/>
+      <c r="BK7" s="132"/>
+      <c r="BL7" s="132"/>
+      <c r="BM7" s="132"/>
+      <c r="BN7" s="132"/>
+      <c r="BO7" s="132"/>
+      <c r="BP7" s="132"/>
+      <c r="BQ7" s="132"/>
+      <c r="BR7" s="132"/>
+      <c r="BS7" s="132"/>
+      <c r="BT7" s="132"/>
+      <c r="BU7" s="132"/>
+      <c r="BV7" s="132"/>
+      <c r="BW7" s="132"/>
+      <c r="BX7" s="132"/>
+      <c r="BY7" s="132"/>
+      <c r="BZ7" s="132"/>
+      <c r="CA7" s="17"/>
+      <c r="CB7" s="17"/>
+      <c r="CC7" s="17"/>
+      <c r="CD7" s="13"/>
+      <c r="CE7" s="13"/>
+      <c r="CF7" s="13"/>
+      <c r="CG7" s="13"/>
+      <c r="CH7" s="13"/>
+      <c r="CI7" s="13"/>
+      <c r="CJ7" s="13"/>
+      <c r="CK7" s="13"/>
+      <c r="CL7" s="14"/>
       <c r="CM7" s="8"/>
-      <c r="CN7" s="16"/>
-      <c r="CO7" s="16"/>
-      <c r="CP7" s="16"/>
-      <c r="CQ7" s="16"/>
-      <c r="CR7" s="16"/>
-      <c r="CS7" s="16"/>
-      <c r="CT7" s="16"/>
-      <c r="CU7" s="38"/>
-      <c r="CV7" s="38"/>
-      <c r="CW7" s="38"/>
-      <c r="CX7" s="38"/>
-      <c r="CY7" s="38"/>
-      <c r="CZ7" s="38"/>
-      <c r="DA7" s="38"/>
-      <c r="DB7" s="38"/>
-      <c r="DC7" s="38"/>
-      <c r="DD7" s="16"/>
-      <c r="DE7" s="16"/>
-      <c r="DF7" s="16"/>
+      <c r="CN7" s="13"/>
+      <c r="CO7" s="13"/>
+      <c r="CP7" s="13"/>
+      <c r="CQ7" s="13"/>
+      <c r="CR7" s="13"/>
+      <c r="CS7" s="13"/>
+      <c r="CT7" s="13"/>
+      <c r="CU7" s="18"/>
+      <c r="CV7" s="18"/>
+      <c r="CW7" s="18"/>
+      <c r="CX7" s="18"/>
+      <c r="CY7" s="18"/>
+      <c r="CZ7" s="18"/>
+      <c r="DA7" s="18"/>
+      <c r="DB7" s="18"/>
+      <c r="DC7" s="18"/>
+      <c r="DD7" s="13"/>
+      <c r="DE7" s="13"/>
+      <c r="DF7" s="13"/>
       <c r="DG7" s="2"/>
       <c r="DH7" s="2"/>
       <c r="DI7" s="2"/>
@@ -3115,95 +3129,95 @@
       <c r="DO7" s="2"/>
       <c r="DP7" s="2"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:120" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
-      <c r="C8" t="s" s="39">
+      <c r="C8" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" t="s" s="41">
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
-      <c r="AV8" s="42"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="42"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="42"/>
-      <c r="BC8" s="42"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="42"/>
-      <c r="BG8" s="42"/>
-      <c r="BH8" s="42"/>
-      <c r="BI8" s="42"/>
-      <c r="BJ8" s="42"/>
-      <c r="BK8" s="42"/>
-      <c r="BL8" s="42"/>
-      <c r="BM8" s="42"/>
-      <c r="BN8" s="42"/>
-      <c r="BO8" s="42"/>
-      <c r="BP8" s="42"/>
-      <c r="BQ8" s="42"/>
-      <c r="BR8" s="42"/>
-      <c r="BS8" s="42"/>
-      <c r="BT8" s="42"/>
-      <c r="BU8" s="42"/>
-      <c r="BV8" s="42"/>
-      <c r="BW8" s="42"/>
-      <c r="BX8" s="42"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="43"/>
-      <c r="CB8" s="43"/>
-      <c r="CC8" s="43"/>
-      <c r="CD8" s="43"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="43"/>
+      <c r="AO8" s="135"/>
+      <c r="AP8" s="135"/>
+      <c r="AQ8" s="135"/>
+      <c r="AR8" s="135"/>
+      <c r="AS8" s="135"/>
+      <c r="AT8" s="135"/>
+      <c r="AU8" s="135"/>
+      <c r="AV8" s="135"/>
+      <c r="AW8" s="135"/>
+      <c r="AX8" s="135"/>
+      <c r="AY8" s="135"/>
+      <c r="AZ8" s="135"/>
+      <c r="BA8" s="76"/>
+      <c r="BB8" s="135"/>
+      <c r="BC8" s="135"/>
+      <c r="BD8" s="135"/>
+      <c r="BE8" s="135"/>
+      <c r="BF8" s="135"/>
+      <c r="BG8" s="135"/>
+      <c r="BH8" s="135"/>
+      <c r="BI8" s="135"/>
+      <c r="BJ8" s="135"/>
+      <c r="BK8" s="135"/>
+      <c r="BL8" s="135"/>
+      <c r="BM8" s="135"/>
+      <c r="BN8" s="135"/>
+      <c r="BO8" s="135"/>
+      <c r="BP8" s="135"/>
+      <c r="BQ8" s="135"/>
+      <c r="BR8" s="135"/>
+      <c r="BS8" s="135"/>
+      <c r="BT8" s="135"/>
+      <c r="BU8" s="135"/>
+      <c r="BV8" s="135"/>
+      <c r="BW8" s="135"/>
+      <c r="BX8" s="135"/>
+      <c r="BY8" s="135"/>
+      <c r="BZ8" s="135"/>
+      <c r="CA8" s="20"/>
+      <c r="CB8" s="20"/>
+      <c r="CC8" s="20"/>
+      <c r="CD8" s="20"/>
+      <c r="CE8" s="20"/>
+      <c r="CF8" s="20"/>
       <c r="CG8" s="2"/>
       <c r="CH8" s="2"/>
       <c r="CI8" s="2"/>
@@ -3241,10 +3255,10 @@
       <c r="DO8" s="2"/>
       <c r="DP8" s="2"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:120" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
-      <c r="C9" t="s" s="9">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2"/>
@@ -3255,27 +3269,27 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" t="s" s="44">
+      <c r="L9" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -3285,79 +3299,79 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" t="s" s="41">
+      <c r="AN9" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="42"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="42"/>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="42"/>
-      <c r="BG9" s="42"/>
-      <c r="BH9" s="42"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="42"/>
-      <c r="BK9" s="42"/>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="42"/>
-      <c r="BN9" s="42"/>
-      <c r="BO9" s="42"/>
-      <c r="BP9" s="42"/>
-      <c r="BQ9" s="42"/>
-      <c r="BR9" s="42"/>
-      <c r="BS9" s="42"/>
-      <c r="BT9" s="42"/>
-      <c r="BU9" s="42"/>
-      <c r="BV9" s="42"/>
-      <c r="BW9" s="42"/>
-      <c r="BX9" s="42"/>
-      <c r="BY9" s="42"/>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="16"/>
-      <c r="CB9" s="16"/>
-      <c r="CC9" s="16"/>
-      <c r="CD9" s="16"/>
-      <c r="CE9" s="16"/>
-      <c r="CF9" s="16"/>
-      <c r="CG9" s="16"/>
-      <c r="CH9" s="16"/>
-      <c r="CI9" s="16"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="16"/>
-      <c r="CL9" s="17"/>
-      <c r="CM9" s="18"/>
-      <c r="CN9" s="16"/>
-      <c r="CO9" s="16"/>
-      <c r="CP9" s="16"/>
-      <c r="CQ9" s="16"/>
-      <c r="CR9" s="16"/>
-      <c r="CS9" s="16"/>
-      <c r="CT9" s="16"/>
-      <c r="CU9" s="16"/>
-      <c r="CV9" s="16"/>
-      <c r="CW9" s="16"/>
-      <c r="CX9" s="16"/>
-      <c r="CY9" s="16"/>
-      <c r="CZ9" s="16"/>
-      <c r="DA9" s="16"/>
-      <c r="DB9" s="16"/>
+      <c r="AO9" s="135"/>
+      <c r="AP9" s="135"/>
+      <c r="AQ9" s="135"/>
+      <c r="AR9" s="135"/>
+      <c r="AS9" s="135"/>
+      <c r="AT9" s="135"/>
+      <c r="AU9" s="135"/>
+      <c r="AV9" s="135"/>
+      <c r="AW9" s="135"/>
+      <c r="AX9" s="135"/>
+      <c r="AY9" s="135"/>
+      <c r="AZ9" s="135"/>
+      <c r="BA9" s="76"/>
+      <c r="BB9" s="135"/>
+      <c r="BC9" s="135"/>
+      <c r="BD9" s="135"/>
+      <c r="BE9" s="135"/>
+      <c r="BF9" s="135"/>
+      <c r="BG9" s="135"/>
+      <c r="BH9" s="135"/>
+      <c r="BI9" s="135"/>
+      <c r="BJ9" s="135"/>
+      <c r="BK9" s="135"/>
+      <c r="BL9" s="135"/>
+      <c r="BM9" s="135"/>
+      <c r="BN9" s="135"/>
+      <c r="BO9" s="135"/>
+      <c r="BP9" s="135"/>
+      <c r="BQ9" s="135"/>
+      <c r="BR9" s="135"/>
+      <c r="BS9" s="135"/>
+      <c r="BT9" s="135"/>
+      <c r="BU9" s="135"/>
+      <c r="BV9" s="135"/>
+      <c r="BW9" s="135"/>
+      <c r="BX9" s="135"/>
+      <c r="BY9" s="135"/>
+      <c r="BZ9" s="135"/>
+      <c r="CA9" s="13"/>
+      <c r="CB9" s="13"/>
+      <c r="CC9" s="13"/>
+      <c r="CD9" s="13"/>
+      <c r="CE9" s="13"/>
+      <c r="CF9" s="13"/>
+      <c r="CG9" s="13"/>
+      <c r="CH9" s="13"/>
+      <c r="CI9" s="13"/>
+      <c r="CJ9" s="13"/>
+      <c r="CK9" s="13"/>
+      <c r="CL9" s="14"/>
+      <c r="CM9" s="15"/>
+      <c r="CN9" s="13"/>
+      <c r="CO9" s="13"/>
+      <c r="CP9" s="13"/>
+      <c r="CQ9" s="13"/>
+      <c r="CR9" s="13"/>
+      <c r="CS9" s="13"/>
+      <c r="CT9" s="13"/>
+      <c r="CU9" s="13"/>
+      <c r="CV9" s="13"/>
+      <c r="CW9" s="13"/>
+      <c r="CX9" s="13"/>
+      <c r="CY9" s="13"/>
+      <c r="CZ9" s="13"/>
+      <c r="DA9" s="13"/>
+      <c r="DB9" s="13"/>
       <c r="DC9" s="2"/>
       <c r="DD9" s="2"/>
-      <c r="DE9" s="16"/>
-      <c r="DF9" s="16"/>
+      <c r="DE9" s="13"/>
+      <c r="DF9" s="13"/>
       <c r="DG9" s="2"/>
       <c r="DH9" s="2"/>
       <c r="DI9" s="2"/>
@@ -3369,27 +3383,27 @@
       <c r="DO9" s="2"/>
       <c r="DP9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:120" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
-      <c r="C10" t="s" s="46">
+      <c r="C10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" t="s" s="48">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -3413,77 +3427,77 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="42"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="42"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="42"/>
-      <c r="BG10" s="42"/>
-      <c r="BH10" s="42"/>
-      <c r="BI10" s="42"/>
-      <c r="BJ10" s="42"/>
-      <c r="BK10" s="42"/>
-      <c r="BL10" s="42"/>
-      <c r="BM10" s="42"/>
-      <c r="BN10" s="42"/>
-      <c r="BO10" s="42"/>
-      <c r="BP10" s="42"/>
-      <c r="BQ10" s="42"/>
-      <c r="BR10" s="42"/>
-      <c r="BS10" s="42"/>
-      <c r="BT10" s="42"/>
-      <c r="BU10" s="42"/>
-      <c r="BV10" s="42"/>
-      <c r="BW10" s="42"/>
-      <c r="BX10" s="42"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="16"/>
-      <c r="CB10" s="16"/>
-      <c r="CC10" s="16"/>
-      <c r="CD10" s="16"/>
-      <c r="CE10" s="16"/>
-      <c r="CF10" s="16"/>
-      <c r="CG10" s="16"/>
-      <c r="CH10" s="16"/>
-      <c r="CI10" s="16"/>
-      <c r="CJ10" s="16"/>
-      <c r="CK10" s="16"/>
-      <c r="CL10" s="17"/>
-      <c r="CM10" s="18"/>
-      <c r="CN10" s="16"/>
-      <c r="CO10" s="16"/>
-      <c r="CP10" s="16"/>
-      <c r="CQ10" s="16"/>
-      <c r="CR10" s="16"/>
-      <c r="CS10" s="16"/>
-      <c r="CT10" s="16"/>
-      <c r="CU10" s="16"/>
-      <c r="CV10" s="16"/>
-      <c r="CW10" s="16"/>
-      <c r="CX10" s="16"/>
-      <c r="CY10" s="16"/>
-      <c r="CZ10" s="16"/>
-      <c r="DA10" s="16"/>
-      <c r="DB10" s="16"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="19"/>
+      <c r="BF10" s="19"/>
+      <c r="BG10" s="19"/>
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="19"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="19"/>
+      <c r="BL10" s="19"/>
+      <c r="BM10" s="19"/>
+      <c r="BN10" s="19"/>
+      <c r="BO10" s="19"/>
+      <c r="BP10" s="19"/>
+      <c r="BQ10" s="19"/>
+      <c r="BR10" s="19"/>
+      <c r="BS10" s="19"/>
+      <c r="BT10" s="19"/>
+      <c r="BU10" s="19"/>
+      <c r="BV10" s="19"/>
+      <c r="BW10" s="19"/>
+      <c r="BX10" s="19"/>
+      <c r="BY10" s="19"/>
+      <c r="BZ10" s="19"/>
+      <c r="CA10" s="13"/>
+      <c r="CB10" s="13"/>
+      <c r="CC10" s="13"/>
+      <c r="CD10" s="13"/>
+      <c r="CE10" s="13"/>
+      <c r="CF10" s="13"/>
+      <c r="CG10" s="13"/>
+      <c r="CH10" s="13"/>
+      <c r="CI10" s="13"/>
+      <c r="CJ10" s="13"/>
+      <c r="CK10" s="13"/>
+      <c r="CL10" s="14"/>
+      <c r="CM10" s="15"/>
+      <c r="CN10" s="13"/>
+      <c r="CO10" s="13"/>
+      <c r="CP10" s="13"/>
+      <c r="CQ10" s="13"/>
+      <c r="CR10" s="13"/>
+      <c r="CS10" s="13"/>
+      <c r="CT10" s="13"/>
+      <c r="CU10" s="13"/>
+      <c r="CV10" s="13"/>
+      <c r="CW10" s="13"/>
+      <c r="CX10" s="13"/>
+      <c r="CY10" s="13"/>
+      <c r="CZ10" s="13"/>
+      <c r="DA10" s="13"/>
+      <c r="DB10" s="13"/>
       <c r="DC10" s="2"/>
       <c r="DD10" s="2"/>
-      <c r="DE10" s="16"/>
-      <c r="DF10" s="16"/>
+      <c r="DE10" s="13"/>
+      <c r="DF10" s="13"/>
       <c r="DG10" s="2"/>
       <c r="DH10" s="2"/>
       <c r="DI10" s="2"/>
@@ -3495,13 +3509,13 @@
       <c r="DO10" s="2"/>
       <c r="DP10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:120" ht="15" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" t="s" s="49">
+      <c r="F11" s="24" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="2"/>
@@ -3537,77 +3551,77 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="50"/>
-      <c r="BF11" s="50"/>
-      <c r="BG11" s="50"/>
-      <c r="BH11" s="50"/>
-      <c r="BI11" s="50"/>
-      <c r="BJ11" s="50"/>
-      <c r="BK11" s="50"/>
-      <c r="BL11" s="50"/>
-      <c r="BM11" s="50"/>
-      <c r="BN11" s="50"/>
-      <c r="BO11" s="50"/>
-      <c r="BP11" s="50"/>
-      <c r="BQ11" s="50"/>
-      <c r="BR11" s="50"/>
-      <c r="BS11" s="50"/>
-      <c r="BT11" s="50"/>
-      <c r="BU11" s="50"/>
-      <c r="BV11" s="50"/>
-      <c r="BW11" s="50"/>
-      <c r="BX11" s="50"/>
-      <c r="BY11" s="50"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="25"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="25"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
+      <c r="BC11" s="25"/>
+      <c r="BD11" s="25"/>
+      <c r="BE11" s="25"/>
+      <c r="BF11" s="25"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="25"/>
+      <c r="BL11" s="25"/>
+      <c r="BM11" s="25"/>
+      <c r="BN11" s="25"/>
+      <c r="BO11" s="25"/>
+      <c r="BP11" s="25"/>
+      <c r="BQ11" s="25"/>
+      <c r="BR11" s="25"/>
+      <c r="BS11" s="25"/>
+      <c r="BT11" s="25"/>
+      <c r="BU11" s="25"/>
+      <c r="BV11" s="25"/>
+      <c r="BW11" s="25"/>
+      <c r="BX11" s="25"/>
+      <c r="BY11" s="25"/>
       <c r="BZ11" s="2"/>
       <c r="CA11" s="2"/>
       <c r="CB11" s="2"/>
-      <c r="CC11" s="16"/>
-      <c r="CD11" s="16"/>
-      <c r="CE11" s="16"/>
-      <c r="CF11" s="16"/>
-      <c r="CG11" s="16"/>
-      <c r="CH11" s="16"/>
-      <c r="CI11" s="16"/>
-      <c r="CJ11" s="16"/>
-      <c r="CK11" s="16"/>
-      <c r="CL11" s="17"/>
-      <c r="CM11" s="18"/>
-      <c r="CN11" s="16"/>
-      <c r="CO11" s="16"/>
-      <c r="CP11" s="16"/>
-      <c r="CQ11" s="16"/>
-      <c r="CR11" s="16"/>
-      <c r="CS11" s="16"/>
-      <c r="CT11" s="16"/>
+      <c r="CC11" s="13"/>
+      <c r="CD11" s="13"/>
+      <c r="CE11" s="13"/>
+      <c r="CF11" s="13"/>
+      <c r="CG11" s="13"/>
+      <c r="CH11" s="13"/>
+      <c r="CI11" s="13"/>
+      <c r="CJ11" s="13"/>
+      <c r="CK11" s="13"/>
+      <c r="CL11" s="14"/>
+      <c r="CM11" s="15"/>
+      <c r="CN11" s="13"/>
+      <c r="CO11" s="13"/>
+      <c r="CP11" s="13"/>
+      <c r="CQ11" s="13"/>
+      <c r="CR11" s="13"/>
+      <c r="CS11" s="13"/>
+      <c r="CT11" s="13"/>
       <c r="CU11" s="2"/>
-      <c r="CV11" s="16"/>
-      <c r="CW11" s="16"/>
-      <c r="CX11" s="16"/>
-      <c r="CY11" s="16"/>
-      <c r="CZ11" s="16"/>
-      <c r="DA11" s="16"/>
-      <c r="DB11" s="16"/>
-      <c r="DC11" s="16"/>
-      <c r="DD11" s="16"/>
+      <c r="CV11" s="13"/>
+      <c r="CW11" s="13"/>
+      <c r="CX11" s="13"/>
+      <c r="CY11" s="13"/>
+      <c r="CZ11" s="13"/>
+      <c r="DA11" s="13"/>
+      <c r="DB11" s="13"/>
+      <c r="DC11" s="13"/>
+      <c r="DD11" s="13"/>
       <c r="DE11" s="2"/>
-      <c r="DF11" s="16"/>
+      <c r="DF11" s="13"/>
       <c r="DG11" s="2"/>
       <c r="DH11" s="2"/>
       <c r="DI11" s="2"/>
@@ -3619,91 +3633,91 @@
       <c r="DO11" s="2"/>
       <c r="DP11" s="2"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:120" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
-      <c r="C12" t="s" s="10">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" t="s" s="10">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
-      <c r="AN12" t="s" s="51">
+      <c r="AN12" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="AO12" s="52"/>
-      <c r="AP12" s="52"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="2"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="52"/>
-      <c r="BT12" s="52"/>
-      <c r="BU12" s="52"/>
-      <c r="BV12" s="52"/>
-      <c r="BW12" s="52"/>
-      <c r="BX12" s="52"/>
-      <c r="BY12" s="52"/>
-      <c r="BZ12" s="52"/>
+      <c r="AO12" s="137"/>
+      <c r="AP12" s="137"/>
+      <c r="AQ12" s="137"/>
+      <c r="AR12" s="137"/>
+      <c r="AS12" s="137"/>
+      <c r="AT12" s="137"/>
+      <c r="AU12" s="137"/>
+      <c r="AV12" s="137"/>
+      <c r="AW12" s="137"/>
+      <c r="AX12" s="137"/>
+      <c r="AY12" s="137"/>
+      <c r="AZ12" s="137"/>
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="137"/>
+      <c r="BC12" s="137"/>
+      <c r="BD12" s="137"/>
+      <c r="BE12" s="137"/>
+      <c r="BF12" s="137"/>
+      <c r="BG12" s="137"/>
+      <c r="BH12" s="137"/>
+      <c r="BI12" s="137"/>
+      <c r="BJ12" s="137"/>
+      <c r="BK12" s="137"/>
+      <c r="BL12" s="137"/>
+      <c r="BM12" s="137"/>
+      <c r="BN12" s="137"/>
+      <c r="BO12" s="137"/>
+      <c r="BP12" s="137"/>
+      <c r="BQ12" s="137"/>
+      <c r="BR12" s="137"/>
+      <c r="BS12" s="137"/>
+      <c r="BT12" s="137"/>
+      <c r="BU12" s="137"/>
+      <c r="BV12" s="137"/>
+      <c r="BW12" s="137"/>
+      <c r="BX12" s="137"/>
+      <c r="BY12" s="137"/>
+      <c r="BZ12" s="137"/>
       <c r="CA12" s="2"/>
       <c r="CB12" s="2"/>
       <c r="CC12" s="2"/>
@@ -3747,7 +3761,7 @@
       <c r="DO12" s="2"/>
       <c r="DP12" s="2"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:120" ht="14.25" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
@@ -3869,76 +3883,76 @@
       <c r="DO13" s="2"/>
       <c r="DP13" s="2"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:120" ht="14.25" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="81"/>
       <c r="AL14" s="2"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="25"/>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="25"/>
-      <c r="BE14" s="25"/>
-      <c r="BF14" s="25"/>
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="25"/>
-      <c r="BJ14" s="25"/>
-      <c r="BK14" s="25"/>
-      <c r="BL14" s="25"/>
-      <c r="BM14" s="25"/>
-      <c r="BN14" s="25"/>
-      <c r="BO14" s="25"/>
-      <c r="BP14" s="25"/>
-      <c r="BQ14" s="25"/>
+      <c r="AM14" s="81"/>
+      <c r="AN14" s="81"/>
+      <c r="AO14" s="81"/>
+      <c r="AP14" s="81"/>
+      <c r="AQ14" s="81"/>
+      <c r="AR14" s="81"/>
+      <c r="AS14" s="81"/>
+      <c r="AT14" s="81"/>
+      <c r="AU14" s="81"/>
+      <c r="AV14" s="81"/>
+      <c r="AW14" s="81"/>
+      <c r="AX14" s="81"/>
+      <c r="AY14" s="81"/>
+      <c r="AZ14" s="81"/>
+      <c r="BA14" s="76"/>
+      <c r="BB14" s="81"/>
+      <c r="BC14" s="81"/>
+      <c r="BD14" s="81"/>
+      <c r="BE14" s="81"/>
+      <c r="BF14" s="81"/>
+      <c r="BG14" s="81"/>
+      <c r="BH14" s="81"/>
+      <c r="BI14" s="81"/>
+      <c r="BJ14" s="81"/>
+      <c r="BK14" s="81"/>
+      <c r="BL14" s="81"/>
+      <c r="BM14" s="81"/>
+      <c r="BN14" s="81"/>
+      <c r="BO14" s="81"/>
+      <c r="BP14" s="81"/>
+      <c r="BQ14" s="81"/>
       <c r="BR14" s="2"/>
       <c r="BS14" s="2"/>
       <c r="BT14" s="2"/>
@@ -3991,76 +4005,76 @@
       <c r="DO14" s="2"/>
       <c r="DP14" s="2"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="81"/>
+      <c r="AH15" s="81"/>
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="81"/>
+      <c r="AK15" s="81"/>
       <c r="AL15" s="2"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="25"/>
-      <c r="BD15" s="25"/>
-      <c r="BE15" s="25"/>
-      <c r="BF15" s="25"/>
-      <c r="BG15" s="25"/>
-      <c r="BH15" s="25"/>
-      <c r="BI15" s="25"/>
-      <c r="BJ15" s="25"/>
-      <c r="BK15" s="25"/>
-      <c r="BL15" s="25"/>
-      <c r="BM15" s="25"/>
-      <c r="BN15" s="25"/>
-      <c r="BO15" s="25"/>
-      <c r="BP15" s="25"/>
-      <c r="BQ15" s="25"/>
+      <c r="AM15" s="81"/>
+      <c r="AN15" s="81"/>
+      <c r="AO15" s="81"/>
+      <c r="AP15" s="81"/>
+      <c r="AQ15" s="81"/>
+      <c r="AR15" s="81"/>
+      <c r="AS15" s="81"/>
+      <c r="AT15" s="81"/>
+      <c r="AU15" s="81"/>
+      <c r="AV15" s="81"/>
+      <c r="AW15" s="81"/>
+      <c r="AX15" s="81"/>
+      <c r="AY15" s="81"/>
+      <c r="AZ15" s="81"/>
+      <c r="BA15" s="81"/>
+      <c r="BB15" s="81"/>
+      <c r="BC15" s="81"/>
+      <c r="BD15" s="81"/>
+      <c r="BE15" s="81"/>
+      <c r="BF15" s="81"/>
+      <c r="BG15" s="81"/>
+      <c r="BH15" s="81"/>
+      <c r="BI15" s="81"/>
+      <c r="BJ15" s="81"/>
+      <c r="BK15" s="81"/>
+      <c r="BL15" s="81"/>
+      <c r="BM15" s="81"/>
+      <c r="BN15" s="81"/>
+      <c r="BO15" s="81"/>
+      <c r="BP15" s="81"/>
+      <c r="BQ15" s="81"/>
       <c r="BR15" s="2"/>
       <c r="BS15" s="2"/>
       <c r="BT15" s="2"/>
@@ -4113,9 +4127,9 @@
       <c r="DO15" s="2"/>
       <c r="DP15" s="2"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:120" ht="15" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4124,26 +4138,26 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="81"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -4152,44 +4166,44 @@
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="25"/>
-      <c r="AV16" s="25"/>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="25"/>
-      <c r="AY16" s="25"/>
-      <c r="AZ16" s="25"/>
-      <c r="BA16" s="25"/>
-      <c r="BB16" s="25"/>
-      <c r="BC16" s="25"/>
-      <c r="BD16" s="25"/>
-      <c r="BE16" s="25"/>
-      <c r="BF16" s="25"/>
-      <c r="BG16" s="25"/>
-      <c r="BH16" s="25"/>
-      <c r="BI16" s="25"/>
-      <c r="BJ16" s="25"/>
-      <c r="BK16" s="25"/>
-      <c r="BL16" s="25"/>
-      <c r="BM16" s="25"/>
-      <c r="BN16" s="25"/>
-      <c r="BO16" s="25"/>
-      <c r="BP16" s="25"/>
-      <c r="BQ16" s="25"/>
+      <c r="AM16" s="81"/>
+      <c r="AN16" s="81"/>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="81"/>
+      <c r="AQ16" s="81"/>
+      <c r="AR16" s="81"/>
+      <c r="AS16" s="81"/>
+      <c r="AT16" s="81"/>
+      <c r="AU16" s="81"/>
+      <c r="AV16" s="81"/>
+      <c r="AW16" s="81"/>
+      <c r="AX16" s="81"/>
+      <c r="AY16" s="81"/>
+      <c r="AZ16" s="81"/>
+      <c r="BA16" s="81"/>
+      <c r="BB16" s="81"/>
+      <c r="BC16" s="81"/>
+      <c r="BD16" s="81"/>
+      <c r="BE16" s="81"/>
+      <c r="BF16" s="81"/>
+      <c r="BG16" s="81"/>
+      <c r="BH16" s="81"/>
+      <c r="BI16" s="81"/>
+      <c r="BJ16" s="81"/>
+      <c r="BK16" s="81"/>
+      <c r="BL16" s="81"/>
+      <c r="BM16" s="81"/>
+      <c r="BN16" s="81"/>
+      <c r="BO16" s="81"/>
+      <c r="BP16" s="81"/>
+      <c r="BQ16" s="81"/>
       <c r="BR16" s="2"/>
       <c r="BS16" s="2"/>
       <c r="BT16" s="2"/>
       <c r="BU16" s="2"/>
       <c r="BV16" s="2"/>
       <c r="BW16" s="2"/>
-      <c r="BX16" t="s" s="53">
+      <c r="BX16" s="26" t="s">
         <v>24</v>
       </c>
       <c r="BY16" s="2"/>
@@ -4237,9 +4251,9 @@
       <c r="DO16" s="2"/>
       <c r="DP16" s="2"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:120" ht="15" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4276,37 +4290,37 @@
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="25"/>
-      <c r="AQ17" s="25"/>
-      <c r="AR17" s="25"/>
-      <c r="AS17" s="25"/>
-      <c r="AT17" s="25"/>
-      <c r="AU17" s="25"/>
-      <c r="AV17" s="25"/>
-      <c r="AW17" s="25"/>
-      <c r="AX17" s="25"/>
-      <c r="AY17" s="25"/>
-      <c r="AZ17" s="25"/>
-      <c r="BA17" s="25"/>
-      <c r="BB17" s="25"/>
-      <c r="BC17" s="25"/>
-      <c r="BD17" s="25"/>
-      <c r="BE17" s="25"/>
-      <c r="BF17" s="25"/>
-      <c r="BG17" s="25"/>
-      <c r="BH17" s="25"/>
-      <c r="BI17" s="25"/>
-      <c r="BJ17" s="25"/>
-      <c r="BK17" s="25"/>
-      <c r="BL17" s="25"/>
-      <c r="BM17" s="25"/>
-      <c r="BN17" s="25"/>
-      <c r="BO17" s="25"/>
-      <c r="BP17" s="25"/>
-      <c r="BQ17" s="25"/>
+      <c r="AM17" s="81"/>
+      <c r="AN17" s="81"/>
+      <c r="AO17" s="81"/>
+      <c r="AP17" s="81"/>
+      <c r="AQ17" s="81"/>
+      <c r="AR17" s="81"/>
+      <c r="AS17" s="81"/>
+      <c r="AT17" s="81"/>
+      <c r="AU17" s="81"/>
+      <c r="AV17" s="81"/>
+      <c r="AW17" s="81"/>
+      <c r="AX17" s="81"/>
+      <c r="AY17" s="81"/>
+      <c r="AZ17" s="81"/>
+      <c r="BA17" s="81"/>
+      <c r="BB17" s="81"/>
+      <c r="BC17" s="81"/>
+      <c r="BD17" s="81"/>
+      <c r="BE17" s="81"/>
+      <c r="BF17" s="81"/>
+      <c r="BG17" s="81"/>
+      <c r="BH17" s="81"/>
+      <c r="BI17" s="81"/>
+      <c r="BJ17" s="81"/>
+      <c r="BK17" s="81"/>
+      <c r="BL17" s="81"/>
+      <c r="BM17" s="81"/>
+      <c r="BN17" s="81"/>
+      <c r="BO17" s="81"/>
+      <c r="BP17" s="81"/>
+      <c r="BQ17" s="81"/>
       <c r="BR17" s="2"/>
       <c r="BS17" s="2"/>
       <c r="BT17" s="2"/>
@@ -4359,13 +4373,13 @@
       <c r="DO17" s="2"/>
       <c r="DP17" s="2"/>
     </row>
-    <row r="18" ht="11.25" customHeight="1">
+    <row r="18" spans="1:120" ht="11.25" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="8"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="54"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -4481,13 +4495,13 @@
       <c r="DO18" s="2"/>
       <c r="DP18" s="2"/>
     </row>
-    <row r="19" ht="8" customHeight="1">
+    <row r="19" spans="1:120" ht="7.95" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="55"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="56"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="57"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -4496,32 +4510,32 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="7"/>
-      <c r="O19" t="s" s="58">
+      <c r="O19" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="60"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="83"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="83"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="83"/>
+      <c r="AH19" s="83"/>
+      <c r="AI19" s="83"/>
+      <c r="AJ19" s="83"/>
+      <c r="AK19" s="83"/>
+      <c r="AL19" s="84"/>
       <c r="AM19" s="8"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -4605,87 +4619,87 @@
       <c r="DO19" s="2"/>
       <c r="DP19" s="2"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:120" ht="12.75" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" t="s" s="64">
+      <c r="B20" s="28"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="68"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="87"/>
       <c r="AM20" s="8"/>
-      <c r="AN20" t="s" s="48">
+      <c r="AN20" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="38"/>
-      <c r="AT20" s="38"/>
-      <c r="AU20" s="38"/>
-      <c r="AV20" s="38"/>
-      <c r="AW20" s="38"/>
-      <c r="AX20" s="38"/>
-      <c r="AY20" s="38"/>
-      <c r="AZ20" s="38"/>
-      <c r="BA20" s="38"/>
-      <c r="BB20" s="38"/>
-      <c r="BC20" s="38"/>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="38"/>
-      <c r="BF20" s="38"/>
-      <c r="BG20" s="38"/>
-      <c r="BH20" s="38"/>
-      <c r="BI20" s="38"/>
-      <c r="BJ20" s="38"/>
-      <c r="BK20" s="38"/>
-      <c r="BL20" s="38"/>
-      <c r="BM20" s="38"/>
-      <c r="BN20" s="38"/>
-      <c r="BO20" s="38"/>
-      <c r="BP20" s="38"/>
-      <c r="BQ20" s="38"/>
-      <c r="BR20" s="38"/>
-      <c r="BS20" s="38"/>
-      <c r="BT20" s="38"/>
-      <c r="BU20" s="38"/>
-      <c r="BV20" s="38"/>
-      <c r="BW20" s="38"/>
-      <c r="BX20" s="38"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="18"/>
+      <c r="BB20" s="18"/>
+      <c r="BC20" s="18"/>
+      <c r="BD20" s="18"/>
+      <c r="BE20" s="18"/>
+      <c r="BF20" s="18"/>
+      <c r="BG20" s="18"/>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="18"/>
+      <c r="BK20" s="18"/>
+      <c r="BL20" s="18"/>
+      <c r="BM20" s="18"/>
+      <c r="BN20" s="18"/>
+      <c r="BO20" s="18"/>
+      <c r="BP20" s="18"/>
+      <c r="BQ20" s="18"/>
+      <c r="BR20" s="18"/>
+      <c r="BS20" s="18"/>
+      <c r="BT20" s="18"/>
+      <c r="BU20" s="18"/>
+      <c r="BV20" s="18"/>
+      <c r="BW20" s="18"/>
+      <c r="BX20" s="18"/>
       <c r="BY20" s="2"/>
       <c r="BZ20" s="2"/>
       <c r="CA20" s="2"/>
@@ -4731,83 +4745,83 @@
       <c r="DO20" s="2"/>
       <c r="DP20" s="2"/>
     </row>
-    <row r="21" ht="8" customHeight="1">
+    <row r="21" spans="1:120" ht="7.95" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="55"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="69"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="67"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="67"/>
-      <c r="AG21" s="67"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="67"/>
-      <c r="AK21" s="67"/>
-      <c r="AL21" s="68"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="87"/>
       <c r="AM21" s="8"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="38"/>
-      <c r="BE21" s="38"/>
-      <c r="BF21" s="38"/>
-      <c r="BG21" s="38"/>
-      <c r="BH21" s="38"/>
-      <c r="BI21" s="38"/>
-      <c r="BJ21" s="38"/>
-      <c r="BK21" s="38"/>
-      <c r="BL21" s="38"/>
-      <c r="BM21" s="38"/>
-      <c r="BN21" s="38"/>
-      <c r="BO21" s="38"/>
-      <c r="BP21" s="38"/>
-      <c r="BQ21" s="38"/>
-      <c r="BR21" s="38"/>
-      <c r="BS21" s="38"/>
-      <c r="BT21" s="38"/>
-      <c r="BU21" s="38"/>
-      <c r="BV21" s="38"/>
-      <c r="BW21" s="38"/>
-      <c r="BX21" s="38"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="18"/>
+      <c r="BB21" s="18"/>
+      <c r="BC21" s="18"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="18"/>
+      <c r="BF21" s="18"/>
+      <c r="BG21" s="18"/>
+      <c r="BH21" s="18"/>
+      <c r="BI21" s="18"/>
+      <c r="BJ21" s="18"/>
+      <c r="BK21" s="18"/>
+      <c r="BL21" s="18"/>
+      <c r="BM21" s="18"/>
+      <c r="BN21" s="18"/>
+      <c r="BO21" s="18"/>
+      <c r="BP21" s="18"/>
+      <c r="BQ21" s="18"/>
+      <c r="BR21" s="18"/>
+      <c r="BS21" s="18"/>
+      <c r="BT21" s="18"/>
+      <c r="BU21" s="18"/>
+      <c r="BV21" s="18"/>
+      <c r="BW21" s="18"/>
+      <c r="BX21" s="18"/>
       <c r="BY21" s="2"/>
       <c r="BZ21" s="2"/>
       <c r="CA21" s="2"/>
@@ -4853,100 +4867,100 @@
       <c r="DO21" s="2"/>
       <c r="DP21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:120" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" t="s" s="64">
+      <c r="B22" s="28"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-      <c r="AL22" s="68"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="86"/>
+      <c r="AJ22" s="86"/>
+      <c r="AK22" s="86"/>
+      <c r="AL22" s="87"/>
       <c r="AM22" s="8"/>
-      <c r="AN22" t="s" s="48">
+      <c r="AN22" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AO22" s="38"/>
-      <c r="AP22" s="38"/>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="38"/>
-      <c r="AS22" s="70"/>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="71"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="71"/>
-      <c r="AX22" s="71"/>
-      <c r="AY22" s="71"/>
-      <c r="AZ22" s="71"/>
-      <c r="BA22" s="71"/>
-      <c r="BB22" s="71"/>
-      <c r="BC22" s="71"/>
-      <c r="BD22" s="71"/>
-      <c r="BE22" s="71"/>
-      <c r="BF22" s="70"/>
-      <c r="BG22" s="71"/>
-      <c r="BH22" s="71"/>
-      <c r="BI22" s="2"/>
-      <c r="BJ22" s="71"/>
-      <c r="BK22" s="71"/>
-      <c r="BL22" s="71"/>
-      <c r="BM22" s="71"/>
-      <c r="BN22" s="71"/>
-      <c r="BO22" s="71"/>
-      <c r="BP22" s="71"/>
-      <c r="BQ22" s="71"/>
-      <c r="BR22" s="72"/>
-      <c r="BS22" s="70"/>
-      <c r="BT22" s="71"/>
-      <c r="BU22" s="71"/>
-      <c r="BV22" s="71"/>
-      <c r="BW22" s="71"/>
-      <c r="BX22" s="71"/>
-      <c r="BY22" s="71"/>
-      <c r="BZ22" s="71"/>
-      <c r="CA22" s="71"/>
-      <c r="CB22" s="71"/>
-      <c r="CC22" s="71"/>
-      <c r="CD22" s="71"/>
-      <c r="CE22" s="71"/>
-      <c r="CF22" s="71"/>
-      <c r="CG22" s="71"/>
-      <c r="CH22" s="71"/>
-      <c r="CI22" s="71"/>
-      <c r="CJ22" s="71"/>
-      <c r="CK22" s="71"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="115"/>
+      <c r="AT22" s="116"/>
+      <c r="AU22" s="116"/>
+      <c r="AV22" s="116"/>
+      <c r="AW22" s="116"/>
+      <c r="AX22" s="116"/>
+      <c r="AY22" s="116"/>
+      <c r="AZ22" s="116"/>
+      <c r="BA22" s="116"/>
+      <c r="BB22" s="116"/>
+      <c r="BC22" s="116"/>
+      <c r="BD22" s="116"/>
+      <c r="BE22" s="116"/>
+      <c r="BF22" s="115"/>
+      <c r="BG22" s="116"/>
+      <c r="BH22" s="116"/>
+      <c r="BI22" s="76"/>
+      <c r="BJ22" s="116"/>
+      <c r="BK22" s="116"/>
+      <c r="BL22" s="116"/>
+      <c r="BM22" s="116"/>
+      <c r="BN22" s="116"/>
+      <c r="BO22" s="116"/>
+      <c r="BP22" s="116"/>
+      <c r="BQ22" s="116"/>
+      <c r="BR22" s="38"/>
+      <c r="BS22" s="115"/>
+      <c r="BT22" s="116"/>
+      <c r="BU22" s="116"/>
+      <c r="BV22" s="116"/>
+      <c r="BW22" s="116"/>
+      <c r="BX22" s="116"/>
+      <c r="BY22" s="116"/>
+      <c r="BZ22" s="116"/>
+      <c r="CA22" s="116"/>
+      <c r="CB22" s="116"/>
+      <c r="CC22" s="116"/>
+      <c r="CD22" s="116"/>
+      <c r="CE22" s="116"/>
+      <c r="CF22" s="116"/>
+      <c r="CG22" s="116"/>
+      <c r="CH22" s="116"/>
+      <c r="CI22" s="116"/>
+      <c r="CJ22" s="116"/>
+      <c r="CK22" s="116"/>
       <c r="CL22" s="4"/>
       <c r="CM22" s="8"/>
       <c r="CN22" s="2"/>
@@ -4979,96 +4993,96 @@
       <c r="DO22" s="2"/>
       <c r="DP22" s="2"/>
     </row>
-    <row r="23" ht="8" customHeight="1">
+    <row r="23" spans="1:120" ht="7.95" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="78"/>
-      <c r="AC23" s="78"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="78"/>
-      <c r="AF23" s="78"/>
-      <c r="AG23" s="78"/>
-      <c r="AH23" s="78"/>
-      <c r="AI23" s="78"/>
-      <c r="AJ23" s="78"/>
-      <c r="AK23" s="78"/>
-      <c r="AL23" s="79"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="89"/>
+      <c r="AI23" s="89"/>
+      <c r="AJ23" s="89"/>
+      <c r="AK23" s="89"/>
+      <c r="AL23" s="90"/>
       <c r="AM23" s="8"/>
-      <c r="AN23" s="38"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="38"/>
-      <c r="AS23" s="71"/>
-      <c r="AT23" s="71"/>
-      <c r="AU23" s="71"/>
-      <c r="AV23" s="71"/>
-      <c r="AW23" s="71"/>
-      <c r="AX23" s="71"/>
-      <c r="AY23" s="71"/>
-      <c r="AZ23" s="71"/>
-      <c r="BA23" s="71"/>
-      <c r="BB23" s="71"/>
-      <c r="BC23" s="71"/>
-      <c r="BD23" s="71"/>
-      <c r="BE23" s="71"/>
-      <c r="BF23" s="71"/>
-      <c r="BG23" s="71"/>
-      <c r="BH23" s="71"/>
-      <c r="BI23" s="71"/>
-      <c r="BJ23" s="71"/>
-      <c r="BK23" s="71"/>
-      <c r="BL23" s="71"/>
-      <c r="BM23" s="71"/>
-      <c r="BN23" s="71"/>
-      <c r="BO23" s="71"/>
-      <c r="BP23" s="71"/>
-      <c r="BQ23" s="71"/>
-      <c r="BR23" s="72"/>
-      <c r="BS23" s="71"/>
-      <c r="BT23" s="71"/>
-      <c r="BU23" s="71"/>
-      <c r="BV23" s="71"/>
-      <c r="BW23" s="71"/>
-      <c r="BX23" s="71"/>
-      <c r="BY23" s="71"/>
-      <c r="BZ23" s="71"/>
-      <c r="CA23" s="71"/>
-      <c r="CB23" s="71"/>
-      <c r="CC23" s="71"/>
-      <c r="CD23" s="71"/>
-      <c r="CE23" s="71"/>
-      <c r="CF23" s="71"/>
-      <c r="CG23" s="71"/>
-      <c r="CH23" s="71"/>
-      <c r="CI23" s="71"/>
-      <c r="CJ23" s="71"/>
-      <c r="CK23" s="71"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="18"/>
+      <c r="AS23" s="37"/>
+      <c r="AT23" s="37"/>
+      <c r="AU23" s="37"/>
+      <c r="AV23" s="37"/>
+      <c r="AW23" s="37"/>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="37"/>
+      <c r="AZ23" s="37"/>
+      <c r="BA23" s="37"/>
+      <c r="BB23" s="37"/>
+      <c r="BC23" s="37"/>
+      <c r="BD23" s="37"/>
+      <c r="BE23" s="37"/>
+      <c r="BF23" s="37"/>
+      <c r="BG23" s="37"/>
+      <c r="BH23" s="37"/>
+      <c r="BI23" s="37"/>
+      <c r="BJ23" s="37"/>
+      <c r="BK23" s="37"/>
+      <c r="BL23" s="37"/>
+      <c r="BM23" s="37"/>
+      <c r="BN23" s="37"/>
+      <c r="BO23" s="37"/>
+      <c r="BP23" s="37"/>
+      <c r="BQ23" s="37"/>
+      <c r="BR23" s="38"/>
+      <c r="BS23" s="37"/>
+      <c r="BT23" s="37"/>
+      <c r="BU23" s="37"/>
+      <c r="BV23" s="37"/>
+      <c r="BW23" s="37"/>
+      <c r="BX23" s="37"/>
+      <c r="BY23" s="37"/>
+      <c r="BZ23" s="37"/>
+      <c r="CA23" s="37"/>
+      <c r="CB23" s="37"/>
+      <c r="CC23" s="37"/>
+      <c r="CD23" s="37"/>
+      <c r="CE23" s="37"/>
+      <c r="CF23" s="37"/>
+      <c r="CG23" s="37"/>
+      <c r="CH23" s="37"/>
+      <c r="CI23" s="37"/>
+      <c r="CJ23" s="37"/>
+      <c r="CK23" s="37"/>
       <c r="CL23" s="4"/>
       <c r="CM23" s="8"/>
       <c r="CN23" s="2"/>
@@ -5101,100 +5115,100 @@
       <c r="DO23" s="2"/>
       <c r="DP23" s="2"/>
     </row>
-    <row r="24" ht="8" customHeight="1">
+    <row r="24" spans="1:120" ht="7.95" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="55"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="56"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="7"/>
-      <c r="O24" t="s" s="81">
+      <c r="O24" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="83"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="92"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="92"/>
+      <c r="AL24" s="93"/>
       <c r="AM24" s="8"/>
-      <c r="AN24" t="s" s="84">
+      <c r="AN24" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="AO24" s="85"/>
-      <c r="AP24" s="85"/>
-      <c r="AQ24" s="85"/>
-      <c r="AR24" s="85"/>
-      <c r="AS24" s="71"/>
-      <c r="AT24" s="71"/>
-      <c r="AU24" s="71"/>
-      <c r="AV24" s="71"/>
-      <c r="AW24" s="71"/>
-      <c r="AX24" s="71"/>
-      <c r="AY24" s="71"/>
-      <c r="AZ24" s="71"/>
-      <c r="BA24" s="71"/>
-      <c r="BB24" s="71"/>
-      <c r="BC24" s="71"/>
-      <c r="BD24" s="71"/>
-      <c r="BE24" s="71"/>
-      <c r="BF24" s="71"/>
-      <c r="BG24" s="71"/>
-      <c r="BH24" s="71"/>
-      <c r="BI24" s="71"/>
-      <c r="BJ24" s="71"/>
-      <c r="BK24" s="71"/>
-      <c r="BL24" s="71"/>
-      <c r="BM24" s="71"/>
-      <c r="BN24" s="71"/>
-      <c r="BO24" s="71"/>
-      <c r="BP24" s="71"/>
-      <c r="BQ24" s="71"/>
-      <c r="BR24" s="72"/>
-      <c r="BS24" s="71"/>
-      <c r="BT24" s="71"/>
-      <c r="BU24" s="71"/>
-      <c r="BV24" s="71"/>
-      <c r="BW24" s="71"/>
-      <c r="BX24" s="71"/>
-      <c r="BY24" s="71"/>
-      <c r="BZ24" s="71"/>
-      <c r="CA24" s="71"/>
-      <c r="CB24" s="71"/>
-      <c r="CC24" s="71"/>
-      <c r="CD24" s="71"/>
-      <c r="CE24" s="71"/>
-      <c r="CF24" s="71"/>
-      <c r="CG24" s="71"/>
-      <c r="CH24" s="71"/>
-      <c r="CI24" s="71"/>
-      <c r="CJ24" s="71"/>
-      <c r="CK24" s="71"/>
+      <c r="AO24" s="110"/>
+      <c r="AP24" s="110"/>
+      <c r="AQ24" s="110"/>
+      <c r="AR24" s="110"/>
+      <c r="AS24" s="37"/>
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="37"/>
+      <c r="AV24" s="37"/>
+      <c r="AW24" s="37"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="37"/>
+      <c r="AZ24" s="37"/>
+      <c r="BA24" s="37"/>
+      <c r="BB24" s="37"/>
+      <c r="BC24" s="37"/>
+      <c r="BD24" s="37"/>
+      <c r="BE24" s="37"/>
+      <c r="BF24" s="37"/>
+      <c r="BG24" s="37"/>
+      <c r="BH24" s="37"/>
+      <c r="BI24" s="37"/>
+      <c r="BJ24" s="37"/>
+      <c r="BK24" s="37"/>
+      <c r="BL24" s="37"/>
+      <c r="BM24" s="37"/>
+      <c r="BN24" s="37"/>
+      <c r="BO24" s="37"/>
+      <c r="BP24" s="37"/>
+      <c r="BQ24" s="37"/>
+      <c r="BR24" s="38"/>
+      <c r="BS24" s="37"/>
+      <c r="BT24" s="37"/>
+      <c r="BU24" s="37"/>
+      <c r="BV24" s="37"/>
+      <c r="BW24" s="37"/>
+      <c r="BX24" s="37"/>
+      <c r="BY24" s="37"/>
+      <c r="BZ24" s="37"/>
+      <c r="CA24" s="37"/>
+      <c r="CB24" s="37"/>
+      <c r="CC24" s="37"/>
+      <c r="CD24" s="37"/>
+      <c r="CE24" s="37"/>
+      <c r="CF24" s="37"/>
+      <c r="CG24" s="37"/>
+      <c r="CH24" s="37"/>
+      <c r="CI24" s="37"/>
+      <c r="CJ24" s="37"/>
+      <c r="CK24" s="37"/>
       <c r="CL24" s="4"/>
       <c r="CM24" s="8"/>
       <c r="CN24" s="2"/>
@@ -5227,115 +5241,115 @@
       <c r="DO24" s="2"/>
       <c r="DP24" s="2"/>
     </row>
-    <row r="25" ht="18" customHeight="1">
+    <row r="25" spans="1:120" ht="18" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="61"/>
-      <c r="D25" t="s" s="86">
+      <c r="B25" s="28"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" t="s" s="64">
+      <c r="E25" s="33"/>
+      <c r="F25" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="88"/>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="88"/>
-      <c r="AD25" s="88"/>
-      <c r="AE25" s="88"/>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="88"/>
-      <c r="AH25" s="88"/>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="88"/>
-      <c r="AK25" s="88"/>
-      <c r="AL25" s="89"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="95"/>
+      <c r="AJ25" s="95"/>
+      <c r="AK25" s="95"/>
+      <c r="AL25" s="96"/>
       <c r="AM25" s="8"/>
-      <c r="AN25" s="85"/>
-      <c r="AO25" s="85"/>
-      <c r="AP25" s="85"/>
-      <c r="AQ25" s="85"/>
-      <c r="AR25" s="85"/>
-      <c r="AS25" t="s" s="90">
+      <c r="AN25" s="110"/>
+      <c r="AO25" s="110"/>
+      <c r="AP25" s="110"/>
+      <c r="AQ25" s="110"/>
+      <c r="AR25" s="110"/>
+      <c r="AS25" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AT25" s="91"/>
-      <c r="AU25" s="91"/>
-      <c r="AV25" s="91"/>
-      <c r="AW25" s="92"/>
-      <c r="AX25" s="93"/>
-      <c r="AY25" s="93"/>
-      <c r="AZ25" s="93"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="93"/>
-      <c r="BC25" s="93"/>
-      <c r="BD25" s="93"/>
-      <c r="BE25" s="93"/>
-      <c r="BF25" s="93"/>
-      <c r="BG25" s="93"/>
-      <c r="BH25" s="93"/>
-      <c r="BI25" s="93"/>
-      <c r="BJ25" s="93"/>
-      <c r="BK25" s="93"/>
-      <c r="BL25" t="s" s="94">
+      <c r="AT25" s="73"/>
+      <c r="AU25" s="73"/>
+      <c r="AV25" s="73"/>
+      <c r="AW25" s="120"/>
+      <c r="AX25" s="121"/>
+      <c r="AY25" s="121"/>
+      <c r="AZ25" s="121"/>
+      <c r="BA25" s="76"/>
+      <c r="BB25" s="121"/>
+      <c r="BC25" s="121"/>
+      <c r="BD25" s="121"/>
+      <c r="BE25" s="121"/>
+      <c r="BF25" s="121"/>
+      <c r="BG25" s="121"/>
+      <c r="BH25" s="121"/>
+      <c r="BI25" s="121"/>
+      <c r="BJ25" s="121"/>
+      <c r="BK25" s="121"/>
+      <c r="BL25" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="BM25" t="s" s="92">
+      <c r="BM25" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="BN25" s="93"/>
-      <c r="BO25" s="93"/>
-      <c r="BP25" s="92"/>
-      <c r="BQ25" s="93"/>
-      <c r="BR25" s="93"/>
-      <c r="BS25" s="93"/>
-      <c r="BT25" s="93"/>
-      <c r="BU25" s="93"/>
-      <c r="BV25" t="s" s="95">
+      <c r="BN25" s="121"/>
+      <c r="BO25" s="121"/>
+      <c r="BP25" s="120"/>
+      <c r="BQ25" s="121"/>
+      <c r="BR25" s="121"/>
+      <c r="BS25" s="121"/>
+      <c r="BT25" s="121"/>
+      <c r="BU25" s="121"/>
+      <c r="BV25" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="BW25" t="s" s="90">
+      <c r="BW25" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="BX25" s="91"/>
-      <c r="BY25" s="91"/>
-      <c r="BZ25" s="91"/>
-      <c r="CA25" s="91"/>
-      <c r="CB25" s="96"/>
-      <c r="CC25" s="96"/>
-      <c r="CD25" s="96"/>
-      <c r="CE25" t="s" s="97">
+      <c r="BX25" s="73"/>
+      <c r="BY25" s="73"/>
+      <c r="BZ25" s="73"/>
+      <c r="CA25" s="73"/>
+      <c r="CB25" s="118"/>
+      <c r="CC25" s="118"/>
+      <c r="CD25" s="118"/>
+      <c r="CE25" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="CF25" t="s" s="98">
+      <c r="CF25" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="CG25" s="96"/>
-      <c r="CH25" s="96"/>
-      <c r="CI25" s="96"/>
-      <c r="CJ25" s="96"/>
-      <c r="CK25" s="96"/>
-      <c r="CL25" s="99"/>
+      <c r="CG25" s="118"/>
+      <c r="CH25" s="118"/>
+      <c r="CI25" s="118"/>
+      <c r="CJ25" s="118"/>
+      <c r="CK25" s="118"/>
+      <c r="CL25" s="119"/>
       <c r="CM25" s="8"/>
       <c r="CN25" s="2"/>
       <c r="CO25" s="2"/>
@@ -5367,96 +5381,96 @@
       <c r="DO25" s="2"/>
       <c r="DP25" s="2"/>
     </row>
-    <row r="26" ht="8" customHeight="1">
+    <row r="26" spans="1:120" ht="7.95" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="102"/>
-      <c r="AE26" s="102"/>
-      <c r="AF26" s="102"/>
-      <c r="AG26" s="102"/>
-      <c r="AH26" s="102"/>
-      <c r="AI26" s="102"/>
-      <c r="AJ26" s="102"/>
-      <c r="AK26" s="102"/>
-      <c r="AL26" s="103"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="98"/>
+      <c r="AL26" s="99"/>
       <c r="AM26" s="8"/>
-      <c r="AN26" s="38"/>
-      <c r="AO26" s="38"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="38"/>
-      <c r="AR26" s="38"/>
-      <c r="AS26" s="71"/>
-      <c r="AT26" s="71"/>
-      <c r="AU26" s="71"/>
-      <c r="AV26" s="71"/>
-      <c r="AW26" s="71"/>
-      <c r="AX26" s="71"/>
-      <c r="AY26" s="71"/>
-      <c r="AZ26" s="71"/>
-      <c r="BA26" s="71"/>
-      <c r="BB26" s="71"/>
-      <c r="BC26" s="71"/>
-      <c r="BD26" s="71"/>
-      <c r="BE26" s="71"/>
-      <c r="BF26" s="71"/>
-      <c r="BG26" s="71"/>
-      <c r="BH26" s="71"/>
-      <c r="BI26" s="71"/>
-      <c r="BJ26" s="71"/>
-      <c r="BK26" s="71"/>
-      <c r="BL26" s="71"/>
-      <c r="BM26" s="71"/>
-      <c r="BN26" s="71"/>
-      <c r="BO26" s="71"/>
-      <c r="BP26" s="71"/>
-      <c r="BQ26" s="71"/>
-      <c r="BR26" s="72"/>
-      <c r="BS26" s="71"/>
-      <c r="BT26" s="71"/>
-      <c r="BU26" s="71"/>
-      <c r="BV26" s="71"/>
-      <c r="BW26" s="71"/>
-      <c r="BX26" s="71"/>
-      <c r="BY26" s="71"/>
-      <c r="BZ26" s="71"/>
-      <c r="CA26" s="71"/>
-      <c r="CB26" s="71"/>
-      <c r="CC26" s="71"/>
-      <c r="CD26" s="71"/>
-      <c r="CE26" s="71"/>
-      <c r="CF26" s="71"/>
-      <c r="CG26" s="71"/>
-      <c r="CH26" s="71"/>
-      <c r="CI26" s="71"/>
-      <c r="CJ26" s="71"/>
-      <c r="CK26" s="71"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="18"/>
+      <c r="AS26" s="37"/>
+      <c r="AT26" s="37"/>
+      <c r="AU26" s="37"/>
+      <c r="AV26" s="37"/>
+      <c r="AW26" s="37"/>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="37"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="37"/>
+      <c r="BC26" s="37"/>
+      <c r="BD26" s="37"/>
+      <c r="BE26" s="37"/>
+      <c r="BF26" s="37"/>
+      <c r="BG26" s="37"/>
+      <c r="BH26" s="37"/>
+      <c r="BI26" s="37"/>
+      <c r="BJ26" s="37"/>
+      <c r="BK26" s="37"/>
+      <c r="BL26" s="37"/>
+      <c r="BM26" s="37"/>
+      <c r="BN26" s="37"/>
+      <c r="BO26" s="37"/>
+      <c r="BP26" s="37"/>
+      <c r="BQ26" s="37"/>
+      <c r="BR26" s="38"/>
+      <c r="BS26" s="37"/>
+      <c r="BT26" s="37"/>
+      <c r="BU26" s="37"/>
+      <c r="BV26" s="37"/>
+      <c r="BW26" s="37"/>
+      <c r="BX26" s="37"/>
+      <c r="BY26" s="37"/>
+      <c r="BZ26" s="37"/>
+      <c r="CA26" s="37"/>
+      <c r="CB26" s="37"/>
+      <c r="CC26" s="37"/>
+      <c r="CD26" s="37"/>
+      <c r="CE26" s="37"/>
+      <c r="CF26" s="37"/>
+      <c r="CG26" s="37"/>
+      <c r="CH26" s="37"/>
+      <c r="CI26" s="37"/>
+      <c r="CJ26" s="37"/>
+      <c r="CK26" s="37"/>
       <c r="CL26" s="4"/>
       <c r="CM26" s="8"/>
       <c r="CN26" s="2"/>
@@ -5489,98 +5503,98 @@
       <c r="DO26" s="2"/>
       <c r="DP26" s="2"/>
     </row>
-    <row r="27" ht="8" customHeight="1">
+    <row r="27" spans="1:120" ht="7.95" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="55"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="56"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="7"/>
-      <c r="O27" t="s" s="105">
+      <c r="O27" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="106"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="106"/>
-      <c r="AH27" s="106"/>
-      <c r="AI27" s="106"/>
-      <c r="AJ27" s="106"/>
-      <c r="AK27" s="106"/>
-      <c r="AL27" s="107"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="101"/>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="101"/>
+      <c r="AF27" s="101"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="101"/>
+      <c r="AI27" s="101"/>
+      <c r="AJ27" s="101"/>
+      <c r="AK27" s="101"/>
+      <c r="AL27" s="102"/>
       <c r="AM27" s="8"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="38"/>
-      <c r="AS27" s="71"/>
-      <c r="AT27" s="71"/>
-      <c r="AU27" s="71"/>
-      <c r="AV27" s="71"/>
-      <c r="AW27" s="71"/>
-      <c r="AX27" s="71"/>
-      <c r="AY27" s="71"/>
-      <c r="AZ27" s="71"/>
-      <c r="BA27" s="71"/>
-      <c r="BB27" s="71"/>
-      <c r="BC27" s="71"/>
-      <c r="BD27" s="71"/>
-      <c r="BE27" s="71"/>
-      <c r="BF27" s="71"/>
-      <c r="BG27" s="71"/>
-      <c r="BH27" s="71"/>
-      <c r="BI27" s="71"/>
-      <c r="BJ27" s="71"/>
-      <c r="BK27" s="71"/>
-      <c r="BL27" s="71"/>
-      <c r="BM27" s="71"/>
-      <c r="BN27" s="71"/>
-      <c r="BO27" s="71"/>
-      <c r="BP27" s="71"/>
-      <c r="BQ27" s="71"/>
-      <c r="BR27" s="72"/>
-      <c r="BS27" s="71"/>
-      <c r="BT27" s="71"/>
-      <c r="BU27" s="71"/>
-      <c r="BV27" s="71"/>
-      <c r="BW27" s="71"/>
-      <c r="BX27" s="71"/>
-      <c r="BY27" s="71"/>
-      <c r="BZ27" s="71"/>
-      <c r="CA27" s="71"/>
-      <c r="CB27" s="71"/>
-      <c r="CC27" s="71"/>
-      <c r="CD27" s="71"/>
-      <c r="CE27" s="71"/>
-      <c r="CF27" s="71"/>
-      <c r="CG27" s="71"/>
-      <c r="CH27" s="71"/>
-      <c r="CI27" s="71"/>
-      <c r="CJ27" s="71"/>
-      <c r="CK27" s="71"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="18"/>
+      <c r="AS27" s="37"/>
+      <c r="AT27" s="37"/>
+      <c r="AU27" s="37"/>
+      <c r="AV27" s="37"/>
+      <c r="AW27" s="37"/>
+      <c r="AX27" s="37"/>
+      <c r="AY27" s="37"/>
+      <c r="AZ27" s="37"/>
+      <c r="BA27" s="37"/>
+      <c r="BB27" s="37"/>
+      <c r="BC27" s="37"/>
+      <c r="BD27" s="37"/>
+      <c r="BE27" s="37"/>
+      <c r="BF27" s="37"/>
+      <c r="BG27" s="37"/>
+      <c r="BH27" s="37"/>
+      <c r="BI27" s="37"/>
+      <c r="BJ27" s="37"/>
+      <c r="BK27" s="37"/>
+      <c r="BL27" s="37"/>
+      <c r="BM27" s="37"/>
+      <c r="BN27" s="37"/>
+      <c r="BO27" s="37"/>
+      <c r="BP27" s="37"/>
+      <c r="BQ27" s="37"/>
+      <c r="BR27" s="38"/>
+      <c r="BS27" s="37"/>
+      <c r="BT27" s="37"/>
+      <c r="BU27" s="37"/>
+      <c r="BV27" s="37"/>
+      <c r="BW27" s="37"/>
+      <c r="BX27" s="37"/>
+      <c r="BY27" s="37"/>
+      <c r="BZ27" s="37"/>
+      <c r="CA27" s="37"/>
+      <c r="CB27" s="37"/>
+      <c r="CC27" s="37"/>
+      <c r="CD27" s="37"/>
+      <c r="CE27" s="37"/>
+      <c r="CF27" s="37"/>
+      <c r="CG27" s="37"/>
+      <c r="CH27" s="37"/>
+      <c r="CI27" s="37"/>
+      <c r="CJ27" s="37"/>
+      <c r="CK27" s="37"/>
       <c r="CL27" s="4"/>
       <c r="CM27" s="8"/>
       <c r="CN27" s="2"/>
@@ -5613,100 +5627,100 @@
       <c r="DO27" s="2"/>
       <c r="DP27" s="2"/>
     </row>
-    <row r="28" ht="27" customHeight="1">
+    <row r="28" spans="1:120" ht="27" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" t="s" s="64">
+      <c r="B28" s="28"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="109"/>
-      <c r="W28" s="109"/>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="109"/>
-      <c r="Z28" s="109"/>
-      <c r="AA28" s="109"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="109"/>
-      <c r="AD28" s="109"/>
-      <c r="AE28" s="109"/>
-      <c r="AF28" s="109"/>
-      <c r="AG28" s="109"/>
-      <c r="AH28" s="109"/>
-      <c r="AI28" s="109"/>
-      <c r="AJ28" s="109"/>
-      <c r="AK28" s="109"/>
-      <c r="AL28" s="110"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="104"/>
+      <c r="AF28" s="104"/>
+      <c r="AG28" s="104"/>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="104"/>
+      <c r="AJ28" s="104"/>
+      <c r="AK28" s="104"/>
+      <c r="AL28" s="105"/>
       <c r="AM28" s="8"/>
-      <c r="AN28" s="38"/>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="38"/>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="111"/>
-      <c r="AS28" s="112"/>
-      <c r="AT28" s="112"/>
-      <c r="AU28" s="112"/>
-      <c r="AV28" s="112"/>
-      <c r="AW28" s="112"/>
-      <c r="AX28" s="112"/>
-      <c r="AY28" s="112"/>
-      <c r="AZ28" s="112"/>
-      <c r="BA28" t="s" s="90">
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="75"/>
+      <c r="AT28" s="75"/>
+      <c r="AU28" s="75"/>
+      <c r="AV28" s="75"/>
+      <c r="AW28" s="75"/>
+      <c r="AX28" s="75"/>
+      <c r="AY28" s="75"/>
+      <c r="AZ28" s="75"/>
+      <c r="BA28" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="BB28" s="91"/>
-      <c r="BC28" s="113"/>
-      <c r="BD28" s="112"/>
-      <c r="BE28" s="112"/>
-      <c r="BF28" s="112"/>
-      <c r="BG28" s="112"/>
-      <c r="BH28" s="112"/>
-      <c r="BI28" s="2"/>
-      <c r="BJ28" s="112"/>
-      <c r="BK28" s="112"/>
-      <c r="BL28" s="112"/>
-      <c r="BM28" s="112"/>
-      <c r="BN28" s="112"/>
-      <c r="BO28" s="112"/>
-      <c r="BP28" s="112"/>
-      <c r="BQ28" s="112"/>
-      <c r="BR28" s="112"/>
-      <c r="BS28" s="112"/>
-      <c r="BT28" s="112"/>
-      <c r="BU28" s="112"/>
-      <c r="BV28" s="112"/>
-      <c r="BW28" s="71"/>
-      <c r="BX28" s="71"/>
-      <c r="BY28" s="71"/>
-      <c r="BZ28" s="71"/>
-      <c r="CA28" s="71"/>
-      <c r="CB28" s="71"/>
-      <c r="CC28" s="71"/>
-      <c r="CD28" s="71"/>
-      <c r="CE28" s="71"/>
-      <c r="CF28" s="71"/>
-      <c r="CG28" s="71"/>
-      <c r="CH28" s="71"/>
-      <c r="CI28" s="71"/>
-      <c r="CJ28" s="71"/>
-      <c r="CK28" s="71"/>
+      <c r="BB28" s="73"/>
+      <c r="BC28" s="74"/>
+      <c r="BD28" s="75"/>
+      <c r="BE28" s="75"/>
+      <c r="BF28" s="75"/>
+      <c r="BG28" s="75"/>
+      <c r="BH28" s="75"/>
+      <c r="BI28" s="76"/>
+      <c r="BJ28" s="75"/>
+      <c r="BK28" s="75"/>
+      <c r="BL28" s="75"/>
+      <c r="BM28" s="75"/>
+      <c r="BN28" s="75"/>
+      <c r="BO28" s="75"/>
+      <c r="BP28" s="75"/>
+      <c r="BQ28" s="75"/>
+      <c r="BR28" s="75"/>
+      <c r="BS28" s="75"/>
+      <c r="BT28" s="75"/>
+      <c r="BU28" s="75"/>
+      <c r="BV28" s="75"/>
+      <c r="BW28" s="37"/>
+      <c r="BX28" s="37"/>
+      <c r="BY28" s="37"/>
+      <c r="BZ28" s="37"/>
+      <c r="CA28" s="37"/>
+      <c r="CB28" s="37"/>
+      <c r="CC28" s="37"/>
+      <c r="CD28" s="37"/>
+      <c r="CE28" s="37"/>
+      <c r="CF28" s="37"/>
+      <c r="CG28" s="37"/>
+      <c r="CH28" s="37"/>
+      <c r="CI28" s="37"/>
+      <c r="CJ28" s="37"/>
+      <c r="CK28" s="37"/>
       <c r="CL28" s="4"/>
       <c r="CM28" s="8"/>
       <c r="CN28" s="2"/>
@@ -5739,13 +5753,13 @@
       <c r="DO28" s="2"/>
       <c r="DP28" s="2"/>
     </row>
-    <row r="29" ht="8" customHeight="1">
+    <row r="29" spans="1:120" ht="7.95" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="114"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -5753,82 +5767,82 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="115"/>
-      <c r="P29" s="116"/>
-      <c r="Q29" s="116"/>
-      <c r="R29" s="116"/>
-      <c r="S29" s="116"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="116"/>
-      <c r="V29" s="116"/>
-      <c r="W29" s="116"/>
-      <c r="X29" s="116"/>
-      <c r="Y29" s="116"/>
-      <c r="Z29" s="116"/>
-      <c r="AA29" s="116"/>
-      <c r="AB29" s="116"/>
-      <c r="AC29" s="116"/>
-      <c r="AD29" s="116"/>
-      <c r="AE29" s="116"/>
-      <c r="AF29" s="116"/>
-      <c r="AG29" s="116"/>
-      <c r="AH29" s="116"/>
-      <c r="AI29" s="116"/>
-      <c r="AJ29" s="116"/>
-      <c r="AK29" s="116"/>
-      <c r="AL29" s="117"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
+      <c r="X29" s="107"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="107"/>
+      <c r="AB29" s="107"/>
+      <c r="AC29" s="107"/>
+      <c r="AD29" s="107"/>
+      <c r="AE29" s="107"/>
+      <c r="AF29" s="107"/>
+      <c r="AG29" s="107"/>
+      <c r="AH29" s="107"/>
+      <c r="AI29" s="107"/>
+      <c r="AJ29" s="107"/>
+      <c r="AK29" s="107"/>
+      <c r="AL29" s="108"/>
       <c r="AM29" s="8"/>
-      <c r="AN29" s="38"/>
-      <c r="AO29" s="38"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="38"/>
-      <c r="AR29" s="38"/>
-      <c r="AS29" s="71"/>
-      <c r="AT29" s="71"/>
-      <c r="AU29" s="71"/>
-      <c r="AV29" s="71"/>
-      <c r="AW29" s="71"/>
-      <c r="AX29" s="71"/>
-      <c r="AY29" s="71"/>
-      <c r="AZ29" s="71"/>
-      <c r="BA29" s="71"/>
-      <c r="BB29" s="71"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="71"/>
-      <c r="BE29" s="71"/>
-      <c r="BF29" s="71"/>
-      <c r="BG29" s="71"/>
-      <c r="BH29" s="71"/>
-      <c r="BI29" s="71"/>
-      <c r="BJ29" s="71"/>
-      <c r="BK29" s="71"/>
-      <c r="BL29" s="71"/>
-      <c r="BM29" s="71"/>
-      <c r="BN29" s="71"/>
-      <c r="BO29" s="71"/>
-      <c r="BP29" s="71"/>
-      <c r="BQ29" s="71"/>
-      <c r="BR29" s="72"/>
-      <c r="BS29" s="71"/>
-      <c r="BT29" s="71"/>
-      <c r="BU29" s="71"/>
-      <c r="BV29" s="71"/>
-      <c r="BW29" s="71"/>
-      <c r="BX29" s="71"/>
-      <c r="BY29" s="71"/>
-      <c r="BZ29" s="71"/>
-      <c r="CA29" s="71"/>
-      <c r="CB29" s="71"/>
-      <c r="CC29" s="71"/>
-      <c r="CD29" s="71"/>
-      <c r="CE29" s="71"/>
-      <c r="CF29" s="71"/>
-      <c r="CG29" s="71"/>
-      <c r="CH29" s="71"/>
-      <c r="CI29" s="71"/>
-      <c r="CJ29" s="71"/>
-      <c r="CK29" s="71"/>
+      <c r="AN29" s="18"/>
+      <c r="AO29" s="18"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="18"/>
+      <c r="AR29" s="18"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="37"/>
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="37"/>
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
+      <c r="BM29" s="37"/>
+      <c r="BN29" s="37"/>
+      <c r="BO29" s="37"/>
+      <c r="BP29" s="37"/>
+      <c r="BQ29" s="37"/>
+      <c r="BR29" s="38"/>
+      <c r="BS29" s="37"/>
+      <c r="BT29" s="37"/>
+      <c r="BU29" s="37"/>
+      <c r="BV29" s="37"/>
+      <c r="BW29" s="37"/>
+      <c r="BX29" s="37"/>
+      <c r="BY29" s="37"/>
+      <c r="BZ29" s="37"/>
+      <c r="CA29" s="37"/>
+      <c r="CB29" s="37"/>
+      <c r="CC29" s="37"/>
+      <c r="CD29" s="37"/>
+      <c r="CE29" s="37"/>
+      <c r="CF29" s="37"/>
+      <c r="CG29" s="37"/>
+      <c r="CH29" s="37"/>
+      <c r="CI29" s="37"/>
+      <c r="CJ29" s="37"/>
+      <c r="CK29" s="37"/>
       <c r="CL29" s="4"/>
       <c r="CM29" s="8"/>
       <c r="CN29" s="2"/>
@@ -5861,11 +5875,11 @@
       <c r="DO29" s="2"/>
       <c r="DP29" s="2"/>
     </row>
-    <row r="30" ht="20.25" customHeight="1">
+    <row r="30" spans="1:120" ht="20.25" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="55"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="5"/>
-      <c r="D30" t="s" s="118">
+      <c r="D30" s="52" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="6"/>
@@ -5908,31 +5922,31 @@
       <c r="AP30" s="2"/>
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
-      <c r="AS30" s="119">
+      <c r="AS30" s="138">
         <v>0</v>
       </c>
-      <c r="AT30" s="120"/>
-      <c r="AU30" s="120"/>
-      <c r="AV30" s="120"/>
-      <c r="AW30" s="120"/>
-      <c r="AX30" s="120"/>
-      <c r="AY30" s="120"/>
-      <c r="AZ30" s="120"/>
-      <c r="BA30" s="120"/>
-      <c r="BB30" s="120"/>
-      <c r="BC30" s="120"/>
-      <c r="BD30" s="120"/>
-      <c r="BE30" s="120"/>
-      <c r="BF30" s="120"/>
-      <c r="BG30" s="120"/>
-      <c r="BH30" s="120"/>
-      <c r="BI30" t="s" s="121">
+      <c r="AT30" s="139"/>
+      <c r="AU30" s="139"/>
+      <c r="AV30" s="139"/>
+      <c r="AW30" s="139"/>
+      <c r="AX30" s="139"/>
+      <c r="AY30" s="139"/>
+      <c r="AZ30" s="139"/>
+      <c r="BA30" s="139"/>
+      <c r="BB30" s="139"/>
+      <c r="BC30" s="139"/>
+      <c r="BD30" s="139"/>
+      <c r="BE30" s="139"/>
+      <c r="BF30" s="139"/>
+      <c r="BG30" s="139"/>
+      <c r="BH30" s="139"/>
+      <c r="BI30" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="BJ30" s="120"/>
-      <c r="BK30" s="120"/>
-      <c r="BL30" s="120"/>
-      <c r="BM30" s="120"/>
+      <c r="BJ30" s="139"/>
+      <c r="BK30" s="139"/>
+      <c r="BL30" s="139"/>
+      <c r="BM30" s="139"/>
       <c r="BN30" s="2"/>
       <c r="BO30" s="2"/>
       <c r="BP30" s="2"/>
@@ -5989,53 +6003,53 @@
       <c r="DO30" s="2"/>
       <c r="DP30" s="2"/>
     </row>
-    <row r="31" ht="11.25" customHeight="1">
+    <row r="31" spans="1:120" ht="11.25" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" t="s" s="122">
+      <c r="B31" s="28"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="123"/>
-      <c r="U31" s="123"/>
-      <c r="V31" s="123"/>
-      <c r="W31" s="123"/>
-      <c r="X31" s="123"/>
-      <c r="Y31" s="123"/>
-      <c r="Z31" s="123"/>
-      <c r="AA31" s="123"/>
-      <c r="AB31" s="123"/>
-      <c r="AC31" s="123"/>
-      <c r="AD31" s="123"/>
-      <c r="AE31" s="123"/>
-      <c r="AF31" s="123"/>
-      <c r="AG31" s="123"/>
-      <c r="AH31" s="123"/>
-      <c r="AI31" s="123"/>
-      <c r="AJ31" s="123"/>
-      <c r="AK31" s="123"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="142"/>
+      <c r="Q31" s="142"/>
+      <c r="R31" s="142"/>
+      <c r="S31" s="142"/>
+      <c r="T31" s="142"/>
+      <c r="U31" s="142"/>
+      <c r="V31" s="142"/>
+      <c r="W31" s="142"/>
+      <c r="X31" s="142"/>
+      <c r="Y31" s="142"/>
+      <c r="Z31" s="142"/>
+      <c r="AA31" s="142"/>
+      <c r="AB31" s="142"/>
+      <c r="AC31" s="142"/>
+      <c r="AD31" s="142"/>
+      <c r="AE31" s="142"/>
+      <c r="AF31" s="142"/>
+      <c r="AG31" s="142"/>
+      <c r="AH31" s="142"/>
+      <c r="AI31" s="142"/>
+      <c r="AJ31" s="142"/>
+      <c r="AK31" s="142"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="8"/>
-      <c r="AN31" s="38"/>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="38"/>
-      <c r="AQ31" s="38"/>
-      <c r="AR31" s="38"/>
+      <c r="AN31" s="18"/>
+      <c r="AO31" s="18"/>
+      <c r="AP31" s="18"/>
+      <c r="AQ31" s="18"/>
+      <c r="AR31" s="18"/>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
       <c r="AU31" s="2"/>
@@ -6066,22 +6080,22 @@
       <c r="BT31" s="2"/>
       <c r="BU31" s="2"/>
       <c r="BV31" s="2"/>
-      <c r="BW31" s="124"/>
-      <c r="BX31" s="124"/>
-      <c r="BY31" s="125"/>
-      <c r="BZ31" s="125"/>
-      <c r="CA31" s="125"/>
-      <c r="CB31" s="125"/>
-      <c r="CC31" s="125"/>
-      <c r="CD31" s="125"/>
-      <c r="CE31" s="125"/>
-      <c r="CF31" s="125"/>
-      <c r="CG31" s="125"/>
-      <c r="CH31" s="125"/>
-      <c r="CI31" s="125"/>
-      <c r="CJ31" s="125"/>
-      <c r="CK31" s="125"/>
-      <c r="CL31" s="126"/>
+      <c r="BW31" s="53"/>
+      <c r="BX31" s="53"/>
+      <c r="BY31" s="54"/>
+      <c r="BZ31" s="54"/>
+      <c r="CA31" s="54"/>
+      <c r="CB31" s="54"/>
+      <c r="CC31" s="54"/>
+      <c r="CD31" s="54"/>
+      <c r="CE31" s="54"/>
+      <c r="CF31" s="54"/>
+      <c r="CG31" s="54"/>
+      <c r="CH31" s="54"/>
+      <c r="CI31" s="54"/>
+      <c r="CJ31" s="54"/>
+      <c r="CK31" s="54"/>
+      <c r="CL31" s="55"/>
       <c r="CM31" s="8"/>
       <c r="CN31" s="2"/>
       <c r="CO31" s="2"/>
@@ -6113,11 +6127,11 @@
       <c r="DO31" s="2"/>
       <c r="DP31" s="2"/>
     </row>
-    <row r="32" ht="8" customHeight="1">
+    <row r="32" spans="1:120" ht="7.95" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="55"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="69"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -6153,57 +6167,57 @@
       <c r="AK32" s="2"/>
       <c r="AL32" s="4"/>
       <c r="AM32" s="8"/>
-      <c r="AN32" s="38"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="38"/>
-      <c r="AQ32" s="38"/>
-      <c r="AR32" s="38"/>
-      <c r="AS32" s="124"/>
-      <c r="AT32" s="124"/>
-      <c r="AU32" s="124"/>
-      <c r="AV32" s="124"/>
-      <c r="AW32" s="124"/>
-      <c r="AX32" s="124"/>
-      <c r="AY32" s="124"/>
-      <c r="AZ32" s="124"/>
-      <c r="BA32" s="124"/>
-      <c r="BB32" s="124"/>
-      <c r="BC32" s="124"/>
-      <c r="BD32" s="124"/>
-      <c r="BE32" s="124"/>
-      <c r="BF32" s="124"/>
-      <c r="BG32" s="124"/>
-      <c r="BH32" s="124"/>
-      <c r="BI32" s="124"/>
-      <c r="BJ32" s="124"/>
-      <c r="BK32" s="124"/>
-      <c r="BL32" s="124"/>
-      <c r="BM32" s="124"/>
-      <c r="BN32" s="124"/>
-      <c r="BO32" s="124"/>
-      <c r="BP32" s="124"/>
-      <c r="BQ32" s="124"/>
-      <c r="BR32" s="124"/>
-      <c r="BS32" s="124"/>
-      <c r="BT32" s="124"/>
-      <c r="BU32" s="124"/>
-      <c r="BV32" s="124"/>
-      <c r="BW32" s="124"/>
-      <c r="BX32" s="124"/>
-      <c r="BY32" s="125"/>
-      <c r="BZ32" s="125"/>
-      <c r="CA32" s="125"/>
-      <c r="CB32" s="125"/>
-      <c r="CC32" s="125"/>
-      <c r="CD32" s="125"/>
-      <c r="CE32" s="125"/>
-      <c r="CF32" s="125"/>
-      <c r="CG32" s="125"/>
-      <c r="CH32" s="125"/>
-      <c r="CI32" s="125"/>
-      <c r="CJ32" s="125"/>
-      <c r="CK32" s="125"/>
-      <c r="CL32" s="126"/>
+      <c r="AN32" s="18"/>
+      <c r="AO32" s="18"/>
+      <c r="AP32" s="18"/>
+      <c r="AQ32" s="18"/>
+      <c r="AR32" s="18"/>
+      <c r="AS32" s="53"/>
+      <c r="AT32" s="53"/>
+      <c r="AU32" s="53"/>
+      <c r="AV32" s="53"/>
+      <c r="AW32" s="53"/>
+      <c r="AX32" s="53"/>
+      <c r="AY32" s="53"/>
+      <c r="AZ32" s="53"/>
+      <c r="BA32" s="53"/>
+      <c r="BB32" s="53"/>
+      <c r="BC32" s="53"/>
+      <c r="BD32" s="53"/>
+      <c r="BE32" s="53"/>
+      <c r="BF32" s="53"/>
+      <c r="BG32" s="53"/>
+      <c r="BH32" s="53"/>
+      <c r="BI32" s="53"/>
+      <c r="BJ32" s="53"/>
+      <c r="BK32" s="53"/>
+      <c r="BL32" s="53"/>
+      <c r="BM32" s="53"/>
+      <c r="BN32" s="53"/>
+      <c r="BO32" s="53"/>
+      <c r="BP32" s="53"/>
+      <c r="BQ32" s="53"/>
+      <c r="BR32" s="53"/>
+      <c r="BS32" s="53"/>
+      <c r="BT32" s="53"/>
+      <c r="BU32" s="53"/>
+      <c r="BV32" s="53"/>
+      <c r="BW32" s="53"/>
+      <c r="BX32" s="53"/>
+      <c r="BY32" s="54"/>
+      <c r="BZ32" s="54"/>
+      <c r="CA32" s="54"/>
+      <c r="CB32" s="54"/>
+      <c r="CC32" s="54"/>
+      <c r="CD32" s="54"/>
+      <c r="CE32" s="54"/>
+      <c r="CF32" s="54"/>
+      <c r="CG32" s="54"/>
+      <c r="CH32" s="54"/>
+      <c r="CI32" s="54"/>
+      <c r="CJ32" s="54"/>
+      <c r="CK32" s="54"/>
+      <c r="CL32" s="55"/>
       <c r="CM32" s="8"/>
       <c r="CN32" s="2"/>
       <c r="CO32" s="2"/>
@@ -6235,105 +6249,105 @@
       <c r="DO32" s="2"/>
       <c r="DP32" s="2"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:120" ht="14.25" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="61"/>
-      <c r="D33" t="s" s="86">
+      <c r="B33" s="28"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" t="s" s="127">
+      <c r="E33" s="33"/>
+      <c r="F33" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="128"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="128"/>
-      <c r="AJ33" s="128"/>
-      <c r="AK33" s="128"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="144"/>
+      <c r="Q33" s="144"/>
+      <c r="R33" s="144"/>
+      <c r="S33" s="144"/>
+      <c r="T33" s="144"/>
+      <c r="U33" s="144"/>
+      <c r="V33" s="144"/>
+      <c r="W33" s="144"/>
+      <c r="X33" s="144"/>
+      <c r="Y33" s="144"/>
+      <c r="Z33" s="144"/>
+      <c r="AA33" s="144"/>
+      <c r="AB33" s="144"/>
+      <c r="AC33" s="144"/>
+      <c r="AD33" s="144"/>
+      <c r="AE33" s="144"/>
+      <c r="AF33" s="144"/>
+      <c r="AG33" s="144"/>
+      <c r="AH33" s="144"/>
+      <c r="AI33" s="144"/>
+      <c r="AJ33" s="144"/>
+      <c r="AK33" s="144"/>
       <c r="AL33" s="4"/>
       <c r="AM33" s="8"/>
-      <c r="AN33" s="38"/>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="38"/>
-      <c r="AR33" s="38"/>
-      <c r="AS33" s="119">
+      <c r="AN33" s="18"/>
+      <c r="AO33" s="18"/>
+      <c r="AP33" s="18"/>
+      <c r="AQ33" s="18"/>
+      <c r="AR33" s="18"/>
+      <c r="AS33" s="138">
         <v>0</v>
       </c>
-      <c r="AT33" s="120"/>
-      <c r="AU33" s="120"/>
-      <c r="AV33" s="120"/>
-      <c r="AW33" s="120"/>
-      <c r="AX33" s="120"/>
-      <c r="AY33" s="120"/>
-      <c r="AZ33" s="120"/>
-      <c r="BA33" s="120"/>
-      <c r="BB33" s="120"/>
-      <c r="BC33" s="120"/>
-      <c r="BD33" s="120"/>
-      <c r="BE33" s="120"/>
-      <c r="BF33" t="s" s="70">
+      <c r="AT33" s="139"/>
+      <c r="AU33" s="139"/>
+      <c r="AV33" s="139"/>
+      <c r="AW33" s="139"/>
+      <c r="AX33" s="139"/>
+      <c r="AY33" s="139"/>
+      <c r="AZ33" s="139"/>
+      <c r="BA33" s="139"/>
+      <c r="BB33" s="139"/>
+      <c r="BC33" s="139"/>
+      <c r="BD33" s="139"/>
+      <c r="BE33" s="139"/>
+      <c r="BF33" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="BG33" s="71"/>
-      <c r="BH33" s="71"/>
-      <c r="BI33" s="71"/>
+      <c r="BG33" s="116"/>
+      <c r="BH33" s="116"/>
+      <c r="BI33" s="116"/>
       <c r="BJ33" s="2"/>
       <c r="BK33" s="2"/>
       <c r="BL33" s="2"/>
       <c r="BM33" s="2"/>
-      <c r="BN33" s="124"/>
-      <c r="BO33" s="124"/>
-      <c r="BP33" s="124"/>
-      <c r="BQ33" s="124"/>
-      <c r="BR33" s="124"/>
-      <c r="BS33" s="124"/>
-      <c r="BT33" s="124"/>
-      <c r="BU33" s="124"/>
-      <c r="BV33" s="124"/>
-      <c r="BW33" s="124"/>
-      <c r="BX33" s="124"/>
-      <c r="BY33" s="125"/>
-      <c r="BZ33" s="125"/>
-      <c r="CA33" s="125"/>
-      <c r="CB33" s="125"/>
-      <c r="CC33" s="125"/>
-      <c r="CD33" s="125"/>
-      <c r="CE33" s="125"/>
-      <c r="CF33" s="125"/>
-      <c r="CG33" s="125"/>
-      <c r="CH33" s="125"/>
-      <c r="CI33" s="125"/>
-      <c r="CJ33" s="125"/>
-      <c r="CK33" s="125"/>
-      <c r="CL33" s="126"/>
+      <c r="BN33" s="53"/>
+      <c r="BO33" s="53"/>
+      <c r="BP33" s="53"/>
+      <c r="BQ33" s="53"/>
+      <c r="BR33" s="53"/>
+      <c r="BS33" s="53"/>
+      <c r="BT33" s="53"/>
+      <c r="BU33" s="53"/>
+      <c r="BV33" s="53"/>
+      <c r="BW33" s="53"/>
+      <c r="BX33" s="53"/>
+      <c r="BY33" s="54"/>
+      <c r="BZ33" s="54"/>
+      <c r="CA33" s="54"/>
+      <c r="CB33" s="54"/>
+      <c r="CC33" s="54"/>
+      <c r="CD33" s="54"/>
+      <c r="CE33" s="54"/>
+      <c r="CF33" s="54"/>
+      <c r="CG33" s="54"/>
+      <c r="CH33" s="54"/>
+      <c r="CI33" s="54"/>
+      <c r="CJ33" s="54"/>
+      <c r="CK33" s="54"/>
+      <c r="CL33" s="55"/>
       <c r="CM33" s="8"/>
       <c r="CN33" s="2"/>
       <c r="CO33" s="2"/>
@@ -6365,11 +6379,11 @@
       <c r="DO33" s="2"/>
       <c r="DP33" s="2"/>
     </row>
-    <row r="34" ht="8" customHeight="1">
+    <row r="34" spans="1:120" ht="7.95" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="55"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="69"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -6405,57 +6419,57 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="4"/>
       <c r="AM34" s="8"/>
-      <c r="AN34" s="38"/>
-      <c r="AO34" s="38"/>
-      <c r="AP34" s="38"/>
-      <c r="AQ34" s="38"/>
-      <c r="AR34" s="38"/>
-      <c r="AS34" s="124"/>
-      <c r="AT34" s="124"/>
-      <c r="AU34" s="124"/>
-      <c r="AV34" s="124"/>
-      <c r="AW34" s="124"/>
-      <c r="AX34" s="124"/>
-      <c r="AY34" s="124"/>
-      <c r="AZ34" s="124"/>
-      <c r="BA34" s="124"/>
-      <c r="BB34" s="124"/>
-      <c r="BC34" s="124"/>
-      <c r="BD34" s="124"/>
-      <c r="BE34" s="124"/>
-      <c r="BF34" s="124"/>
-      <c r="BG34" s="124"/>
-      <c r="BH34" s="124"/>
-      <c r="BI34" s="124"/>
-      <c r="BJ34" s="124"/>
-      <c r="BK34" s="124"/>
-      <c r="BL34" s="124"/>
-      <c r="BM34" s="124"/>
-      <c r="BN34" s="124"/>
-      <c r="BO34" s="124"/>
-      <c r="BP34" s="124"/>
-      <c r="BQ34" s="124"/>
-      <c r="BR34" s="124"/>
-      <c r="BS34" s="124"/>
-      <c r="BT34" s="124"/>
-      <c r="BU34" s="124"/>
-      <c r="BV34" s="124"/>
-      <c r="BW34" s="124"/>
-      <c r="BX34" s="124"/>
-      <c r="BY34" s="125"/>
-      <c r="BZ34" s="125"/>
-      <c r="CA34" s="125"/>
-      <c r="CB34" s="125"/>
-      <c r="CC34" s="125"/>
-      <c r="CD34" s="125"/>
-      <c r="CE34" s="125"/>
-      <c r="CF34" s="125"/>
-      <c r="CG34" s="125"/>
-      <c r="CH34" s="125"/>
-      <c r="CI34" s="125"/>
-      <c r="CJ34" s="125"/>
-      <c r="CK34" s="125"/>
-      <c r="CL34" s="126"/>
+      <c r="AN34" s="18"/>
+      <c r="AO34" s="18"/>
+      <c r="AP34" s="18"/>
+      <c r="AQ34" s="18"/>
+      <c r="AR34" s="18"/>
+      <c r="AS34" s="53"/>
+      <c r="AT34" s="53"/>
+      <c r="AU34" s="53"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="53"/>
+      <c r="BB34" s="53"/>
+      <c r="BC34" s="53"/>
+      <c r="BD34" s="53"/>
+      <c r="BE34" s="53"/>
+      <c r="BF34" s="53"/>
+      <c r="BG34" s="53"/>
+      <c r="BH34" s="53"/>
+      <c r="BI34" s="53"/>
+      <c r="BJ34" s="53"/>
+      <c r="BK34" s="53"/>
+      <c r="BL34" s="53"/>
+      <c r="BM34" s="53"/>
+      <c r="BN34" s="53"/>
+      <c r="BO34" s="53"/>
+      <c r="BP34" s="53"/>
+      <c r="BQ34" s="53"/>
+      <c r="BR34" s="53"/>
+      <c r="BS34" s="53"/>
+      <c r="BT34" s="53"/>
+      <c r="BU34" s="53"/>
+      <c r="BV34" s="53"/>
+      <c r="BW34" s="53"/>
+      <c r="BX34" s="53"/>
+      <c r="BY34" s="54"/>
+      <c r="BZ34" s="54"/>
+      <c r="CA34" s="54"/>
+      <c r="CB34" s="54"/>
+      <c r="CC34" s="54"/>
+      <c r="CD34" s="54"/>
+      <c r="CE34" s="54"/>
+      <c r="CF34" s="54"/>
+      <c r="CG34" s="54"/>
+      <c r="CH34" s="54"/>
+      <c r="CI34" s="54"/>
+      <c r="CJ34" s="54"/>
+      <c r="CK34" s="54"/>
+      <c r="CL34" s="55"/>
       <c r="CM34" s="8"/>
       <c r="CN34" s="2"/>
       <c r="CO34" s="2"/>
@@ -6487,13 +6501,13 @@
       <c r="DO34" s="2"/>
       <c r="DP34" s="2"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:120" ht="14.25" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
-      <c r="F35" t="s" s="129">
+      <c r="B35" s="28"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="56" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="2"/>
@@ -6529,67 +6543,67 @@
       <c r="AK35" s="2"/>
       <c r="AL35" s="4"/>
       <c r="AM35" s="8"/>
-      <c r="AN35" t="s" s="48">
+      <c r="AN35" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AO35" s="38"/>
-      <c r="AP35" s="38"/>
-      <c r="AQ35" s="38"/>
-      <c r="AR35" s="38"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="18"/>
+      <c r="AQ35" s="18"/>
+      <c r="AR35" s="18"/>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
       <c r="AU35" s="2"/>
       <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
-      <c r="AY35" t="s" s="48">
+      <c r="AY35" s="23" t="s">
         <v>49</v>
       </c>
       <c r="AZ35" s="2"/>
-      <c r="BA35" s="130">
+      <c r="BA35" s="113">
         <v>375</v>
       </c>
-      <c r="BB35" s="131"/>
-      <c r="BC35" s="131"/>
-      <c r="BD35" s="131"/>
-      <c r="BE35" t="s" s="46">
+      <c r="BB35" s="114"/>
+      <c r="BC35" s="114"/>
+      <c r="BD35" s="114"/>
+      <c r="BE35" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="BF35" s="132"/>
-      <c r="BG35" s="132"/>
-      <c r="BH35" s="132"/>
-      <c r="BI35" t="s" s="46">
+      <c r="BF35" s="111"/>
+      <c r="BG35" s="111"/>
+      <c r="BH35" s="111"/>
+      <c r="BI35" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="BJ35" s="133"/>
-      <c r="BK35" s="132"/>
-      <c r="BL35" s="132"/>
-      <c r="BM35" s="132"/>
-      <c r="BN35" s="132"/>
-      <c r="BO35" s="132"/>
-      <c r="BP35" s="132"/>
-      <c r="BQ35" s="132"/>
-      <c r="BR35" s="132"/>
-      <c r="BS35" s="132"/>
-      <c r="BT35" s="132"/>
-      <c r="BU35" s="132"/>
-      <c r="BV35" s="132"/>
-      <c r="BW35" s="132"/>
-      <c r="BX35" s="124"/>
-      <c r="BY35" s="125"/>
-      <c r="BZ35" s="125"/>
-      <c r="CA35" s="125"/>
-      <c r="CB35" s="125"/>
-      <c r="CC35" s="125"/>
-      <c r="CD35" s="125"/>
-      <c r="CE35" s="125"/>
-      <c r="CF35" s="125"/>
-      <c r="CG35" s="125"/>
-      <c r="CH35" s="125"/>
-      <c r="CI35" s="125"/>
-      <c r="CJ35" s="125"/>
-      <c r="CK35" s="125"/>
-      <c r="CL35" s="126"/>
+      <c r="BJ35" s="112"/>
+      <c r="BK35" s="111"/>
+      <c r="BL35" s="111"/>
+      <c r="BM35" s="111"/>
+      <c r="BN35" s="111"/>
+      <c r="BO35" s="111"/>
+      <c r="BP35" s="111"/>
+      <c r="BQ35" s="111"/>
+      <c r="BR35" s="111"/>
+      <c r="BS35" s="111"/>
+      <c r="BT35" s="111"/>
+      <c r="BU35" s="111"/>
+      <c r="BV35" s="111"/>
+      <c r="BW35" s="111"/>
+      <c r="BX35" s="53"/>
+      <c r="BY35" s="54"/>
+      <c r="BZ35" s="54"/>
+      <c r="CA35" s="54"/>
+      <c r="CB35" s="54"/>
+      <c r="CC35" s="54"/>
+      <c r="CD35" s="54"/>
+      <c r="CE35" s="54"/>
+      <c r="CF35" s="54"/>
+      <c r="CG35" s="54"/>
+      <c r="CH35" s="54"/>
+      <c r="CI35" s="54"/>
+      <c r="CJ35" s="54"/>
+      <c r="CK35" s="54"/>
+      <c r="CL35" s="55"/>
       <c r="CM35" s="8"/>
       <c r="CN35" s="2"/>
       <c r="CO35" s="2"/>
@@ -6621,11 +6635,11 @@
       <c r="DO35" s="2"/>
       <c r="DP35" s="2"/>
     </row>
-    <row r="36" ht="8" customHeight="1">
+    <row r="36" spans="1:120" ht="7.95" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="55"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="69"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -6661,45 +6675,45 @@
       <c r="AK36" s="2"/>
       <c r="AL36" s="4"/>
       <c r="AM36" s="8"/>
-      <c r="AN36" s="38"/>
-      <c r="AO36" s="38"/>
-      <c r="AP36" s="38"/>
-      <c r="AQ36" s="38"/>
-      <c r="AR36" s="38"/>
-      <c r="AS36" s="38"/>
-      <c r="AT36" s="38"/>
-      <c r="AU36" s="38"/>
-      <c r="AV36" s="38"/>
-      <c r="AW36" s="38"/>
-      <c r="AX36" t="s" s="134">
+      <c r="AN36" s="18"/>
+      <c r="AO36" s="18"/>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="18"/>
+      <c r="AS36" s="18"/>
+      <c r="AT36" s="18"/>
+      <c r="AU36" s="18"/>
+      <c r="AV36" s="18"/>
+      <c r="AW36" s="18"/>
+      <c r="AX36" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="AY36" s="135"/>
-      <c r="AZ36" s="135"/>
-      <c r="BA36" s="3"/>
-      <c r="BB36" s="135"/>
-      <c r="BC36" s="135"/>
-      <c r="BD36" s="135"/>
-      <c r="BE36" s="135"/>
-      <c r="BF36" s="135"/>
-      <c r="BG36" s="135"/>
-      <c r="BH36" s="135"/>
-      <c r="BI36" s="3"/>
-      <c r="BJ36" s="135"/>
-      <c r="BK36" s="135"/>
-      <c r="BL36" s="135"/>
-      <c r="BM36" s="135"/>
-      <c r="BN36" s="135"/>
-      <c r="BO36" s="135"/>
-      <c r="BP36" s="135"/>
-      <c r="BQ36" s="135"/>
-      <c r="BR36" s="135"/>
-      <c r="BS36" s="135"/>
-      <c r="BT36" s="135"/>
-      <c r="BU36" s="135"/>
-      <c r="BV36" s="135"/>
-      <c r="BW36" s="135"/>
-      <c r="BX36" s="38"/>
+      <c r="AY36" s="78"/>
+      <c r="AZ36" s="78"/>
+      <c r="BA36" s="79"/>
+      <c r="BB36" s="78"/>
+      <c r="BC36" s="78"/>
+      <c r="BD36" s="78"/>
+      <c r="BE36" s="78"/>
+      <c r="BF36" s="78"/>
+      <c r="BG36" s="78"/>
+      <c r="BH36" s="78"/>
+      <c r="BI36" s="79"/>
+      <c r="BJ36" s="78"/>
+      <c r="BK36" s="78"/>
+      <c r="BL36" s="78"/>
+      <c r="BM36" s="78"/>
+      <c r="BN36" s="78"/>
+      <c r="BO36" s="78"/>
+      <c r="BP36" s="78"/>
+      <c r="BQ36" s="78"/>
+      <c r="BR36" s="78"/>
+      <c r="BS36" s="78"/>
+      <c r="BT36" s="78"/>
+      <c r="BU36" s="78"/>
+      <c r="BV36" s="78"/>
+      <c r="BW36" s="78"/>
+      <c r="BX36" s="18"/>
       <c r="BY36" s="2"/>
       <c r="BZ36" s="2"/>
       <c r="CA36" s="2"/>
@@ -6745,13 +6759,13 @@
       <c r="DO36" s="2"/>
       <c r="DP36" s="2"/>
     </row>
-    <row r="37" ht="10.5" customHeight="1">
+    <row r="37" spans="1:120" ht="10.5" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
-      <c r="F37" t="s" s="21">
+      <c r="B37" s="28"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G37" s="2"/>
@@ -6787,43 +6801,43 @@
       <c r="AK37" s="2"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="8"/>
-      <c r="AN37" s="38"/>
-      <c r="AO37" s="38"/>
-      <c r="AP37" s="38"/>
-      <c r="AQ37" s="38"/>
-      <c r="AR37" s="38"/>
-      <c r="AS37" s="38"/>
-      <c r="AT37" s="38"/>
-      <c r="AU37" s="38"/>
-      <c r="AV37" s="38"/>
-      <c r="AW37" s="38"/>
-      <c r="AX37" s="136"/>
-      <c r="AY37" s="136"/>
-      <c r="AZ37" s="136"/>
-      <c r="BA37" s="136"/>
-      <c r="BB37" s="136"/>
-      <c r="BC37" s="136"/>
-      <c r="BD37" s="136"/>
-      <c r="BE37" s="136"/>
-      <c r="BF37" s="136"/>
-      <c r="BG37" s="136"/>
-      <c r="BH37" s="136"/>
-      <c r="BI37" s="136"/>
-      <c r="BJ37" s="136"/>
-      <c r="BK37" s="136"/>
-      <c r="BL37" s="136"/>
-      <c r="BM37" s="136"/>
-      <c r="BN37" s="136"/>
-      <c r="BO37" s="136"/>
-      <c r="BP37" s="136"/>
-      <c r="BQ37" s="136"/>
-      <c r="BR37" s="136"/>
-      <c r="BS37" s="136"/>
-      <c r="BT37" s="136"/>
-      <c r="BU37" s="136"/>
-      <c r="BV37" s="136"/>
-      <c r="BW37" s="136"/>
-      <c r="BX37" s="38"/>
+      <c r="AN37" s="18"/>
+      <c r="AO37" s="18"/>
+      <c r="AP37" s="18"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="18"/>
+      <c r="AS37" s="18"/>
+      <c r="AT37" s="18"/>
+      <c r="AU37" s="18"/>
+      <c r="AV37" s="18"/>
+      <c r="AW37" s="18"/>
+      <c r="AX37" s="80"/>
+      <c r="AY37" s="80"/>
+      <c r="AZ37" s="80"/>
+      <c r="BA37" s="80"/>
+      <c r="BB37" s="80"/>
+      <c r="BC37" s="80"/>
+      <c r="BD37" s="80"/>
+      <c r="BE37" s="80"/>
+      <c r="BF37" s="80"/>
+      <c r="BG37" s="80"/>
+      <c r="BH37" s="80"/>
+      <c r="BI37" s="80"/>
+      <c r="BJ37" s="80"/>
+      <c r="BK37" s="80"/>
+      <c r="BL37" s="80"/>
+      <c r="BM37" s="80"/>
+      <c r="BN37" s="80"/>
+      <c r="BO37" s="80"/>
+      <c r="BP37" s="80"/>
+      <c r="BQ37" s="80"/>
+      <c r="BR37" s="80"/>
+      <c r="BS37" s="80"/>
+      <c r="BT37" s="80"/>
+      <c r="BU37" s="80"/>
+      <c r="BV37" s="80"/>
+      <c r="BW37" s="80"/>
+      <c r="BX37" s="18"/>
       <c r="BY37" s="2"/>
       <c r="BZ37" s="2"/>
       <c r="CA37" s="2"/>
@@ -6869,11 +6883,11 @@
       <c r="DO37" s="2"/>
       <c r="DP37" s="2"/>
     </row>
-    <row r="38" ht="8" customHeight="1">
+    <row r="38" spans="1:120" ht="7.95" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="74"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -6907,45 +6921,45 @@
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
-      <c r="AL38" s="76"/>
-      <c r="AM38" s="73"/>
-      <c r="AN38" s="138"/>
-      <c r="AO38" s="138"/>
-      <c r="AP38" s="138"/>
-      <c r="AQ38" s="138"/>
-      <c r="AR38" s="138"/>
-      <c r="AS38" s="138"/>
-      <c r="AT38" s="138"/>
-      <c r="AU38" s="138"/>
-      <c r="AV38" s="138"/>
-      <c r="AW38" s="138"/>
-      <c r="AX38" s="139"/>
-      <c r="AY38" s="139"/>
-      <c r="AZ38" s="139"/>
-      <c r="BA38" s="139"/>
-      <c r="BB38" s="139"/>
-      <c r="BC38" s="139"/>
-      <c r="BD38" s="139"/>
-      <c r="BE38" s="139"/>
-      <c r="BF38" s="139"/>
-      <c r="BG38" s="139"/>
-      <c r="BH38" s="139"/>
-      <c r="BI38" s="139"/>
-      <c r="BJ38" s="139"/>
-      <c r="BK38" s="139"/>
-      <c r="BL38" s="139"/>
-      <c r="BM38" s="139"/>
-      <c r="BN38" s="139"/>
-      <c r="BO38" s="139"/>
-      <c r="BP38" s="139"/>
-      <c r="BQ38" s="139"/>
-      <c r="BR38" s="139"/>
-      <c r="BS38" s="139"/>
-      <c r="BT38" s="139"/>
-      <c r="BU38" s="139"/>
-      <c r="BV38" s="139"/>
-      <c r="BW38" s="139"/>
-      <c r="BX38" s="138"/>
+      <c r="AL38" s="42"/>
+      <c r="AM38" s="39"/>
+      <c r="AN38" s="58"/>
+      <c r="AO38" s="58"/>
+      <c r="AP38" s="58"/>
+      <c r="AQ38" s="58"/>
+      <c r="AR38" s="58"/>
+      <c r="AS38" s="58"/>
+      <c r="AT38" s="58"/>
+      <c r="AU38" s="58"/>
+      <c r="AV38" s="58"/>
+      <c r="AW38" s="58"/>
+      <c r="AX38" s="59"/>
+      <c r="AY38" s="59"/>
+      <c r="AZ38" s="59"/>
+      <c r="BA38" s="59"/>
+      <c r="BB38" s="59"/>
+      <c r="BC38" s="59"/>
+      <c r="BD38" s="59"/>
+      <c r="BE38" s="59"/>
+      <c r="BF38" s="59"/>
+      <c r="BG38" s="59"/>
+      <c r="BH38" s="59"/>
+      <c r="BI38" s="59"/>
+      <c r="BJ38" s="59"/>
+      <c r="BK38" s="59"/>
+      <c r="BL38" s="59"/>
+      <c r="BM38" s="59"/>
+      <c r="BN38" s="59"/>
+      <c r="BO38" s="59"/>
+      <c r="BP38" s="59"/>
+      <c r="BQ38" s="59"/>
+      <c r="BR38" s="59"/>
+      <c r="BS38" s="59"/>
+      <c r="BT38" s="59"/>
+      <c r="BU38" s="59"/>
+      <c r="BV38" s="59"/>
+      <c r="BW38" s="59"/>
+      <c r="BX38" s="58"/>
       <c r="BY38" s="3"/>
       <c r="BZ38" s="3"/>
       <c r="CA38" s="3"/>
@@ -6959,7 +6973,7 @@
       <c r="CI38" s="3"/>
       <c r="CJ38" s="3"/>
       <c r="CK38" s="3"/>
-      <c r="CL38" s="76"/>
+      <c r="CL38" s="42"/>
       <c r="CM38" s="8"/>
       <c r="CN38" s="2"/>
       <c r="CO38" s="2"/>
@@ -6991,7 +7005,7 @@
       <c r="DO38" s="2"/>
       <c r="DP38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:120" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -7031,43 +7045,43 @@
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
       <c r="AM39" s="6"/>
-      <c r="AN39" s="140"/>
-      <c r="AO39" s="140"/>
-      <c r="AP39" s="140"/>
-      <c r="AQ39" s="140"/>
-      <c r="AR39" s="140"/>
-      <c r="AS39" s="140"/>
-      <c r="AT39" s="140"/>
-      <c r="AU39" s="140"/>
-      <c r="AV39" s="140"/>
-      <c r="AW39" s="140"/>
-      <c r="AX39" s="140"/>
-      <c r="AY39" s="140"/>
-      <c r="AZ39" s="140"/>
-      <c r="BA39" s="140"/>
-      <c r="BB39" s="140"/>
-      <c r="BC39" s="140"/>
-      <c r="BD39" s="140"/>
-      <c r="BE39" s="140"/>
-      <c r="BF39" s="140"/>
-      <c r="BG39" s="140"/>
-      <c r="BH39" s="140"/>
-      <c r="BI39" s="140"/>
-      <c r="BJ39" s="140"/>
-      <c r="BK39" s="140"/>
-      <c r="BL39" s="140"/>
-      <c r="BM39" s="140"/>
-      <c r="BN39" s="140"/>
-      <c r="BO39" s="140"/>
-      <c r="BP39" s="140"/>
-      <c r="BQ39" s="140"/>
-      <c r="BR39" s="140"/>
-      <c r="BS39" s="140"/>
-      <c r="BT39" s="140"/>
-      <c r="BU39" s="140"/>
-      <c r="BV39" s="140"/>
-      <c r="BW39" s="140"/>
-      <c r="BX39" s="140"/>
+      <c r="AN39" s="60"/>
+      <c r="AO39" s="60"/>
+      <c r="AP39" s="60"/>
+      <c r="AQ39" s="60"/>
+      <c r="AR39" s="60"/>
+      <c r="AS39" s="60"/>
+      <c r="AT39" s="60"/>
+      <c r="AU39" s="60"/>
+      <c r="AV39" s="60"/>
+      <c r="AW39" s="60"/>
+      <c r="AX39" s="60"/>
+      <c r="AY39" s="60"/>
+      <c r="AZ39" s="60"/>
+      <c r="BA39" s="60"/>
+      <c r="BB39" s="60"/>
+      <c r="BC39" s="60"/>
+      <c r="BD39" s="60"/>
+      <c r="BE39" s="60"/>
+      <c r="BF39" s="60"/>
+      <c r="BG39" s="60"/>
+      <c r="BH39" s="60"/>
+      <c r="BI39" s="60"/>
+      <c r="BJ39" s="60"/>
+      <c r="BK39" s="60"/>
+      <c r="BL39" s="60"/>
+      <c r="BM39" s="60"/>
+      <c r="BN39" s="60"/>
+      <c r="BO39" s="60"/>
+      <c r="BP39" s="60"/>
+      <c r="BQ39" s="60"/>
+      <c r="BR39" s="60"/>
+      <c r="BS39" s="60"/>
+      <c r="BT39" s="60"/>
+      <c r="BU39" s="60"/>
+      <c r="BV39" s="60"/>
+      <c r="BW39" s="60"/>
+      <c r="BX39" s="60"/>
       <c r="BY39" s="6"/>
       <c r="BZ39" s="6"/>
       <c r="CA39" s="6"/>
@@ -7113,7 +7127,7 @@
       <c r="DO39" s="2"/>
       <c r="DP39" s="2"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" spans="1:120" ht="15" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -7235,7 +7249,7 @@
       <c r="DO40" s="2"/>
       <c r="DP40" s="2"/>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" spans="1:120" ht="15" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -7357,7 +7371,7 @@
       <c r="DO41" s="2"/>
       <c r="DP41" s="2"/>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -7479,7 +7493,7 @@
       <c r="DO42" s="2"/>
       <c r="DP42" s="2"/>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" spans="1:120" ht="15" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -7601,7 +7615,7 @@
       <c r="DO43" s="2"/>
       <c r="DP43" s="2"/>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" spans="1:120" ht="15" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -7725,16 +7739,32 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C6:AM6"/>
-    <mergeCell ref="C5:AM5"/>
-    <mergeCell ref="C7:AM7"/>
-    <mergeCell ref="L9:AD9"/>
-    <mergeCell ref="C8:AM8"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="Z12:AI12"/>
-    <mergeCell ref="BA28:BB28"/>
-    <mergeCell ref="BC28:BV28"/>
-    <mergeCell ref="AS28:AZ28"/>
+    <mergeCell ref="AS30:BH30"/>
+    <mergeCell ref="BI30:BM30"/>
+    <mergeCell ref="BF33:BI33"/>
+    <mergeCell ref="AS33:BE33"/>
+    <mergeCell ref="D14:AK14"/>
+    <mergeCell ref="D15:AK15"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="W16:AD16"/>
+    <mergeCell ref="AW25:BK25"/>
+    <mergeCell ref="BM25:BO25"/>
+    <mergeCell ref="AS22:BE22"/>
+    <mergeCell ref="F31:AK31"/>
+    <mergeCell ref="F33:AK33"/>
+    <mergeCell ref="BH3:BM3"/>
+    <mergeCell ref="BP3:BZ3"/>
+    <mergeCell ref="BB6:BJ6"/>
+    <mergeCell ref="BK6:BN6"/>
+    <mergeCell ref="BF22:BQ22"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="BL5:BN5"/>
+    <mergeCell ref="AN5:BG5"/>
+    <mergeCell ref="AN7:BZ7"/>
+    <mergeCell ref="BC4:BG4"/>
+    <mergeCell ref="AN8:BZ8"/>
+    <mergeCell ref="AN9:BZ9"/>
+    <mergeCell ref="AN12:BZ12"/>
     <mergeCell ref="AX36:BW37"/>
     <mergeCell ref="AM14:BQ17"/>
     <mergeCell ref="O19:AL23"/>
@@ -7751,35 +7781,19 @@
     <mergeCell ref="BP25:BU25"/>
     <mergeCell ref="BW25:CA25"/>
     <mergeCell ref="CB25:CD25"/>
-    <mergeCell ref="BH3:BM3"/>
-    <mergeCell ref="BP3:BZ3"/>
-    <mergeCell ref="BB6:BJ6"/>
-    <mergeCell ref="BK6:BN6"/>
-    <mergeCell ref="BF22:BQ22"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="BL5:BN5"/>
-    <mergeCell ref="AN5:BG5"/>
-    <mergeCell ref="AN7:BZ7"/>
-    <mergeCell ref="BC4:BG4"/>
-    <mergeCell ref="AN8:BZ8"/>
-    <mergeCell ref="AN9:BZ9"/>
-    <mergeCell ref="AN12:BZ12"/>
-    <mergeCell ref="AS30:BH30"/>
-    <mergeCell ref="BI30:BM30"/>
-    <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="AS33:BE33"/>
-    <mergeCell ref="D14:AK14"/>
-    <mergeCell ref="D15:AK15"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="W16:AD16"/>
-    <mergeCell ref="AW25:BK25"/>
-    <mergeCell ref="BM25:BO25"/>
-    <mergeCell ref="AS22:BE22"/>
-    <mergeCell ref="F31:AK31"/>
-    <mergeCell ref="F33:AK33"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="Z12:AI12"/>
+    <mergeCell ref="BA28:BB28"/>
+    <mergeCell ref="BC28:BV28"/>
+    <mergeCell ref="AS28:AZ28"/>
+    <mergeCell ref="C6:AM6"/>
+    <mergeCell ref="C5:AM5"/>
+    <mergeCell ref="C7:AM7"/>
+    <mergeCell ref="L9:AD9"/>
+    <mergeCell ref="C8:AM8"/>
   </mergeCells>
-  <pageMargins left="0.19685" right="0.19685" top="0.393701" bottom="0.393701" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="82" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.19685" right="0.19685" top="0.39370100000000002" bottom="0.39370100000000002" header="0" footer="0"/>
+  <pageSetup scale="82" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/public/templates/belpost_label_template.xlsx
+++ b/src/public/templates/belpost_label_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Barocco.by\Бланки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C596E37-F12F-46E3-970E-A9A10D811A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32D3F15-D3B3-4BF9-A04D-4808B87BC170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Наименование и адрес</t>
   </si>
@@ -124,21 +124,6 @@
     <t>Элит</t>
   </si>
   <si>
-    <t>ул.</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>д.</t>
-  </si>
-  <si>
-    <t>корп.</t>
-  </si>
-  <si>
-    <t>кв.</t>
-  </si>
-  <si>
     <t>Вручение на дому/в офисе в день приема с согласованием интервала доставки</t>
   </si>
   <si>
@@ -149,9 +134,6 @@
   </si>
   <si>
     <t>Дополнительные сервисы:</t>
-  </si>
-  <si>
-    <t>р-н</t>
   </si>
   <si>
     <t>возврат документов Отправителю (при вручении вскрыть)</t>
@@ -335,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -613,13 +595,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -692,12 +711,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,52 +734,80 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -777,9 +818,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -880,95 +918,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2185,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BZ6" sqref="BZ6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="CP24" sqref="CP24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -2543,31 +2564,31 @@
       <c r="BE3" s="12"/>
       <c r="BF3" s="12"/>
       <c r="BG3" s="12"/>
-      <c r="BH3" s="122" t="s">
-        <v>54</v>
+      <c r="BH3" s="68" t="s">
+        <v>48</v>
       </c>
-      <c r="BI3" s="76"/>
-      <c r="BJ3" s="123"/>
-      <c r="BK3" s="123"/>
-      <c r="BL3" s="123"/>
-      <c r="BM3" s="123"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="69"/>
+      <c r="BK3" s="69"/>
+      <c r="BL3" s="69"/>
+      <c r="BM3" s="69"/>
       <c r="BN3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="BO3" s="11"/>
-      <c r="BP3" s="124">
+      <c r="BP3" s="70">
         <v>44861</v>
       </c>
-      <c r="BQ3" s="124"/>
-      <c r="BR3" s="124"/>
-      <c r="BS3" s="124"/>
-      <c r="BT3" s="124"/>
-      <c r="BU3" s="124"/>
-      <c r="BV3" s="124"/>
-      <c r="BW3" s="124"/>
-      <c r="BX3" s="124"/>
-      <c r="BY3" s="124"/>
-      <c r="BZ3" s="124"/>
+      <c r="BQ3" s="70"/>
+      <c r="BR3" s="70"/>
+      <c r="BS3" s="70"/>
+      <c r="BT3" s="70"/>
+      <c r="BU3" s="70"/>
+      <c r="BV3" s="70"/>
+      <c r="BW3" s="70"/>
+      <c r="BX3" s="70"/>
+      <c r="BY3" s="70"/>
+      <c r="BZ3" s="70"/>
       <c r="CA3" s="13"/>
       <c r="CB3" s="13"/>
       <c r="CC3" s="13"/>
@@ -2670,24 +2691,24 @@
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
-      <c r="BC4" s="133">
+      <c r="BC4" s="79">
         <v>0</v>
       </c>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="80"/>
+      <c r="BG4" s="80"/>
       <c r="BH4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
       <c r="BK4" s="2"/>
-      <c r="BL4" s="129" t="s">
+      <c r="BL4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="BM4" s="129"/>
-      <c r="BN4" s="129"/>
+      <c r="BM4" s="75"/>
+      <c r="BN4" s="75"/>
       <c r="BO4" s="16" t="s">
         <v>7</v>
       </c>
@@ -2748,78 +2769,78 @@
     <row r="5" spans="1:120" ht="15" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="64"/>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="129" t="s">
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
+      <c r="AF5" s="128"/>
+      <c r="AG5" s="128"/>
+      <c r="AH5" s="128"/>
+      <c r="AI5" s="128"/>
+      <c r="AJ5" s="128"/>
+      <c r="AK5" s="128"/>
+      <c r="AL5" s="128"/>
+      <c r="AM5" s="128"/>
+      <c r="AN5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="AO5" s="81"/>
-      <c r="AP5" s="81"/>
-      <c r="AQ5" s="81"/>
-      <c r="AR5" s="81"/>
-      <c r="AS5" s="81"/>
-      <c r="AT5" s="81"/>
-      <c r="AU5" s="81"/>
-      <c r="AV5" s="81"/>
-      <c r="AW5" s="81"/>
-      <c r="AX5" s="81"/>
-      <c r="AY5" s="81"/>
-      <c r="AZ5" s="81"/>
-      <c r="BA5" s="81"/>
-      <c r="BB5" s="81"/>
-      <c r="BC5" s="130"/>
-      <c r="BD5" s="130"/>
-      <c r="BE5" s="130"/>
-      <c r="BF5" s="130"/>
-      <c r="BG5" s="130"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="62"/>
+      <c r="AY5" s="62"/>
+      <c r="AZ5" s="62"/>
+      <c r="BA5" s="62"/>
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="76"/>
+      <c r="BD5" s="76"/>
+      <c r="BE5" s="76"/>
+      <c r="BF5" s="76"/>
+      <c r="BG5" s="76"/>
       <c r="BH5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="BI5" s="2"/>
       <c r="BJ5" s="2"/>
       <c r="BK5" s="2"/>
-      <c r="BL5" s="129" t="s">
+      <c r="BL5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="BM5" s="129"/>
-      <c r="BN5" s="129"/>
+      <c r="BM5" s="75"/>
+      <c r="BN5" s="75"/>
       <c r="BO5" s="16" t="s">
         <v>7</v>
       </c>
@@ -2880,45 +2901,45 @@
     <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="62"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="126"/>
       <c r="AN6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2935,21 +2956,21 @@
       <c r="AY6" s="17"/>
       <c r="AZ6" s="17"/>
       <c r="BA6" s="17"/>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="126"/>
-      <c r="BD6" s="126"/>
-      <c r="BE6" s="126"/>
-      <c r="BF6" s="126"/>
-      <c r="BG6" s="126"/>
-      <c r="BH6" s="126"/>
-      <c r="BI6" s="126"/>
-      <c r="BJ6" s="126"/>
-      <c r="BK6" s="127" t="s">
+      <c r="BB6" s="71"/>
+      <c r="BC6" s="72"/>
+      <c r="BD6" s="72"/>
+      <c r="BE6" s="72"/>
+      <c r="BF6" s="72"/>
+      <c r="BG6" s="72"/>
+      <c r="BH6" s="72"/>
+      <c r="BI6" s="72"/>
+      <c r="BJ6" s="72"/>
+      <c r="BK6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="BL6" s="128"/>
-      <c r="BM6" s="128"/>
-      <c r="BN6" s="128"/>
+      <c r="BL6" s="74"/>
+      <c r="BM6" s="74"/>
+      <c r="BN6" s="74"/>
       <c r="BO6" s="17"/>
       <c r="BP6" s="17"/>
       <c r="BQ6" s="17"/>
@@ -3008,84 +3029,84 @@
     <row r="7" spans="1:120" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="131"/>
-      <c r="AO7" s="132"/>
-      <c r="AP7" s="132"/>
-      <c r="AQ7" s="132"/>
-      <c r="AR7" s="132"/>
-      <c r="AS7" s="132"/>
-      <c r="AT7" s="132"/>
-      <c r="AU7" s="132"/>
-      <c r="AV7" s="132"/>
-      <c r="AW7" s="132"/>
-      <c r="AX7" s="132"/>
-      <c r="AY7" s="132"/>
-      <c r="AZ7" s="132"/>
-      <c r="BA7" s="76"/>
-      <c r="BB7" s="132"/>
-      <c r="BC7" s="132"/>
-      <c r="BD7" s="132"/>
-      <c r="BE7" s="132"/>
-      <c r="BF7" s="132"/>
-      <c r="BG7" s="132"/>
-      <c r="BH7" s="132"/>
-      <c r="BI7" s="132"/>
-      <c r="BJ7" s="132"/>
-      <c r="BK7" s="132"/>
-      <c r="BL7" s="132"/>
-      <c r="BM7" s="132"/>
-      <c r="BN7" s="132"/>
-      <c r="BO7" s="132"/>
-      <c r="BP7" s="132"/>
-      <c r="BQ7" s="132"/>
-      <c r="BR7" s="132"/>
-      <c r="BS7" s="132"/>
-      <c r="BT7" s="132"/>
-      <c r="BU7" s="132"/>
-      <c r="BV7" s="132"/>
-      <c r="BW7" s="132"/>
-      <c r="BX7" s="132"/>
-      <c r="BY7" s="132"/>
-      <c r="BZ7" s="132"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="130"/>
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="130"/>
+      <c r="AN7" s="77"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="78"/>
+      <c r="AZ7" s="78"/>
+      <c r="BA7" s="63"/>
+      <c r="BB7" s="78"/>
+      <c r="BC7" s="78"/>
+      <c r="BD7" s="78"/>
+      <c r="BE7" s="78"/>
+      <c r="BF7" s="78"/>
+      <c r="BG7" s="78"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="78"/>
+      <c r="BJ7" s="78"/>
+      <c r="BK7" s="78"/>
+      <c r="BL7" s="78"/>
+      <c r="BM7" s="78"/>
+      <c r="BN7" s="78"/>
+      <c r="BO7" s="78"/>
+      <c r="BP7" s="78"/>
+      <c r="BQ7" s="78"/>
+      <c r="BR7" s="78"/>
+      <c r="BS7" s="78"/>
+      <c r="BT7" s="78"/>
+      <c r="BU7" s="78"/>
+      <c r="BV7" s="78"/>
+      <c r="BW7" s="78"/>
+      <c r="BX7" s="78"/>
+      <c r="BY7" s="78"/>
+      <c r="BZ7" s="78"/>
       <c r="CA7" s="17"/>
       <c r="CB7" s="17"/>
       <c r="CC7" s="17"/>
@@ -3132,86 +3153,86 @@
     <row r="8" spans="1:120" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="134" t="s">
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="134"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="134"/>
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="134"/>
+      <c r="AC8" s="134"/>
+      <c r="AD8" s="134"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="134"/>
+      <c r="AG8" s="134"/>
+      <c r="AH8" s="134"/>
+      <c r="AI8" s="134"/>
+      <c r="AJ8" s="134"/>
+      <c r="AK8" s="134"/>
+      <c r="AL8" s="134"/>
+      <c r="AM8" s="134"/>
+      <c r="AN8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="AO8" s="135"/>
-      <c r="AP8" s="135"/>
-      <c r="AQ8" s="135"/>
-      <c r="AR8" s="135"/>
-      <c r="AS8" s="135"/>
-      <c r="AT8" s="135"/>
-      <c r="AU8" s="135"/>
-      <c r="AV8" s="135"/>
-      <c r="AW8" s="135"/>
-      <c r="AX8" s="135"/>
-      <c r="AY8" s="135"/>
-      <c r="AZ8" s="135"/>
-      <c r="BA8" s="76"/>
-      <c r="BB8" s="135"/>
-      <c r="BC8" s="135"/>
-      <c r="BD8" s="135"/>
-      <c r="BE8" s="135"/>
-      <c r="BF8" s="135"/>
-      <c r="BG8" s="135"/>
-      <c r="BH8" s="135"/>
-      <c r="BI8" s="135"/>
-      <c r="BJ8" s="135"/>
-      <c r="BK8" s="135"/>
-      <c r="BL8" s="135"/>
-      <c r="BM8" s="135"/>
-      <c r="BN8" s="135"/>
-      <c r="BO8" s="135"/>
-      <c r="BP8" s="135"/>
-      <c r="BQ8" s="135"/>
-      <c r="BR8" s="135"/>
-      <c r="BS8" s="135"/>
-      <c r="BT8" s="135"/>
-      <c r="BU8" s="135"/>
-      <c r="BV8" s="135"/>
-      <c r="BW8" s="135"/>
-      <c r="BX8" s="135"/>
-      <c r="BY8" s="135"/>
-      <c r="BZ8" s="135"/>
+      <c r="AO8" s="82"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="82"/>
+      <c r="AW8" s="82"/>
+      <c r="AX8" s="82"/>
+      <c r="AY8" s="82"/>
+      <c r="AZ8" s="82"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="82"/>
+      <c r="BC8" s="82"/>
+      <c r="BD8" s="82"/>
+      <c r="BE8" s="82"/>
+      <c r="BF8" s="82"/>
+      <c r="BG8" s="82"/>
+      <c r="BH8" s="82"/>
+      <c r="BI8" s="82"/>
+      <c r="BJ8" s="82"/>
+      <c r="BK8" s="82"/>
+      <c r="BL8" s="82"/>
+      <c r="BM8" s="82"/>
+      <c r="BN8" s="82"/>
+      <c r="BO8" s="82"/>
+      <c r="BP8" s="82"/>
+      <c r="BQ8" s="82"/>
+      <c r="BR8" s="82"/>
+      <c r="BS8" s="82"/>
+      <c r="BT8" s="82"/>
+      <c r="BU8" s="82"/>
+      <c r="BV8" s="82"/>
+      <c r="BW8" s="82"/>
+      <c r="BX8" s="82"/>
+      <c r="BY8" s="82"/>
+      <c r="BZ8" s="82"/>
       <c r="CA8" s="20"/>
       <c r="CB8" s="20"/>
       <c r="CC8" s="20"/>
@@ -3269,27 +3290,27 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="132"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -3299,47 +3320,47 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="134" t="s">
+      <c r="AN9" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AO9" s="135"/>
-      <c r="AP9" s="135"/>
-      <c r="AQ9" s="135"/>
-      <c r="AR9" s="135"/>
-      <c r="AS9" s="135"/>
-      <c r="AT9" s="135"/>
-      <c r="AU9" s="135"/>
-      <c r="AV9" s="135"/>
-      <c r="AW9" s="135"/>
-      <c r="AX9" s="135"/>
-      <c r="AY9" s="135"/>
-      <c r="AZ9" s="135"/>
-      <c r="BA9" s="76"/>
-      <c r="BB9" s="135"/>
-      <c r="BC9" s="135"/>
-      <c r="BD9" s="135"/>
-      <c r="BE9" s="135"/>
-      <c r="BF9" s="135"/>
-      <c r="BG9" s="135"/>
-      <c r="BH9" s="135"/>
-      <c r="BI9" s="135"/>
-      <c r="BJ9" s="135"/>
-      <c r="BK9" s="135"/>
-      <c r="BL9" s="135"/>
-      <c r="BM9" s="135"/>
-      <c r="BN9" s="135"/>
-      <c r="BO9" s="135"/>
-      <c r="BP9" s="135"/>
-      <c r="BQ9" s="135"/>
-      <c r="BR9" s="135"/>
-      <c r="BS9" s="135"/>
-      <c r="BT9" s="135"/>
-      <c r="BU9" s="135"/>
-      <c r="BV9" s="135"/>
-      <c r="BW9" s="135"/>
-      <c r="BX9" s="135"/>
-      <c r="BY9" s="135"/>
-      <c r="BZ9" s="135"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="82"/>
+      <c r="BA9" s="63"/>
+      <c r="BB9" s="82"/>
+      <c r="BC9" s="82"/>
+      <c r="BD9" s="82"/>
+      <c r="BE9" s="82"/>
+      <c r="BF9" s="82"/>
+      <c r="BG9" s="82"/>
+      <c r="BH9" s="82"/>
+      <c r="BI9" s="82"/>
+      <c r="BJ9" s="82"/>
+      <c r="BK9" s="82"/>
+      <c r="BL9" s="82"/>
+      <c r="BM9" s="82"/>
+      <c r="BN9" s="82"/>
+      <c r="BO9" s="82"/>
+      <c r="BP9" s="82"/>
+      <c r="BQ9" s="82"/>
+      <c r="BR9" s="82"/>
+      <c r="BS9" s="82"/>
+      <c r="BT9" s="82"/>
+      <c r="BU9" s="82"/>
+      <c r="BV9" s="82"/>
+      <c r="BW9" s="82"/>
+      <c r="BX9" s="82"/>
+      <c r="BY9" s="82"/>
+      <c r="BZ9" s="82"/>
       <c r="CA9" s="13"/>
       <c r="CB9" s="13"/>
       <c r="CC9" s="13"/>
@@ -3643,11 +3664,11 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
       <c r="M12" s="10" t="s">
         <v>22</v>
       </c>
@@ -3663,61 +3684,61 @@
       <c r="W12" s="18"/>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="80"/>
+      <c r="AH12" s="80"/>
+      <c r="AI12" s="80"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
-      <c r="AN12" s="136" t="s">
+      <c r="AN12" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AO12" s="137"/>
-      <c r="AP12" s="137"/>
-      <c r="AQ12" s="137"/>
-      <c r="AR12" s="137"/>
-      <c r="AS12" s="137"/>
-      <c r="AT12" s="137"/>
-      <c r="AU12" s="137"/>
-      <c r="AV12" s="137"/>
-      <c r="AW12" s="137"/>
-      <c r="AX12" s="137"/>
-      <c r="AY12" s="137"/>
-      <c r="AZ12" s="137"/>
-      <c r="BA12" s="76"/>
-      <c r="BB12" s="137"/>
-      <c r="BC12" s="137"/>
-      <c r="BD12" s="137"/>
-      <c r="BE12" s="137"/>
-      <c r="BF12" s="137"/>
-      <c r="BG12" s="137"/>
-      <c r="BH12" s="137"/>
-      <c r="BI12" s="137"/>
-      <c r="BJ12" s="137"/>
-      <c r="BK12" s="137"/>
-      <c r="BL12" s="137"/>
-      <c r="BM12" s="137"/>
-      <c r="BN12" s="137"/>
-      <c r="BO12" s="137"/>
-      <c r="BP12" s="137"/>
-      <c r="BQ12" s="137"/>
-      <c r="BR12" s="137"/>
-      <c r="BS12" s="137"/>
-      <c r="BT12" s="137"/>
-      <c r="BU12" s="137"/>
-      <c r="BV12" s="137"/>
-      <c r="BW12" s="137"/>
-      <c r="BX12" s="137"/>
-      <c r="BY12" s="137"/>
-      <c r="BZ12" s="137"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="84"/>
+      <c r="AS12" s="84"/>
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AW12" s="84"/>
+      <c r="AX12" s="84"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="84"/>
+      <c r="BA12" s="63"/>
+      <c r="BB12" s="84"/>
+      <c r="BC12" s="84"/>
+      <c r="BD12" s="84"/>
+      <c r="BE12" s="84"/>
+      <c r="BF12" s="84"/>
+      <c r="BG12" s="84"/>
+      <c r="BH12" s="84"/>
+      <c r="BI12" s="84"/>
+      <c r="BJ12" s="84"/>
+      <c r="BK12" s="84"/>
+      <c r="BL12" s="84"/>
+      <c r="BM12" s="84"/>
+      <c r="BN12" s="84"/>
+      <c r="BO12" s="84"/>
+      <c r="BP12" s="84"/>
+      <c r="BQ12" s="84"/>
+      <c r="BR12" s="84"/>
+      <c r="BS12" s="84"/>
+      <c r="BT12" s="84"/>
+      <c r="BU12" s="84"/>
+      <c r="BV12" s="84"/>
+      <c r="BW12" s="84"/>
+      <c r="BX12" s="84"/>
+      <c r="BY12" s="84"/>
+      <c r="BZ12" s="84"/>
       <c r="CA12" s="2"/>
       <c r="CB12" s="2"/>
       <c r="CC12" s="2"/>
@@ -3887,72 +3908,72 @@
       <c r="A14" s="4"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="81"/>
-      <c r="AF14" s="81"/>
-      <c r="AG14" s="81"/>
-      <c r="AH14" s="81"/>
-      <c r="AI14" s="81"/>
-      <c r="AJ14" s="81"/>
-      <c r="AK14" s="81"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
       <c r="AL14" s="2"/>
-      <c r="AM14" s="81"/>
-      <c r="AN14" s="81"/>
-      <c r="AO14" s="81"/>
-      <c r="AP14" s="81"/>
-      <c r="AQ14" s="81"/>
-      <c r="AR14" s="81"/>
-      <c r="AS14" s="81"/>
-      <c r="AT14" s="81"/>
-      <c r="AU14" s="81"/>
-      <c r="AV14" s="81"/>
-      <c r="AW14" s="81"/>
-      <c r="AX14" s="81"/>
-      <c r="AY14" s="81"/>
-      <c r="AZ14" s="81"/>
-      <c r="BA14" s="76"/>
-      <c r="BB14" s="81"/>
-      <c r="BC14" s="81"/>
-      <c r="BD14" s="81"/>
-      <c r="BE14" s="81"/>
-      <c r="BF14" s="81"/>
-      <c r="BG14" s="81"/>
-      <c r="BH14" s="81"/>
-      <c r="BI14" s="81"/>
-      <c r="BJ14" s="81"/>
-      <c r="BK14" s="81"/>
-      <c r="BL14" s="81"/>
-      <c r="BM14" s="81"/>
-      <c r="BN14" s="81"/>
-      <c r="BO14" s="81"/>
-      <c r="BP14" s="81"/>
-      <c r="BQ14" s="81"/>
+      <c r="AM14" s="62"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="62"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="62"/>
+      <c r="BC14" s="62"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
+      <c r="BG14" s="62"/>
+      <c r="BH14" s="62"/>
+      <c r="BI14" s="62"/>
+      <c r="BJ14" s="62"/>
+      <c r="BK14" s="62"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="62"/>
+      <c r="BN14" s="62"/>
+      <c r="BO14" s="62"/>
+      <c r="BP14" s="62"/>
+      <c r="BQ14" s="62"/>
       <c r="BR14" s="2"/>
       <c r="BS14" s="2"/>
       <c r="BT14" s="2"/>
@@ -4009,72 +4030,72 @@
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="81"/>
-      <c r="AH15" s="81"/>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="81"/>
-      <c r="AK15" s="81"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="62"/>
       <c r="AL15" s="2"/>
-      <c r="AM15" s="81"/>
-      <c r="AN15" s="81"/>
-      <c r="AO15" s="81"/>
-      <c r="AP15" s="81"/>
-      <c r="AQ15" s="81"/>
-      <c r="AR15" s="81"/>
-      <c r="AS15" s="81"/>
-      <c r="AT15" s="81"/>
-      <c r="AU15" s="81"/>
-      <c r="AV15" s="81"/>
-      <c r="AW15" s="81"/>
-      <c r="AX15" s="81"/>
-      <c r="AY15" s="81"/>
-      <c r="AZ15" s="81"/>
-      <c r="BA15" s="81"/>
-      <c r="BB15" s="81"/>
-      <c r="BC15" s="81"/>
-      <c r="BD15" s="81"/>
-      <c r="BE15" s="81"/>
-      <c r="BF15" s="81"/>
-      <c r="BG15" s="81"/>
-      <c r="BH15" s="81"/>
-      <c r="BI15" s="81"/>
-      <c r="BJ15" s="81"/>
-      <c r="BK15" s="81"/>
-      <c r="BL15" s="81"/>
-      <c r="BM15" s="81"/>
-      <c r="BN15" s="81"/>
-      <c r="BO15" s="81"/>
-      <c r="BP15" s="81"/>
-      <c r="BQ15" s="81"/>
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="62"/>
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="62"/>
+      <c r="AX15" s="62"/>
+      <c r="AY15" s="62"/>
+      <c r="AZ15" s="62"/>
+      <c r="BA15" s="62"/>
+      <c r="BB15" s="62"/>
+      <c r="BC15" s="62"/>
+      <c r="BD15" s="62"/>
+      <c r="BE15" s="62"/>
+      <c r="BF15" s="62"/>
+      <c r="BG15" s="62"/>
+      <c r="BH15" s="62"/>
+      <c r="BI15" s="62"/>
+      <c r="BJ15" s="62"/>
+      <c r="BK15" s="62"/>
+      <c r="BL15" s="62"/>
+      <c r="BM15" s="62"/>
+      <c r="BN15" s="62"/>
+      <c r="BO15" s="62"/>
+      <c r="BP15" s="62"/>
+      <c r="BQ15" s="62"/>
       <c r="BR15" s="2"/>
       <c r="BS15" s="2"/>
       <c r="BT15" s="2"/>
@@ -4138,26 +4159,26 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -4166,37 +4187,37 @@
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="81"/>
-      <c r="AN16" s="81"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="81"/>
-      <c r="AQ16" s="81"/>
-      <c r="AR16" s="81"/>
-      <c r="AS16" s="81"/>
-      <c r="AT16" s="81"/>
-      <c r="AU16" s="81"/>
-      <c r="AV16" s="81"/>
-      <c r="AW16" s="81"/>
-      <c r="AX16" s="81"/>
-      <c r="AY16" s="81"/>
-      <c r="AZ16" s="81"/>
-      <c r="BA16" s="81"/>
-      <c r="BB16" s="81"/>
-      <c r="BC16" s="81"/>
-      <c r="BD16" s="81"/>
-      <c r="BE16" s="81"/>
-      <c r="BF16" s="81"/>
-      <c r="BG16" s="81"/>
-      <c r="BH16" s="81"/>
-      <c r="BI16" s="81"/>
-      <c r="BJ16" s="81"/>
-      <c r="BK16" s="81"/>
-      <c r="BL16" s="81"/>
-      <c r="BM16" s="81"/>
-      <c r="BN16" s="81"/>
-      <c r="BO16" s="81"/>
-      <c r="BP16" s="81"/>
-      <c r="BQ16" s="81"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="62"/>
+      <c r="AT16" s="62"/>
+      <c r="AU16" s="62"/>
+      <c r="AV16" s="62"/>
+      <c r="AW16" s="62"/>
+      <c r="AX16" s="62"/>
+      <c r="AY16" s="62"/>
+      <c r="AZ16" s="62"/>
+      <c r="BA16" s="62"/>
+      <c r="BB16" s="62"/>
+      <c r="BC16" s="62"/>
+      <c r="BD16" s="62"/>
+      <c r="BE16" s="62"/>
+      <c r="BF16" s="62"/>
+      <c r="BG16" s="62"/>
+      <c r="BH16" s="62"/>
+      <c r="BI16" s="62"/>
+      <c r="BJ16" s="62"/>
+      <c r="BK16" s="62"/>
+      <c r="BL16" s="62"/>
+      <c r="BM16" s="62"/>
+      <c r="BN16" s="62"/>
+      <c r="BO16" s="62"/>
+      <c r="BP16" s="62"/>
+      <c r="BQ16" s="62"/>
       <c r="BR16" s="2"/>
       <c r="BS16" s="2"/>
       <c r="BT16" s="2"/>
@@ -4290,37 +4311,37 @@
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
-      <c r="AM17" s="81"/>
-      <c r="AN17" s="81"/>
-      <c r="AO17" s="81"/>
-      <c r="AP17" s="81"/>
-      <c r="AQ17" s="81"/>
-      <c r="AR17" s="81"/>
-      <c r="AS17" s="81"/>
-      <c r="AT17" s="81"/>
-      <c r="AU17" s="81"/>
-      <c r="AV17" s="81"/>
-      <c r="AW17" s="81"/>
-      <c r="AX17" s="81"/>
-      <c r="AY17" s="81"/>
-      <c r="AZ17" s="81"/>
-      <c r="BA17" s="81"/>
-      <c r="BB17" s="81"/>
-      <c r="BC17" s="81"/>
-      <c r="BD17" s="81"/>
-      <c r="BE17" s="81"/>
-      <c r="BF17" s="81"/>
-      <c r="BG17" s="81"/>
-      <c r="BH17" s="81"/>
-      <c r="BI17" s="81"/>
-      <c r="BJ17" s="81"/>
-      <c r="BK17" s="81"/>
-      <c r="BL17" s="81"/>
-      <c r="BM17" s="81"/>
-      <c r="BN17" s="81"/>
-      <c r="BO17" s="81"/>
-      <c r="BP17" s="81"/>
-      <c r="BQ17" s="81"/>
+      <c r="AM17" s="62"/>
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="62"/>
+      <c r="AP17" s="62"/>
+      <c r="AQ17" s="62"/>
+      <c r="AR17" s="62"/>
+      <c r="AS17" s="62"/>
+      <c r="AT17" s="62"/>
+      <c r="AU17" s="62"/>
+      <c r="AV17" s="62"/>
+      <c r="AW17" s="62"/>
+      <c r="AX17" s="62"/>
+      <c r="AY17" s="62"/>
+      <c r="AZ17" s="62"/>
+      <c r="BA17" s="62"/>
+      <c r="BB17" s="62"/>
+      <c r="BC17" s="62"/>
+      <c r="BD17" s="62"/>
+      <c r="BE17" s="62"/>
+      <c r="BF17" s="62"/>
+      <c r="BG17" s="62"/>
+      <c r="BH17" s="62"/>
+      <c r="BI17" s="62"/>
+      <c r="BJ17" s="62"/>
+      <c r="BK17" s="62"/>
+      <c r="BL17" s="62"/>
+      <c r="BM17" s="62"/>
+      <c r="BN17" s="62"/>
+      <c r="BO17" s="62"/>
+      <c r="BP17" s="62"/>
+      <c r="BQ17" s="62"/>
       <c r="BR17" s="2"/>
       <c r="BS17" s="2"/>
       <c r="BT17" s="2"/>
@@ -4510,32 +4531,32 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="82" t="s">
+      <c r="O19" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="83"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="83"/>
-      <c r="AE19" s="83"/>
-      <c r="AF19" s="83"/>
-      <c r="AG19" s="83"/>
-      <c r="AH19" s="83"/>
-      <c r="AI19" s="83"/>
-      <c r="AJ19" s="83"/>
-      <c r="AK19" s="83"/>
-      <c r="AL19" s="84"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="90"/>
+      <c r="AK19" s="90"/>
+      <c r="AL19" s="91"/>
       <c r="AM19" s="8"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
@@ -4636,30 +4657,30 @@
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="86"/>
-      <c r="AJ20" s="86"/>
-      <c r="AK20" s="86"/>
-      <c r="AL20" s="87"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="93"/>
+      <c r="AJ20" s="93"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="94"/>
       <c r="AM20" s="8"/>
       <c r="AN20" s="23" t="s">
         <v>27</v>
@@ -4760,30 +4781,30 @@
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="86"/>
-      <c r="AJ21" s="86"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="87"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="93"/>
+      <c r="AJ21" s="93"/>
+      <c r="AK21" s="93"/>
+      <c r="AL21" s="94"/>
       <c r="AM21" s="8"/>
       <c r="AN21" s="18"/>
       <c r="AO21" s="18"/>
@@ -4884,30 +4905,30 @@
       <c r="L22" s="35"/>
       <c r="M22" s="35"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
-      <c r="AE22" s="86"/>
-      <c r="AF22" s="86"/>
-      <c r="AG22" s="86"/>
-      <c r="AH22" s="86"/>
-      <c r="AI22" s="86"/>
-      <c r="AJ22" s="86"/>
-      <c r="AK22" s="86"/>
-      <c r="AL22" s="87"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="93"/>
+      <c r="AJ22" s="93"/>
+      <c r="AK22" s="93"/>
+      <c r="AL22" s="94"/>
       <c r="AM22" s="8"/>
       <c r="AN22" s="23" t="s">
         <v>29</v>
@@ -4916,51 +4937,51 @@
       <c r="AP22" s="18"/>
       <c r="AQ22" s="18"/>
       <c r="AR22" s="18"/>
-      <c r="AS22" s="115"/>
-      <c r="AT22" s="116"/>
-      <c r="AU22" s="116"/>
-      <c r="AV22" s="116"/>
-      <c r="AW22" s="116"/>
-      <c r="AX22" s="116"/>
-      <c r="AY22" s="116"/>
-      <c r="AZ22" s="116"/>
-      <c r="BA22" s="116"/>
-      <c r="BB22" s="116"/>
-      <c r="BC22" s="116"/>
-      <c r="BD22" s="116"/>
-      <c r="BE22" s="116"/>
-      <c r="BF22" s="115"/>
-      <c r="BG22" s="116"/>
-      <c r="BH22" s="116"/>
-      <c r="BI22" s="76"/>
-      <c r="BJ22" s="116"/>
-      <c r="BK22" s="116"/>
-      <c r="BL22" s="116"/>
-      <c r="BM22" s="116"/>
-      <c r="BN22" s="116"/>
-      <c r="BO22" s="116"/>
-      <c r="BP22" s="116"/>
-      <c r="BQ22" s="116"/>
+      <c r="AS22" s="60"/>
+      <c r="AT22" s="61"/>
+      <c r="AU22" s="61"/>
+      <c r="AV22" s="61"/>
+      <c r="AW22" s="61"/>
+      <c r="AX22" s="61"/>
+      <c r="AY22" s="61"/>
+      <c r="AZ22" s="61"/>
+      <c r="BA22" s="61"/>
+      <c r="BB22" s="61"/>
+      <c r="BC22" s="61"/>
+      <c r="BD22" s="61"/>
+      <c r="BE22" s="61"/>
+      <c r="BF22" s="60"/>
+      <c r="BG22" s="61"/>
+      <c r="BH22" s="61"/>
+      <c r="BI22" s="63"/>
+      <c r="BJ22" s="61"/>
+      <c r="BK22" s="61"/>
+      <c r="BL22" s="61"/>
+      <c r="BM22" s="61"/>
+      <c r="BN22" s="61"/>
+      <c r="BO22" s="61"/>
+      <c r="BP22" s="61"/>
+      <c r="BQ22" s="61"/>
       <c r="BR22" s="38"/>
-      <c r="BS22" s="115"/>
-      <c r="BT22" s="116"/>
-      <c r="BU22" s="116"/>
-      <c r="BV22" s="116"/>
-      <c r="BW22" s="116"/>
-      <c r="BX22" s="116"/>
-      <c r="BY22" s="116"/>
-      <c r="BZ22" s="116"/>
-      <c r="CA22" s="116"/>
-      <c r="CB22" s="116"/>
-      <c r="CC22" s="116"/>
-      <c r="CD22" s="116"/>
-      <c r="CE22" s="116"/>
-      <c r="CF22" s="116"/>
-      <c r="CG22" s="116"/>
-      <c r="CH22" s="116"/>
-      <c r="CI22" s="116"/>
-      <c r="CJ22" s="116"/>
-      <c r="CK22" s="116"/>
+      <c r="BS22" s="60"/>
+      <c r="BT22" s="61"/>
+      <c r="BU22" s="61"/>
+      <c r="BV22" s="61"/>
+      <c r="BW22" s="61"/>
+      <c r="BX22" s="61"/>
+      <c r="BY22" s="61"/>
+      <c r="BZ22" s="61"/>
+      <c r="CA22" s="61"/>
+      <c r="CB22" s="61"/>
+      <c r="CC22" s="61"/>
+      <c r="CD22" s="61"/>
+      <c r="CE22" s="61"/>
+      <c r="CF22" s="61"/>
+      <c r="CG22" s="61"/>
+      <c r="CH22" s="61"/>
+      <c r="CI22" s="61"/>
+      <c r="CJ22" s="61"/>
+      <c r="CK22" s="61"/>
       <c r="CL22" s="4"/>
       <c r="CM22" s="8"/>
       <c r="CN22" s="2"/>
@@ -5008,30 +5029,30 @@
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
       <c r="N23" s="42"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
-      <c r="AE23" s="89"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="89"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="89"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="89"/>
-      <c r="AL23" s="90"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="96"/>
+      <c r="AD23" s="96"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="96"/>
+      <c r="AG23" s="96"/>
+      <c r="AH23" s="96"/>
+      <c r="AI23" s="96"/>
+      <c r="AJ23" s="96"/>
+      <c r="AK23" s="96"/>
+      <c r="AL23" s="97"/>
       <c r="AM23" s="8"/>
       <c r="AN23" s="18"/>
       <c r="AO23" s="18"/>
@@ -5130,40 +5151,40 @@
       <c r="L24" s="43"/>
       <c r="M24" s="43"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="91" t="s">
+      <c r="O24" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="92"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="92"/>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="92"/>
-      <c r="AL24" s="93"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
+      <c r="AC24" s="99"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="100"/>
       <c r="AM24" s="8"/>
-      <c r="AN24" s="109" t="s">
+      <c r="AN24" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="AO24" s="110"/>
-      <c r="AP24" s="110"/>
-      <c r="AQ24" s="110"/>
-      <c r="AR24" s="110"/>
+      <c r="AO24" s="117"/>
+      <c r="AP24" s="117"/>
+      <c r="AQ24" s="117"/>
+      <c r="AR24" s="117"/>
       <c r="AS24" s="37"/>
       <c r="AT24" s="37"/>
       <c r="AU24" s="37"/>
@@ -5260,96 +5281,82 @@
       <c r="L25" s="35"/>
       <c r="M25" s="35"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="95"/>
-      <c r="AJ25" s="95"/>
-      <c r="AK25" s="95"/>
-      <c r="AL25" s="96"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="102"/>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="102"/>
+      <c r="AD25" s="102"/>
+      <c r="AE25" s="102"/>
+      <c r="AF25" s="102"/>
+      <c r="AG25" s="102"/>
+      <c r="AH25" s="102"/>
+      <c r="AI25" s="102"/>
+      <c r="AJ25" s="102"/>
+      <c r="AK25" s="102"/>
+      <c r="AL25" s="103"/>
       <c r="AM25" s="8"/>
-      <c r="AN25" s="110"/>
-      <c r="AO25" s="110"/>
-      <c r="AP25" s="110"/>
-      <c r="AQ25" s="110"/>
-      <c r="AR25" s="110"/>
-      <c r="AS25" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="73"/>
-      <c r="AV25" s="73"/>
-      <c r="AW25" s="120"/>
-      <c r="AX25" s="121"/>
-      <c r="AY25" s="121"/>
-      <c r="AZ25" s="121"/>
-      <c r="BA25" s="76"/>
-      <c r="BB25" s="121"/>
-      <c r="BC25" s="121"/>
-      <c r="BD25" s="121"/>
-      <c r="BE25" s="121"/>
-      <c r="BF25" s="121"/>
-      <c r="BG25" s="121"/>
-      <c r="BH25" s="121"/>
-      <c r="BI25" s="121"/>
-      <c r="BJ25" s="121"/>
-      <c r="BK25" s="121"/>
-      <c r="BL25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="BM25" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN25" s="121"/>
-      <c r="BO25" s="121"/>
-      <c r="BP25" s="120"/>
-      <c r="BQ25" s="121"/>
-      <c r="BR25" s="121"/>
-      <c r="BS25" s="121"/>
-      <c r="BT25" s="121"/>
-      <c r="BU25" s="121"/>
-      <c r="BV25" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="BW25" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="BX25" s="73"/>
-      <c r="BY25" s="73"/>
-      <c r="BZ25" s="73"/>
-      <c r="CA25" s="73"/>
-      <c r="CB25" s="118"/>
-      <c r="CC25" s="118"/>
-      <c r="CD25" s="118"/>
-      <c r="CE25" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="CF25" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="CG25" s="118"/>
-      <c r="CH25" s="118"/>
-      <c r="CI25" s="118"/>
-      <c r="CJ25" s="118"/>
-      <c r="CK25" s="118"/>
-      <c r="CL25" s="119"/>
+      <c r="AN25" s="117"/>
+      <c r="AO25" s="117"/>
+      <c r="AP25" s="117"/>
+      <c r="AQ25" s="117"/>
+      <c r="AR25" s="117"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="136"/>
+      <c r="AU25" s="137"/>
+      <c r="AV25" s="137"/>
+      <c r="AW25" s="137"/>
+      <c r="AX25" s="137"/>
+      <c r="AY25" s="137"/>
+      <c r="AZ25" s="137"/>
+      <c r="BA25" s="137"/>
+      <c r="BB25" s="137"/>
+      <c r="BC25" s="137"/>
+      <c r="BD25" s="137"/>
+      <c r="BE25" s="137"/>
+      <c r="BF25" s="137"/>
+      <c r="BG25" s="137"/>
+      <c r="BH25" s="137"/>
+      <c r="BI25" s="137"/>
+      <c r="BJ25" s="137"/>
+      <c r="BK25" s="137"/>
+      <c r="BL25" s="137"/>
+      <c r="BM25" s="137"/>
+      <c r="BN25" s="137"/>
+      <c r="BO25" s="137"/>
+      <c r="BP25" s="137"/>
+      <c r="BQ25" s="137"/>
+      <c r="BR25" s="137"/>
+      <c r="BS25" s="137"/>
+      <c r="BT25" s="137"/>
+      <c r="BU25" s="137"/>
+      <c r="BV25" s="137"/>
+      <c r="BW25" s="137"/>
+      <c r="BX25" s="137"/>
+      <c r="BY25" s="137"/>
+      <c r="BZ25" s="137"/>
+      <c r="CA25" s="137"/>
+      <c r="CB25" s="137"/>
+      <c r="CC25" s="137"/>
+      <c r="CD25" s="137"/>
+      <c r="CE25" s="137"/>
+      <c r="CF25" s="137"/>
+      <c r="CG25" s="137"/>
+      <c r="CH25" s="137"/>
+      <c r="CI25" s="137"/>
+      <c r="CJ25" s="137"/>
+      <c r="CK25" s="138"/>
+      <c r="CL25" s="135"/>
       <c r="CM25" s="8"/>
       <c r="CN25" s="2"/>
       <c r="CO25" s="2"/>
@@ -5387,7 +5394,7 @@
       <c r="C26" s="39"/>
       <c r="D26" s="40"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="48"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
@@ -5396,30 +5403,30 @@
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
       <c r="N26" s="42"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="98"/>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="98"/>
-      <c r="AF26" s="98"/>
-      <c r="AG26" s="98"/>
-      <c r="AH26" s="98"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="98"/>
-      <c r="AK26" s="98"/>
-      <c r="AL26" s="99"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="105"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="105"/>
+      <c r="AB26" s="105"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="105"/>
+      <c r="AG26" s="105"/>
+      <c r="AH26" s="105"/>
+      <c r="AI26" s="105"/>
+      <c r="AJ26" s="105"/>
+      <c r="AK26" s="105"/>
+      <c r="AL26" s="106"/>
       <c r="AM26" s="8"/>
       <c r="AN26" s="18"/>
       <c r="AO26" s="18"/>
@@ -5509,7 +5516,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="29"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="49"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
@@ -5518,32 +5525,32 @@
       <c r="L27" s="43"/>
       <c r="M27" s="43"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="100" t="s">
-        <v>39</v>
+      <c r="O27" s="107" t="s">
+        <v>34</v>
       </c>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="101"/>
-      <c r="AB27" s="101"/>
-      <c r="AC27" s="101"/>
-      <c r="AD27" s="101"/>
-      <c r="AE27" s="101"/>
-      <c r="AF27" s="101"/>
-      <c r="AG27" s="101"/>
-      <c r="AH27" s="101"/>
-      <c r="AI27" s="101"/>
-      <c r="AJ27" s="101"/>
-      <c r="AK27" s="101"/>
-      <c r="AL27" s="102"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="108"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="108"/>
+      <c r="AA27" s="108"/>
+      <c r="AB27" s="108"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="108"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="108"/>
+      <c r="AG27" s="108"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="108"/>
+      <c r="AJ27" s="108"/>
+      <c r="AK27" s="108"/>
+      <c r="AL27" s="109"/>
       <c r="AM27" s="8"/>
       <c r="AN27" s="18"/>
       <c r="AO27" s="18"/>
@@ -5634,7 +5641,7 @@
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
       <c r="F28" s="34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
@@ -5644,83 +5651,83 @@
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="104"/>
-      <c r="AE28" s="104"/>
-      <c r="AF28" s="104"/>
-      <c r="AG28" s="104"/>
-      <c r="AH28" s="104"/>
-      <c r="AI28" s="104"/>
-      <c r="AJ28" s="104"/>
-      <c r="AK28" s="104"/>
-      <c r="AL28" s="105"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
+      <c r="AA28" s="111"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="111"/>
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="111"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="111"/>
+      <c r="AH28" s="111"/>
+      <c r="AI28" s="111"/>
+      <c r="AJ28" s="111"/>
+      <c r="AK28" s="111"/>
+      <c r="AL28" s="112"/>
       <c r="AM28" s="8"/>
       <c r="AN28" s="18"/>
       <c r="AO28" s="18"/>
       <c r="AP28" s="18"/>
       <c r="AQ28" s="18"/>
-      <c r="AR28" s="50"/>
-      <c r="AS28" s="75"/>
-      <c r="AT28" s="75"/>
-      <c r="AU28" s="75"/>
-      <c r="AV28" s="75"/>
-      <c r="AW28" s="75"/>
-      <c r="AX28" s="75"/>
-      <c r="AY28" s="75"/>
-      <c r="AZ28" s="75"/>
-      <c r="BA28" s="72" t="s">
-        <v>41</v>
+      <c r="AR28" s="48"/>
+      <c r="AS28" s="124"/>
+      <c r="AT28" s="124"/>
+      <c r="AU28" s="124"/>
+      <c r="AV28" s="124"/>
+      <c r="AW28" s="124"/>
+      <c r="AX28" s="124"/>
+      <c r="AY28" s="124"/>
+      <c r="AZ28" s="124"/>
+      <c r="BA28" s="122" t="s">
+        <v>36</v>
       </c>
-      <c r="BB28" s="73"/>
-      <c r="BC28" s="74"/>
-      <c r="BD28" s="75"/>
-      <c r="BE28" s="75"/>
-      <c r="BF28" s="75"/>
-      <c r="BG28" s="75"/>
-      <c r="BH28" s="75"/>
-      <c r="BI28" s="76"/>
-      <c r="BJ28" s="75"/>
-      <c r="BK28" s="75"/>
-      <c r="BL28" s="75"/>
-      <c r="BM28" s="75"/>
-      <c r="BN28" s="75"/>
-      <c r="BO28" s="75"/>
-      <c r="BP28" s="75"/>
-      <c r="BQ28" s="75"/>
-      <c r="BR28" s="75"/>
-      <c r="BS28" s="75"/>
-      <c r="BT28" s="75"/>
-      <c r="BU28" s="75"/>
-      <c r="BV28" s="75"/>
-      <c r="BW28" s="37"/>
-      <c r="BX28" s="37"/>
-      <c r="BY28" s="37"/>
-      <c r="BZ28" s="37"/>
-      <c r="CA28" s="37"/>
-      <c r="CB28" s="37"/>
-      <c r="CC28" s="37"/>
-      <c r="CD28" s="37"/>
-      <c r="CE28" s="37"/>
-      <c r="CF28" s="37"/>
-      <c r="CG28" s="37"/>
-      <c r="CH28" s="37"/>
-      <c r="CI28" s="37"/>
-      <c r="CJ28" s="37"/>
-      <c r="CK28" s="37"/>
+      <c r="BB28" s="123"/>
+      <c r="BC28" s="140"/>
+      <c r="BD28" s="141"/>
+      <c r="BE28" s="141"/>
+      <c r="BF28" s="141"/>
+      <c r="BG28" s="141"/>
+      <c r="BH28" s="141"/>
+      <c r="BI28" s="141"/>
+      <c r="BJ28" s="141"/>
+      <c r="BK28" s="141"/>
+      <c r="BL28" s="141"/>
+      <c r="BM28" s="141"/>
+      <c r="BN28" s="141"/>
+      <c r="BO28" s="141"/>
+      <c r="BP28" s="141"/>
+      <c r="BQ28" s="141"/>
+      <c r="BR28" s="141"/>
+      <c r="BS28" s="141"/>
+      <c r="BT28" s="141"/>
+      <c r="BU28" s="141"/>
+      <c r="BV28" s="141"/>
+      <c r="BW28" s="141"/>
+      <c r="BX28" s="141"/>
+      <c r="BY28" s="141"/>
+      <c r="BZ28" s="141"/>
+      <c r="CA28" s="141"/>
+      <c r="CB28" s="141"/>
+      <c r="CC28" s="141"/>
+      <c r="CD28" s="141"/>
+      <c r="CE28" s="141"/>
+      <c r="CF28" s="141"/>
+      <c r="CG28" s="141"/>
+      <c r="CH28" s="141"/>
+      <c r="CI28" s="141"/>
+      <c r="CJ28" s="141"/>
+      <c r="CK28" s="142"/>
       <c r="CL28" s="4"/>
       <c r="CM28" s="8"/>
       <c r="CN28" s="2"/>
@@ -5759,7 +5766,7 @@
       <c r="C29" s="39"/>
       <c r="D29" s="40"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="51"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -5768,30 +5775,30 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="42"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="107"/>
-      <c r="AA29" s="107"/>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="107"/>
-      <c r="AD29" s="107"/>
-      <c r="AE29" s="107"/>
-      <c r="AF29" s="107"/>
-      <c r="AG29" s="107"/>
-      <c r="AH29" s="107"/>
-      <c r="AI29" s="107"/>
-      <c r="AJ29" s="107"/>
-      <c r="AK29" s="107"/>
-      <c r="AL29" s="108"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="114"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="114"/>
+      <c r="AE29" s="114"/>
+      <c r="AF29" s="114"/>
+      <c r="AG29" s="114"/>
+      <c r="AH29" s="114"/>
+      <c r="AI29" s="114"/>
+      <c r="AJ29" s="114"/>
+      <c r="AK29" s="114"/>
+      <c r="AL29" s="115"/>
       <c r="AM29" s="8"/>
       <c r="AN29" s="18"/>
       <c r="AO29" s="18"/>
@@ -5879,8 +5886,8 @@
       <c r="A30" s="4"/>
       <c r="B30" s="28"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="52" t="s">
-        <v>42</v>
+      <c r="D30" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -5922,33 +5929,31 @@
       <c r="AP30" s="2"/>
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
-      <c r="AS30" s="138">
-        <v>0</v>
+      <c r="AS30" s="143"/>
+      <c r="AT30" s="144"/>
+      <c r="AU30" s="144"/>
+      <c r="AV30" s="144"/>
+      <c r="AW30" s="144"/>
+      <c r="AX30" s="144"/>
+      <c r="AY30" s="144"/>
+      <c r="AZ30" s="144"/>
+      <c r="BA30" s="144"/>
+      <c r="BB30" s="144"/>
+      <c r="BC30" s="144"/>
+      <c r="BD30" s="144"/>
+      <c r="BE30" s="144"/>
+      <c r="BF30" s="144"/>
+      <c r="BG30" s="144"/>
+      <c r="BH30" s="144"/>
+      <c r="BI30" s="145"/>
+      <c r="BJ30" s="59"/>
+      <c r="BK30" s="59"/>
+      <c r="BL30" s="60" t="s">
+        <v>40</v>
       </c>
-      <c r="AT30" s="139"/>
-      <c r="AU30" s="139"/>
-      <c r="AV30" s="139"/>
-      <c r="AW30" s="139"/>
-      <c r="AX30" s="139"/>
-      <c r="AY30" s="139"/>
-      <c r="AZ30" s="139"/>
-      <c r="BA30" s="139"/>
-      <c r="BB30" s="139"/>
-      <c r="BC30" s="139"/>
-      <c r="BD30" s="139"/>
-      <c r="BE30" s="139"/>
-      <c r="BF30" s="139"/>
-      <c r="BG30" s="139"/>
-      <c r="BH30" s="139"/>
-      <c r="BI30" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="BJ30" s="139"/>
-      <c r="BK30" s="139"/>
-      <c r="BL30" s="139"/>
-      <c r="BM30" s="139"/>
-      <c r="BN30" s="2"/>
-      <c r="BO30" s="2"/>
+      <c r="BM30" s="61"/>
+      <c r="BN30" s="61"/>
+      <c r="BO30" s="61"/>
       <c r="BP30" s="2"/>
       <c r="BQ30" s="2"/>
       <c r="BR30" s="2"/>
@@ -6009,40 +6014,40 @@
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="141" t="s">
-        <v>44</v>
+      <c r="F31" s="64" t="s">
+        <v>38</v>
       </c>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="142"/>
-      <c r="Q31" s="142"/>
-      <c r="R31" s="142"/>
-      <c r="S31" s="142"/>
-      <c r="T31" s="142"/>
-      <c r="U31" s="142"/>
-      <c r="V31" s="142"/>
-      <c r="W31" s="142"/>
-      <c r="X31" s="142"/>
-      <c r="Y31" s="142"/>
-      <c r="Z31" s="142"/>
-      <c r="AA31" s="142"/>
-      <c r="AB31" s="142"/>
-      <c r="AC31" s="142"/>
-      <c r="AD31" s="142"/>
-      <c r="AE31" s="142"/>
-      <c r="AF31" s="142"/>
-      <c r="AG31" s="142"/>
-      <c r="AH31" s="142"/>
-      <c r="AI31" s="142"/>
-      <c r="AJ31" s="142"/>
-      <c r="AK31" s="142"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="65"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="65"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="8"/>
       <c r="AN31" s="18"/>
@@ -6080,22 +6085,22 @@
       <c r="BT31" s="2"/>
       <c r="BU31" s="2"/>
       <c r="BV31" s="2"/>
-      <c r="BW31" s="53"/>
-      <c r="BX31" s="53"/>
-      <c r="BY31" s="54"/>
-      <c r="BZ31" s="54"/>
-      <c r="CA31" s="54"/>
-      <c r="CB31" s="54"/>
-      <c r="CC31" s="54"/>
-      <c r="CD31" s="54"/>
-      <c r="CE31" s="54"/>
-      <c r="CF31" s="54"/>
-      <c r="CG31" s="54"/>
-      <c r="CH31" s="54"/>
-      <c r="CI31" s="54"/>
-      <c r="CJ31" s="54"/>
-      <c r="CK31" s="54"/>
-      <c r="CL31" s="55"/>
+      <c r="BW31" s="51"/>
+      <c r="BX31" s="51"/>
+      <c r="BY31" s="52"/>
+      <c r="BZ31" s="52"/>
+      <c r="CA31" s="52"/>
+      <c r="CB31" s="52"/>
+      <c r="CC31" s="52"/>
+      <c r="CD31" s="52"/>
+      <c r="CE31" s="52"/>
+      <c r="CF31" s="52"/>
+      <c r="CG31" s="52"/>
+      <c r="CH31" s="52"/>
+      <c r="CI31" s="52"/>
+      <c r="CJ31" s="52"/>
+      <c r="CK31" s="52"/>
+      <c r="CL31" s="53"/>
       <c r="CM31" s="8"/>
       <c r="CN31" s="2"/>
       <c r="CO31" s="2"/>
@@ -6172,52 +6177,52 @@
       <c r="AP32" s="18"/>
       <c r="AQ32" s="18"/>
       <c r="AR32" s="18"/>
-      <c r="AS32" s="53"/>
-      <c r="AT32" s="53"/>
-      <c r="AU32" s="53"/>
-      <c r="AV32" s="53"/>
-      <c r="AW32" s="53"/>
-      <c r="AX32" s="53"/>
-      <c r="AY32" s="53"/>
-      <c r="AZ32" s="53"/>
-      <c r="BA32" s="53"/>
-      <c r="BB32" s="53"/>
-      <c r="BC32" s="53"/>
-      <c r="BD32" s="53"/>
-      <c r="BE32" s="53"/>
-      <c r="BF32" s="53"/>
-      <c r="BG32" s="53"/>
-      <c r="BH32" s="53"/>
-      <c r="BI32" s="53"/>
-      <c r="BJ32" s="53"/>
-      <c r="BK32" s="53"/>
-      <c r="BL32" s="53"/>
-      <c r="BM32" s="53"/>
-      <c r="BN32" s="53"/>
-      <c r="BO32" s="53"/>
-      <c r="BP32" s="53"/>
-      <c r="BQ32" s="53"/>
-      <c r="BR32" s="53"/>
-      <c r="BS32" s="53"/>
-      <c r="BT32" s="53"/>
-      <c r="BU32" s="53"/>
-      <c r="BV32" s="53"/>
-      <c r="BW32" s="53"/>
-      <c r="BX32" s="53"/>
-      <c r="BY32" s="54"/>
-      <c r="BZ32" s="54"/>
-      <c r="CA32" s="54"/>
-      <c r="CB32" s="54"/>
-      <c r="CC32" s="54"/>
-      <c r="CD32" s="54"/>
-      <c r="CE32" s="54"/>
-      <c r="CF32" s="54"/>
-      <c r="CG32" s="54"/>
-      <c r="CH32" s="54"/>
-      <c r="CI32" s="54"/>
-      <c r="CJ32" s="54"/>
-      <c r="CK32" s="54"/>
-      <c r="CL32" s="55"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="51"/>
+      <c r="AV32" s="51"/>
+      <c r="AW32" s="51"/>
+      <c r="AX32" s="51"/>
+      <c r="AY32" s="51"/>
+      <c r="AZ32" s="51"/>
+      <c r="BA32" s="51"/>
+      <c r="BB32" s="51"/>
+      <c r="BC32" s="51"/>
+      <c r="BD32" s="51"/>
+      <c r="BE32" s="51"/>
+      <c r="BF32" s="51"/>
+      <c r="BG32" s="51"/>
+      <c r="BH32" s="51"/>
+      <c r="BI32" s="51"/>
+      <c r="BJ32" s="51"/>
+      <c r="BK32" s="51"/>
+      <c r="BL32" s="51"/>
+      <c r="BM32" s="51"/>
+      <c r="BN32" s="51"/>
+      <c r="BO32" s="51"/>
+      <c r="BP32" s="51"/>
+      <c r="BQ32" s="51"/>
+      <c r="BR32" s="51"/>
+      <c r="BS32" s="51"/>
+      <c r="BT32" s="51"/>
+      <c r="BU32" s="51"/>
+      <c r="BV32" s="51"/>
+      <c r="BW32" s="51"/>
+      <c r="BX32" s="51"/>
+      <c r="BY32" s="52"/>
+      <c r="BZ32" s="52"/>
+      <c r="CA32" s="52"/>
+      <c r="CB32" s="52"/>
+      <c r="CC32" s="52"/>
+      <c r="CD32" s="52"/>
+      <c r="CE32" s="52"/>
+      <c r="CF32" s="52"/>
+      <c r="CG32" s="52"/>
+      <c r="CH32" s="52"/>
+      <c r="CI32" s="52"/>
+      <c r="CJ32" s="52"/>
+      <c r="CK32" s="52"/>
+      <c r="CL32" s="53"/>
       <c r="CM32" s="8"/>
       <c r="CN32" s="2"/>
       <c r="CO32" s="2"/>
@@ -6257,40 +6262,40 @@
         <v>32</v>
       </c>
       <c r="E33" s="33"/>
-      <c r="F33" s="143" t="s">
-        <v>45</v>
+      <c r="F33" s="66" t="s">
+        <v>39</v>
       </c>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="144"/>
-      <c r="P33" s="144"/>
-      <c r="Q33" s="144"/>
-      <c r="R33" s="144"/>
-      <c r="S33" s="144"/>
-      <c r="T33" s="144"/>
-      <c r="U33" s="144"/>
-      <c r="V33" s="144"/>
-      <c r="W33" s="144"/>
-      <c r="X33" s="144"/>
-      <c r="Y33" s="144"/>
-      <c r="Z33" s="144"/>
-      <c r="AA33" s="144"/>
-      <c r="AB33" s="144"/>
-      <c r="AC33" s="144"/>
-      <c r="AD33" s="144"/>
-      <c r="AE33" s="144"/>
-      <c r="AF33" s="144"/>
-      <c r="AG33" s="144"/>
-      <c r="AH33" s="144"/>
-      <c r="AI33" s="144"/>
-      <c r="AJ33" s="144"/>
-      <c r="AK33" s="144"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="67"/>
+      <c r="AD33" s="67"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="67"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="67"/>
+      <c r="AI33" s="67"/>
+      <c r="AJ33" s="67"/>
+      <c r="AK33" s="67"/>
       <c r="AL33" s="4"/>
       <c r="AM33" s="8"/>
       <c r="AN33" s="18"/>
@@ -6298,56 +6303,52 @@
       <c r="AP33" s="18"/>
       <c r="AQ33" s="18"/>
       <c r="AR33" s="18"/>
-      <c r="AS33" s="138">
-        <v>0</v>
-      </c>
-      <c r="AT33" s="139"/>
-      <c r="AU33" s="139"/>
-      <c r="AV33" s="139"/>
-      <c r="AW33" s="139"/>
-      <c r="AX33" s="139"/>
-      <c r="AY33" s="139"/>
-      <c r="AZ33" s="139"/>
-      <c r="BA33" s="139"/>
-      <c r="BB33" s="139"/>
-      <c r="BC33" s="139"/>
-      <c r="BD33" s="139"/>
-      <c r="BE33" s="139"/>
-      <c r="BF33" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="BG33" s="116"/>
-      <c r="BH33" s="116"/>
-      <c r="BI33" s="116"/>
-      <c r="BJ33" s="2"/>
-      <c r="BK33" s="2"/>
-      <c r="BL33" s="2"/>
-      <c r="BM33" s="2"/>
-      <c r="BN33" s="53"/>
-      <c r="BO33" s="53"/>
-      <c r="BP33" s="53"/>
-      <c r="BQ33" s="53"/>
-      <c r="BR33" s="53"/>
-      <c r="BS33" s="53"/>
-      <c r="BT33" s="53"/>
-      <c r="BU33" s="53"/>
-      <c r="BV33" s="53"/>
-      <c r="BW33" s="53"/>
-      <c r="BX33" s="53"/>
-      <c r="BY33" s="54"/>
-      <c r="BZ33" s="54"/>
-      <c r="CA33" s="54"/>
-      <c r="CB33" s="54"/>
-      <c r="CC33" s="54"/>
-      <c r="CD33" s="54"/>
-      <c r="CE33" s="54"/>
-      <c r="CF33" s="54"/>
-      <c r="CG33" s="54"/>
-      <c r="CH33" s="54"/>
-      <c r="CI33" s="54"/>
-      <c r="CJ33" s="54"/>
-      <c r="CK33" s="54"/>
-      <c r="CL33" s="55"/>
+      <c r="AS33" s="148"/>
+      <c r="AT33" s="146"/>
+      <c r="AU33" s="146"/>
+      <c r="AV33" s="146"/>
+      <c r="AW33" s="146"/>
+      <c r="AX33" s="146"/>
+      <c r="AY33" s="146"/>
+      <c r="AZ33" s="146"/>
+      <c r="BA33" s="146"/>
+      <c r="BB33" s="146"/>
+      <c r="BC33" s="146"/>
+      <c r="BD33" s="146"/>
+      <c r="BE33" s="146"/>
+      <c r="BF33" s="146"/>
+      <c r="BG33" s="146"/>
+      <c r="BH33" s="146"/>
+      <c r="BI33" s="147"/>
+      <c r="BJ33" s="59"/>
+      <c r="BK33" s="59"/>
+      <c r="BL33" s="139"/>
+      <c r="BM33" s="51"/>
+      <c r="BN33" s="51"/>
+      <c r="BO33" s="51"/>
+      <c r="BP33" s="51"/>
+      <c r="BQ33" s="51"/>
+      <c r="BR33" s="51"/>
+      <c r="BS33" s="51"/>
+      <c r="BT33" s="51"/>
+      <c r="BU33" s="51"/>
+      <c r="BV33" s="51"/>
+      <c r="BW33" s="51"/>
+      <c r="BX33" s="51"/>
+      <c r="BY33" s="52"/>
+      <c r="BZ33" s="52"/>
+      <c r="CA33" s="52"/>
+      <c r="CB33" s="52"/>
+      <c r="CC33" s="52"/>
+      <c r="CD33" s="52"/>
+      <c r="CE33" s="52"/>
+      <c r="CF33" s="52"/>
+      <c r="CG33" s="52"/>
+      <c r="CH33" s="52"/>
+      <c r="CI33" s="52"/>
+      <c r="CJ33" s="52"/>
+      <c r="CK33" s="52"/>
+      <c r="CL33" s="53"/>
       <c r="CM33" s="8"/>
       <c r="CN33" s="2"/>
       <c r="CO33" s="2"/>
@@ -6424,52 +6425,52 @@
       <c r="AP34" s="18"/>
       <c r="AQ34" s="18"/>
       <c r="AR34" s="18"/>
-      <c r="AS34" s="53"/>
-      <c r="AT34" s="53"/>
-      <c r="AU34" s="53"/>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
-      <c r="BB34" s="53"/>
-      <c r="BC34" s="53"/>
-      <c r="BD34" s="53"/>
-      <c r="BE34" s="53"/>
-      <c r="BF34" s="53"/>
-      <c r="BG34" s="53"/>
-      <c r="BH34" s="53"/>
-      <c r="BI34" s="53"/>
-      <c r="BJ34" s="53"/>
-      <c r="BK34" s="53"/>
-      <c r="BL34" s="53"/>
-      <c r="BM34" s="53"/>
-      <c r="BN34" s="53"/>
-      <c r="BO34" s="53"/>
-      <c r="BP34" s="53"/>
-      <c r="BQ34" s="53"/>
-      <c r="BR34" s="53"/>
-      <c r="BS34" s="53"/>
-      <c r="BT34" s="53"/>
-      <c r="BU34" s="53"/>
-      <c r="BV34" s="53"/>
-      <c r="BW34" s="53"/>
-      <c r="BX34" s="53"/>
-      <c r="BY34" s="54"/>
-      <c r="BZ34" s="54"/>
-      <c r="CA34" s="54"/>
-      <c r="CB34" s="54"/>
-      <c r="CC34" s="54"/>
-      <c r="CD34" s="54"/>
-      <c r="CE34" s="54"/>
-      <c r="CF34" s="54"/>
-      <c r="CG34" s="54"/>
-      <c r="CH34" s="54"/>
-      <c r="CI34" s="54"/>
-      <c r="CJ34" s="54"/>
-      <c r="CK34" s="54"/>
-      <c r="CL34" s="55"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="51"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
+      <c r="BB34" s="51"/>
+      <c r="BC34" s="51"/>
+      <c r="BD34" s="51"/>
+      <c r="BE34" s="51"/>
+      <c r="BF34" s="51"/>
+      <c r="BG34" s="51"/>
+      <c r="BH34" s="51"/>
+      <c r="BI34" s="51"/>
+      <c r="BJ34" s="51"/>
+      <c r="BK34" s="51"/>
+      <c r="BL34" s="51"/>
+      <c r="BM34" s="51"/>
+      <c r="BN34" s="51"/>
+      <c r="BO34" s="51"/>
+      <c r="BP34" s="51"/>
+      <c r="BQ34" s="51"/>
+      <c r="BR34" s="51"/>
+      <c r="BS34" s="51"/>
+      <c r="BT34" s="51"/>
+      <c r="BU34" s="51"/>
+      <c r="BV34" s="51"/>
+      <c r="BW34" s="51"/>
+      <c r="BX34" s="51"/>
+      <c r="BY34" s="52"/>
+      <c r="BZ34" s="52"/>
+      <c r="CA34" s="52"/>
+      <c r="CB34" s="52"/>
+      <c r="CC34" s="52"/>
+      <c r="CD34" s="52"/>
+      <c r="CE34" s="52"/>
+      <c r="CF34" s="52"/>
+      <c r="CG34" s="52"/>
+      <c r="CH34" s="52"/>
+      <c r="CI34" s="52"/>
+      <c r="CJ34" s="52"/>
+      <c r="CK34" s="52"/>
+      <c r="CL34" s="53"/>
       <c r="CM34" s="8"/>
       <c r="CN34" s="2"/>
       <c r="CO34" s="2"/>
@@ -6507,8 +6508,8 @@
       <c r="C35" s="31"/>
       <c r="D35" s="32"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="56" t="s">
-        <v>47</v>
+      <c r="F35" s="54" t="s">
+        <v>41</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -6544,7 +6545,7 @@
       <c r="AL35" s="4"/>
       <c r="AM35" s="8"/>
       <c r="AN35" s="23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AO35" s="18"/>
       <c r="AP35" s="18"/>
@@ -6557,53 +6558,53 @@
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
       <c r="AY35" s="23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AZ35" s="2"/>
-      <c r="BA35" s="113">
+      <c r="BA35" s="120">
         <v>375</v>
       </c>
-      <c r="BB35" s="114"/>
-      <c r="BC35" s="114"/>
-      <c r="BD35" s="114"/>
+      <c r="BB35" s="121"/>
+      <c r="BC35" s="121"/>
+      <c r="BD35" s="121"/>
       <c r="BE35" s="21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
-      <c r="BF35" s="111"/>
-      <c r="BG35" s="111"/>
-      <c r="BH35" s="111"/>
+      <c r="BF35" s="118"/>
+      <c r="BG35" s="118"/>
+      <c r="BH35" s="118"/>
       <c r="BI35" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
-      <c r="BJ35" s="112"/>
-      <c r="BK35" s="111"/>
-      <c r="BL35" s="111"/>
-      <c r="BM35" s="111"/>
-      <c r="BN35" s="111"/>
-      <c r="BO35" s="111"/>
-      <c r="BP35" s="111"/>
-      <c r="BQ35" s="111"/>
-      <c r="BR35" s="111"/>
-      <c r="BS35" s="111"/>
-      <c r="BT35" s="111"/>
-      <c r="BU35" s="111"/>
-      <c r="BV35" s="111"/>
-      <c r="BW35" s="111"/>
-      <c r="BX35" s="53"/>
-      <c r="BY35" s="54"/>
-      <c r="BZ35" s="54"/>
-      <c r="CA35" s="54"/>
-      <c r="CB35" s="54"/>
-      <c r="CC35" s="54"/>
-      <c r="CD35" s="54"/>
-      <c r="CE35" s="54"/>
-      <c r="CF35" s="54"/>
-      <c r="CG35" s="54"/>
-      <c r="CH35" s="54"/>
-      <c r="CI35" s="54"/>
-      <c r="CJ35" s="54"/>
-      <c r="CK35" s="54"/>
-      <c r="CL35" s="55"/>
+      <c r="BJ35" s="119"/>
+      <c r="BK35" s="118"/>
+      <c r="BL35" s="118"/>
+      <c r="BM35" s="118"/>
+      <c r="BN35" s="118"/>
+      <c r="BO35" s="118"/>
+      <c r="BP35" s="118"/>
+      <c r="BQ35" s="118"/>
+      <c r="BR35" s="118"/>
+      <c r="BS35" s="118"/>
+      <c r="BT35" s="118"/>
+      <c r="BU35" s="118"/>
+      <c r="BV35" s="118"/>
+      <c r="BW35" s="118"/>
+      <c r="BX35" s="51"/>
+      <c r="BY35" s="52"/>
+      <c r="BZ35" s="52"/>
+      <c r="CA35" s="52"/>
+      <c r="CB35" s="52"/>
+      <c r="CC35" s="52"/>
+      <c r="CD35" s="52"/>
+      <c r="CE35" s="52"/>
+      <c r="CF35" s="52"/>
+      <c r="CG35" s="52"/>
+      <c r="CH35" s="52"/>
+      <c r="CI35" s="52"/>
+      <c r="CJ35" s="52"/>
+      <c r="CK35" s="52"/>
+      <c r="CL35" s="53"/>
       <c r="CM35" s="8"/>
       <c r="CN35" s="2"/>
       <c r="CO35" s="2"/>
@@ -6685,34 +6686,34 @@
       <c r="AU36" s="18"/>
       <c r="AV36" s="18"/>
       <c r="AW36" s="18"/>
-      <c r="AX36" s="77" t="s">
-        <v>52</v>
+      <c r="AX36" s="85" t="s">
+        <v>46</v>
       </c>
-      <c r="AY36" s="78"/>
-      <c r="AZ36" s="78"/>
-      <c r="BA36" s="79"/>
-      <c r="BB36" s="78"/>
-      <c r="BC36" s="78"/>
-      <c r="BD36" s="78"/>
-      <c r="BE36" s="78"/>
-      <c r="BF36" s="78"/>
-      <c r="BG36" s="78"/>
-      <c r="BH36" s="78"/>
-      <c r="BI36" s="79"/>
-      <c r="BJ36" s="78"/>
-      <c r="BK36" s="78"/>
-      <c r="BL36" s="78"/>
-      <c r="BM36" s="78"/>
-      <c r="BN36" s="78"/>
-      <c r="BO36" s="78"/>
-      <c r="BP36" s="78"/>
-      <c r="BQ36" s="78"/>
-      <c r="BR36" s="78"/>
-      <c r="BS36" s="78"/>
-      <c r="BT36" s="78"/>
-      <c r="BU36" s="78"/>
-      <c r="BV36" s="78"/>
-      <c r="BW36" s="78"/>
+      <c r="AY36" s="86"/>
+      <c r="AZ36" s="86"/>
+      <c r="BA36" s="87"/>
+      <c r="BB36" s="86"/>
+      <c r="BC36" s="86"/>
+      <c r="BD36" s="86"/>
+      <c r="BE36" s="86"/>
+      <c r="BF36" s="86"/>
+      <c r="BG36" s="86"/>
+      <c r="BH36" s="86"/>
+      <c r="BI36" s="87"/>
+      <c r="BJ36" s="86"/>
+      <c r="BK36" s="86"/>
+      <c r="BL36" s="86"/>
+      <c r="BM36" s="86"/>
+      <c r="BN36" s="86"/>
+      <c r="BO36" s="86"/>
+      <c r="BP36" s="86"/>
+      <c r="BQ36" s="86"/>
+      <c r="BR36" s="86"/>
+      <c r="BS36" s="86"/>
+      <c r="BT36" s="86"/>
+      <c r="BU36" s="86"/>
+      <c r="BV36" s="86"/>
+      <c r="BW36" s="86"/>
       <c r="BX36" s="18"/>
       <c r="BY36" s="2"/>
       <c r="BZ36" s="2"/>
@@ -6766,7 +6767,7 @@
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
       <c r="F37" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -6811,32 +6812,32 @@
       <c r="AU37" s="18"/>
       <c r="AV37" s="18"/>
       <c r="AW37" s="18"/>
-      <c r="AX37" s="80"/>
-      <c r="AY37" s="80"/>
-      <c r="AZ37" s="80"/>
-      <c r="BA37" s="80"/>
-      <c r="BB37" s="80"/>
-      <c r="BC37" s="80"/>
-      <c r="BD37" s="80"/>
-      <c r="BE37" s="80"/>
-      <c r="BF37" s="80"/>
-      <c r="BG37" s="80"/>
-      <c r="BH37" s="80"/>
-      <c r="BI37" s="80"/>
-      <c r="BJ37" s="80"/>
-      <c r="BK37" s="80"/>
-      <c r="BL37" s="80"/>
-      <c r="BM37" s="80"/>
-      <c r="BN37" s="80"/>
-      <c r="BO37" s="80"/>
-      <c r="BP37" s="80"/>
-      <c r="BQ37" s="80"/>
-      <c r="BR37" s="80"/>
-      <c r="BS37" s="80"/>
-      <c r="BT37" s="80"/>
-      <c r="BU37" s="80"/>
-      <c r="BV37" s="80"/>
-      <c r="BW37" s="80"/>
+      <c r="AX37" s="88"/>
+      <c r="AY37" s="88"/>
+      <c r="AZ37" s="88"/>
+      <c r="BA37" s="88"/>
+      <c r="BB37" s="88"/>
+      <c r="BC37" s="88"/>
+      <c r="BD37" s="88"/>
+      <c r="BE37" s="88"/>
+      <c r="BF37" s="88"/>
+      <c r="BG37" s="88"/>
+      <c r="BH37" s="88"/>
+      <c r="BI37" s="88"/>
+      <c r="BJ37" s="88"/>
+      <c r="BK37" s="88"/>
+      <c r="BL37" s="88"/>
+      <c r="BM37" s="88"/>
+      <c r="BN37" s="88"/>
+      <c r="BO37" s="88"/>
+      <c r="BP37" s="88"/>
+      <c r="BQ37" s="88"/>
+      <c r="BR37" s="88"/>
+      <c r="BS37" s="88"/>
+      <c r="BT37" s="88"/>
+      <c r="BU37" s="88"/>
+      <c r="BV37" s="88"/>
+      <c r="BW37" s="88"/>
       <c r="BX37" s="18"/>
       <c r="BY37" s="2"/>
       <c r="BZ37" s="2"/>
@@ -6885,7 +6886,7 @@
     </row>
     <row r="38" spans="1:120" ht="7.95" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="39"/>
       <c r="D38" s="40"/>
       <c r="E38" s="3"/>
@@ -6923,43 +6924,43 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="42"/>
       <c r="AM38" s="39"/>
-      <c r="AN38" s="58"/>
-      <c r="AO38" s="58"/>
-      <c r="AP38" s="58"/>
-      <c r="AQ38" s="58"/>
-      <c r="AR38" s="58"/>
-      <c r="AS38" s="58"/>
-      <c r="AT38" s="58"/>
-      <c r="AU38" s="58"/>
-      <c r="AV38" s="58"/>
-      <c r="AW38" s="58"/>
-      <c r="AX38" s="59"/>
-      <c r="AY38" s="59"/>
-      <c r="AZ38" s="59"/>
-      <c r="BA38" s="59"/>
-      <c r="BB38" s="59"/>
-      <c r="BC38" s="59"/>
-      <c r="BD38" s="59"/>
-      <c r="BE38" s="59"/>
-      <c r="BF38" s="59"/>
-      <c r="BG38" s="59"/>
-      <c r="BH38" s="59"/>
-      <c r="BI38" s="59"/>
-      <c r="BJ38" s="59"/>
-      <c r="BK38" s="59"/>
-      <c r="BL38" s="59"/>
-      <c r="BM38" s="59"/>
-      <c r="BN38" s="59"/>
-      <c r="BO38" s="59"/>
-      <c r="BP38" s="59"/>
-      <c r="BQ38" s="59"/>
-      <c r="BR38" s="59"/>
-      <c r="BS38" s="59"/>
-      <c r="BT38" s="59"/>
-      <c r="BU38" s="59"/>
-      <c r="BV38" s="59"/>
-      <c r="BW38" s="59"/>
-      <c r="BX38" s="58"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="56"/>
+      <c r="AQ38" s="56"/>
+      <c r="AR38" s="56"/>
+      <c r="AS38" s="56"/>
+      <c r="AT38" s="56"/>
+      <c r="AU38" s="56"/>
+      <c r="AV38" s="56"/>
+      <c r="AW38" s="56"/>
+      <c r="AX38" s="57"/>
+      <c r="AY38" s="57"/>
+      <c r="AZ38" s="57"/>
+      <c r="BA38" s="57"/>
+      <c r="BB38" s="57"/>
+      <c r="BC38" s="57"/>
+      <c r="BD38" s="57"/>
+      <c r="BE38" s="57"/>
+      <c r="BF38" s="57"/>
+      <c r="BG38" s="57"/>
+      <c r="BH38" s="57"/>
+      <c r="BI38" s="57"/>
+      <c r="BJ38" s="57"/>
+      <c r="BK38" s="57"/>
+      <c r="BL38" s="57"/>
+      <c r="BM38" s="57"/>
+      <c r="BN38" s="57"/>
+      <c r="BO38" s="57"/>
+      <c r="BP38" s="57"/>
+      <c r="BQ38" s="57"/>
+      <c r="BR38" s="57"/>
+      <c r="BS38" s="57"/>
+      <c r="BT38" s="57"/>
+      <c r="BU38" s="57"/>
+      <c r="BV38" s="57"/>
+      <c r="BW38" s="57"/>
+      <c r="BX38" s="56"/>
       <c r="BY38" s="3"/>
       <c r="BZ38" s="3"/>
       <c r="CA38" s="3"/>
@@ -7045,43 +7046,43 @@
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
       <c r="AM39" s="6"/>
-      <c r="AN39" s="60"/>
-      <c r="AO39" s="60"/>
-      <c r="AP39" s="60"/>
-      <c r="AQ39" s="60"/>
-      <c r="AR39" s="60"/>
-      <c r="AS39" s="60"/>
-      <c r="AT39" s="60"/>
-      <c r="AU39" s="60"/>
-      <c r="AV39" s="60"/>
-      <c r="AW39" s="60"/>
-      <c r="AX39" s="60"/>
-      <c r="AY39" s="60"/>
-      <c r="AZ39" s="60"/>
-      <c r="BA39" s="60"/>
-      <c r="BB39" s="60"/>
-      <c r="BC39" s="60"/>
-      <c r="BD39" s="60"/>
-      <c r="BE39" s="60"/>
-      <c r="BF39" s="60"/>
-      <c r="BG39" s="60"/>
-      <c r="BH39" s="60"/>
-      <c r="BI39" s="60"/>
-      <c r="BJ39" s="60"/>
-      <c r="BK39" s="60"/>
-      <c r="BL39" s="60"/>
-      <c r="BM39" s="60"/>
-      <c r="BN39" s="60"/>
-      <c r="BO39" s="60"/>
-      <c r="BP39" s="60"/>
-      <c r="BQ39" s="60"/>
-      <c r="BR39" s="60"/>
-      <c r="BS39" s="60"/>
-      <c r="BT39" s="60"/>
-      <c r="BU39" s="60"/>
-      <c r="BV39" s="60"/>
-      <c r="BW39" s="60"/>
-      <c r="BX39" s="60"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="58"/>
+      <c r="AP39" s="58"/>
+      <c r="AQ39" s="58"/>
+      <c r="AR39" s="58"/>
+      <c r="AS39" s="58"/>
+      <c r="AT39" s="58"/>
+      <c r="AU39" s="58"/>
+      <c r="AV39" s="58"/>
+      <c r="AW39" s="58"/>
+      <c r="AX39" s="58"/>
+      <c r="AY39" s="58"/>
+      <c r="AZ39" s="58"/>
+      <c r="BA39" s="58"/>
+      <c r="BB39" s="58"/>
+      <c r="BC39" s="58"/>
+      <c r="BD39" s="58"/>
+      <c r="BE39" s="58"/>
+      <c r="BF39" s="58"/>
+      <c r="BG39" s="58"/>
+      <c r="BH39" s="58"/>
+      <c r="BI39" s="58"/>
+      <c r="BJ39" s="58"/>
+      <c r="BK39" s="58"/>
+      <c r="BL39" s="58"/>
+      <c r="BM39" s="58"/>
+      <c r="BN39" s="58"/>
+      <c r="BO39" s="58"/>
+      <c r="BP39" s="58"/>
+      <c r="BQ39" s="58"/>
+      <c r="BR39" s="58"/>
+      <c r="BS39" s="58"/>
+      <c r="BT39" s="58"/>
+      <c r="BU39" s="58"/>
+      <c r="BV39" s="58"/>
+      <c r="BW39" s="58"/>
+      <c r="BX39" s="58"/>
       <c r="BY39" s="6"/>
       <c r="BZ39" s="6"/>
       <c r="CA39" s="6"/>
@@ -7738,20 +7739,29 @@
       <c r="DP44" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="AS30:BH30"/>
-    <mergeCell ref="BI30:BM30"/>
-    <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="AS33:BE33"/>
-    <mergeCell ref="D14:AK14"/>
-    <mergeCell ref="D15:AK15"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="W16:AD16"/>
-    <mergeCell ref="AW25:BK25"/>
-    <mergeCell ref="BM25:BO25"/>
-    <mergeCell ref="AS22:BE22"/>
-    <mergeCell ref="F31:AK31"/>
-    <mergeCell ref="F33:AK33"/>
+  <mergeCells count="43">
+    <mergeCell ref="BL30:BO30"/>
+    <mergeCell ref="C6:AM6"/>
+    <mergeCell ref="C5:AM5"/>
+    <mergeCell ref="C7:AM7"/>
+    <mergeCell ref="L9:AD9"/>
+    <mergeCell ref="C8:AM8"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="Z12:AI12"/>
+    <mergeCell ref="BA28:BB28"/>
+    <mergeCell ref="AS28:AZ28"/>
+    <mergeCell ref="AT25:CK25"/>
+    <mergeCell ref="BC28:CK28"/>
+    <mergeCell ref="AX36:BW37"/>
+    <mergeCell ref="AM14:BQ17"/>
+    <mergeCell ref="O19:AL23"/>
+    <mergeCell ref="O24:AL26"/>
+    <mergeCell ref="O27:AL29"/>
+    <mergeCell ref="AN24:AR25"/>
+    <mergeCell ref="BF35:BH35"/>
+    <mergeCell ref="BJ35:BW35"/>
+    <mergeCell ref="BA35:BD35"/>
+    <mergeCell ref="BS22:CK22"/>
     <mergeCell ref="BH3:BM3"/>
     <mergeCell ref="BP3:BZ3"/>
     <mergeCell ref="BB6:BJ6"/>
@@ -7765,32 +7775,14 @@
     <mergeCell ref="AN8:BZ8"/>
     <mergeCell ref="AN9:BZ9"/>
     <mergeCell ref="AN12:BZ12"/>
-    <mergeCell ref="AX36:BW37"/>
-    <mergeCell ref="AM14:BQ17"/>
-    <mergeCell ref="O19:AL23"/>
-    <mergeCell ref="O24:AL26"/>
-    <mergeCell ref="O27:AL29"/>
-    <mergeCell ref="AN24:AR25"/>
-    <mergeCell ref="BF35:BH35"/>
-    <mergeCell ref="BJ35:BW35"/>
-    <mergeCell ref="BA35:BD35"/>
-    <mergeCell ref="BS22:CK22"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="CF25:CH25"/>
-    <mergeCell ref="CI25:CL25"/>
-    <mergeCell ref="BP25:BU25"/>
-    <mergeCell ref="BW25:CA25"/>
-    <mergeCell ref="CB25:CD25"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="Z12:AI12"/>
-    <mergeCell ref="BA28:BB28"/>
-    <mergeCell ref="BC28:BV28"/>
-    <mergeCell ref="AS28:AZ28"/>
-    <mergeCell ref="C6:AM6"/>
-    <mergeCell ref="C5:AM5"/>
-    <mergeCell ref="C7:AM7"/>
-    <mergeCell ref="L9:AD9"/>
-    <mergeCell ref="C8:AM8"/>
+    <mergeCell ref="D14:AK14"/>
+    <mergeCell ref="D15:AK15"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="W16:AD16"/>
+    <mergeCell ref="AS22:BE22"/>
+    <mergeCell ref="F31:AK31"/>
+    <mergeCell ref="F33:AK33"/>
+    <mergeCell ref="AS30:BI30"/>
   </mergeCells>
   <pageMargins left="0.19685" right="0.19685" top="0.39370100000000002" bottom="0.39370100000000002" header="0" footer="0"/>
   <pageSetup scale="82" orientation="portrait"/>

--- a/src/public/templates/belpost_label_template.xlsx
+++ b/src/public/templates/belpost_label_template.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26925"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B762B82-DFCA-4FE5-8A16-5FD2B260296D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Адресный листок" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="n_1">{"","одинz","дваz","триz","четыреz","пятьz","шестьz","семьz","восемьz","девятьz"}</definedName>
     <definedName name="n_2">{"десятьz","одиннадцатьz","двенадцатьz","тринадцатьz","четырнадцатьz","пятнадцатьz","шестнадцатьz","семнадцатьz","восемнадцатьz","девятнадцатьz"}</definedName>
@@ -51,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Наименование и адрес</t>
   </si>
@@ -210,13 +206,19 @@
   </si>
   <si>
     <t>громоздкое</t>
+  </si>
+  <si>
+    <t>5085/ЭЛС</t>
+  </si>
+  <si>
+    <t>г.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,6 +708,211 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -714,213 +921,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1027,53 +1029,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Источники данных"/>
-      <sheetName val="Наложенный платёж"/>
-      <sheetName val="Конверт мал."/>
-      <sheetName val="Дог. 1"/>
-      <sheetName val="Дог. 2"/>
-      <sheetName val="Дог. 3"/>
-      <sheetName val="Дог. 4"/>
-      <sheetName val="Дог. 5"/>
-      <sheetName val="2"/>
-      <sheetName val="источник формул"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>5085/ЭЛС</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>44861</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>г.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1338,17 +1293,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:DP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12:BZ12"/>
+      <selection activeCell="AN8" sqref="AN8:BZ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="2" style="1" customWidth="1"/>
@@ -1436,8 +1391,8 @@
     <col min="127" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:120" ht="6.75" customHeight="1"/>
-    <row r="2" spans="2:120" ht="5.25" customHeight="1">
+    <row r="1" spans="2:120" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:120" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -1528,7 +1483,7 @@
       <c r="CK2" s="27"/>
       <c r="CL2" s="24"/>
     </row>
-    <row r="3" spans="2:120">
+    <row r="3" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
       <c r="C3" s="48" t="s">
         <v>0</v>
@@ -1555,33 +1510,31 @@
       <c r="BE3" s="48"/>
       <c r="BF3" s="48"/>
       <c r="BG3" s="48"/>
-      <c r="BH3" s="101" t="str">
-        <f>'[1]Источники данных'!C4</f>
-        <v>5085/ЭЛС</v>
-      </c>
-      <c r="BI3" s="102"/>
-      <c r="BJ3" s="102"/>
-      <c r="BK3" s="102"/>
-      <c r="BL3" s="102"/>
-      <c r="BM3" s="102"/>
+      <c r="BH3" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="56"/>
+      <c r="BK3" s="56"/>
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
       <c r="BN3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="BO3" s="51"/>
-      <c r="BP3" s="103">
-        <f>'[1]Источники данных'!C5</f>
+      <c r="BP3" s="57">
         <v>44861</v>
       </c>
-      <c r="BQ3" s="103"/>
-      <c r="BR3" s="103"/>
-      <c r="BS3" s="103"/>
-      <c r="BT3" s="103"/>
-      <c r="BU3" s="103"/>
-      <c r="BV3" s="103"/>
-      <c r="BW3" s="103"/>
-      <c r="BX3" s="103"/>
-      <c r="BY3" s="103"/>
-      <c r="BZ3" s="103"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="57"/>
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="57"/>
+      <c r="BV3" s="57"/>
+      <c r="BW3" s="57"/>
+      <c r="BX3" s="57"/>
+      <c r="BY3" s="57"/>
+      <c r="BZ3" s="57"/>
       <c r="CA3" s="38"/>
       <c r="CB3" s="38"/>
       <c r="CC3" s="38"/>
@@ -1615,7 +1568,7 @@
       <c r="DE3" s="38"/>
       <c r="DF3" s="38"/>
     </row>
-    <row r="4" spans="2:120">
+    <row r="4" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="48" t="s">
         <v>3</v>
@@ -1623,21 +1576,21 @@
       <c r="AN4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="BC4" s="56">
+      <c r="BC4" s="63">
         <v>0</v>
       </c>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="56"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="56"/>
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="63"/>
+      <c r="BG4" s="63"/>
       <c r="BH4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BL4" s="106" t="s">
+      <c r="BL4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="BM4" s="106"/>
-      <c r="BN4" s="106"/>
+      <c r="BM4" s="61"/>
+      <c r="BN4" s="61"/>
       <c r="BO4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1670,77 +1623,77 @@
       <c r="DE4" s="38"/>
       <c r="DF4" s="38"/>
     </row>
-    <row r="5" spans="2:120">
+    <row r="5" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="64" t="s">
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="64"/>
-      <c r="AW5" s="64"/>
-      <c r="AX5" s="64"/>
-      <c r="AY5" s="64"/>
-      <c r="AZ5" s="64"/>
-      <c r="BA5" s="64"/>
-      <c r="BB5" s="64"/>
-      <c r="BC5" s="64"/>
-      <c r="BD5" s="64"/>
-      <c r="BE5" s="64"/>
-      <c r="BF5" s="64"/>
-      <c r="BG5" s="64"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
       <c r="BH5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BL5" s="106" t="s">
+      <c r="BL5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="BM5" s="106"/>
-      <c r="BN5" s="106"/>
+      <c r="BM5" s="61"/>
+      <c r="BN5" s="61"/>
       <c r="BO5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1773,47 +1726,47 @@
       <c r="DE5" s="38"/>
       <c r="DF5" s="38"/>
     </row>
-    <row r="6" spans="2:120">
+    <row r="6" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="102"/>
+      <c r="AH6" s="102"/>
+      <c r="AI6" s="102"/>
+      <c r="AJ6" s="102"/>
+      <c r="AK6" s="102"/>
+      <c r="AL6" s="102"/>
+      <c r="AM6" s="102"/>
       <c r="AN6" s="40" t="s">
         <v>11</v>
       </c>
@@ -1828,21 +1781,21 @@
       <c r="AY6" s="41"/>
       <c r="AZ6" s="41"/>
       <c r="BA6" s="41"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104"/>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="104"/>
-      <c r="BJ6" s="104"/>
-      <c r="BK6" s="105" t="s">
+      <c r="BB6" s="58"/>
+      <c r="BC6" s="58"/>
+      <c r="BD6" s="58"/>
+      <c r="BE6" s="58"/>
+      <c r="BF6" s="58"/>
+      <c r="BG6" s="58"/>
+      <c r="BH6" s="58"/>
+      <c r="BI6" s="58"/>
+      <c r="BJ6" s="58"/>
+      <c r="BK6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="BL6" s="105"/>
-      <c r="BM6" s="105"/>
-      <c r="BN6" s="105"/>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="59"/>
+      <c r="BN6" s="59"/>
       <c r="BO6" s="41"/>
       <c r="BP6" s="41"/>
       <c r="BQ6" s="41"/>
@@ -1888,86 +1841,86 @@
       <c r="DE6" s="38"/>
       <c r="DF6" s="38"/>
     </row>
-    <row r="7" spans="2:120" ht="15.75">
+    <row r="7" spans="2:120" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="96"/>
-      <c r="AO7" s="96"/>
-      <c r="AP7" s="96"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="96"/>
-      <c r="AS7" s="96"/>
-      <c r="AT7" s="96"/>
-      <c r="AU7" s="96"/>
-      <c r="AV7" s="96"/>
-      <c r="AW7" s="96"/>
-      <c r="AX7" s="96"/>
-      <c r="AY7" s="96"/>
-      <c r="AZ7" s="96"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="96"/>
-      <c r="BC7" s="96"/>
-      <c r="BD7" s="96"/>
-      <c r="BE7" s="96"/>
-      <c r="BF7" s="96"/>
-      <c r="BG7" s="96"/>
-      <c r="BH7" s="96"/>
-      <c r="BI7" s="96"/>
-      <c r="BJ7" s="96"/>
-      <c r="BK7" s="96"/>
-      <c r="BL7" s="96"/>
-      <c r="BM7" s="96"/>
-      <c r="BN7" s="96"/>
-      <c r="BO7" s="96"/>
-      <c r="BP7" s="96"/>
-      <c r="BQ7" s="96"/>
-      <c r="BR7" s="96"/>
-      <c r="BS7" s="96"/>
-      <c r="BT7" s="96"/>
-      <c r="BU7" s="96"/>
-      <c r="BV7" s="96"/>
-      <c r="BW7" s="96"/>
-      <c r="BX7" s="96"/>
-      <c r="BY7" s="96"/>
-      <c r="BZ7" s="96"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="62"/>
+      <c r="BA7" s="62"/>
+      <c r="BB7" s="62"/>
+      <c r="BC7" s="62"/>
+      <c r="BD7" s="62"/>
+      <c r="BE7" s="62"/>
+      <c r="BF7" s="62"/>
+      <c r="BG7" s="62"/>
+      <c r="BH7" s="62"/>
+      <c r="BI7" s="62"/>
+      <c r="BJ7" s="62"/>
+      <c r="BK7" s="62"/>
+      <c r="BL7" s="62"/>
+      <c r="BM7" s="62"/>
+      <c r="BN7" s="62"/>
+      <c r="BO7" s="62"/>
+      <c r="BP7" s="62"/>
+      <c r="BQ7" s="62"/>
+      <c r="BR7" s="62"/>
+      <c r="BS7" s="62"/>
+      <c r="BT7" s="62"/>
+      <c r="BU7" s="62"/>
+      <c r="BV7" s="62"/>
+      <c r="BW7" s="62"/>
+      <c r="BX7" s="62"/>
+      <c r="BY7" s="62"/>
+      <c r="BZ7" s="62"/>
       <c r="CA7" s="40"/>
       <c r="CB7" s="40"/>
       <c r="CC7" s="40"/>
@@ -2000,88 +1953,88 @@
       <c r="DE7" s="38"/>
       <c r="DF7" s="38"/>
     </row>
-    <row r="8" spans="2:120" ht="15.75">
+    <row r="8" spans="2:120" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="97" t="s">
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="108"/>
+      <c r="AJ8" s="108"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="108"/>
+      <c r="AM8" s="108"/>
+      <c r="AN8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AO8" s="97"/>
-      <c r="AP8" s="97"/>
-      <c r="AQ8" s="97"/>
-      <c r="AR8" s="97"/>
-      <c r="AS8" s="97"/>
-      <c r="AT8" s="97"/>
-      <c r="AU8" s="97"/>
-      <c r="AV8" s="97"/>
-      <c r="AW8" s="97"/>
-      <c r="AX8" s="97"/>
-      <c r="AY8" s="97"/>
-      <c r="AZ8" s="97"/>
-      <c r="BA8" s="97"/>
-      <c r="BB8" s="97"/>
-      <c r="BC8" s="97"/>
-      <c r="BD8" s="97"/>
-      <c r="BE8" s="97"/>
-      <c r="BF8" s="97"/>
-      <c r="BG8" s="97"/>
-      <c r="BH8" s="97"/>
-      <c r="BI8" s="97"/>
-      <c r="BJ8" s="97"/>
-      <c r="BK8" s="97"/>
-      <c r="BL8" s="97"/>
-      <c r="BM8" s="97"/>
-      <c r="BN8" s="97"/>
-      <c r="BO8" s="97"/>
-      <c r="BP8" s="97"/>
-      <c r="BQ8" s="97"/>
-      <c r="BR8" s="97"/>
-      <c r="BS8" s="97"/>
-      <c r="BT8" s="97"/>
-      <c r="BU8" s="97"/>
-      <c r="BV8" s="97"/>
-      <c r="BW8" s="97"/>
-      <c r="BX8" s="97"/>
-      <c r="BY8" s="97"/>
-      <c r="BZ8" s="97"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="64"/>
+      <c r="AZ8" s="64"/>
+      <c r="BA8" s="64"/>
+      <c r="BB8" s="64"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="64"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="64"/>
+      <c r="BG8" s="64"/>
+      <c r="BH8" s="64"/>
+      <c r="BI8" s="64"/>
+      <c r="BJ8" s="64"/>
+      <c r="BK8" s="64"/>
+      <c r="BL8" s="64"/>
+      <c r="BM8" s="64"/>
+      <c r="BN8" s="64"/>
+      <c r="BO8" s="64"/>
+      <c r="BP8" s="64"/>
+      <c r="BQ8" s="64"/>
+      <c r="BR8" s="64"/>
+      <c r="BS8" s="64"/>
+      <c r="BT8" s="64"/>
+      <c r="BU8" s="64"/>
+      <c r="BV8" s="64"/>
+      <c r="BW8" s="64"/>
+      <c r="BX8" s="64"/>
+      <c r="BY8" s="64"/>
+      <c r="BZ8" s="64"/>
       <c r="CA8" s="49"/>
       <c r="CB8" s="49"/>
       <c r="CC8" s="49"/>
@@ -2091,88 +2044,88 @@
       <c r="CL8" s="7"/>
       <c r="CZ8"/>
     </row>
-    <row r="9" spans="2:120" ht="15.75" customHeight="1">
+    <row r="9" spans="2:120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="108"/>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="108"/>
-      <c r="AJ9" s="108"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="108"/>
-      <c r="AM9" s="108"/>
-      <c r="AN9" s="97" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="105"/>
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AO9" s="97"/>
-      <c r="AP9" s="97"/>
-      <c r="AQ9" s="97"/>
-      <c r="AR9" s="97"/>
-      <c r="AS9" s="97"/>
-      <c r="AT9" s="97"/>
-      <c r="AU9" s="97"/>
-      <c r="AV9" s="97"/>
-      <c r="AW9" s="97"/>
-      <c r="AX9" s="97"/>
-      <c r="AY9" s="97"/>
-      <c r="AZ9" s="97"/>
-      <c r="BA9" s="97"/>
-      <c r="BB9" s="97"/>
-      <c r="BC9" s="97"/>
-      <c r="BD9" s="97"/>
-      <c r="BE9" s="97"/>
-      <c r="BF9" s="97"/>
-      <c r="BG9" s="97"/>
-      <c r="BH9" s="97"/>
-      <c r="BI9" s="97"/>
-      <c r="BJ9" s="97"/>
-      <c r="BK9" s="97"/>
-      <c r="BL9" s="97"/>
-      <c r="BM9" s="97"/>
-      <c r="BN9" s="97"/>
-      <c r="BO9" s="97"/>
-      <c r="BP9" s="97"/>
-      <c r="BQ9" s="97"/>
-      <c r="BR9" s="97"/>
-      <c r="BS9" s="97"/>
-      <c r="BT9" s="97"/>
-      <c r="BU9" s="97"/>
-      <c r="BV9" s="97"/>
-      <c r="BW9" s="97"/>
-      <c r="BX9" s="97"/>
-      <c r="BY9" s="97"/>
-      <c r="BZ9" s="97"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="64"/>
+      <c r="AZ9" s="64"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="64"/>
+      <c r="BD9" s="64"/>
+      <c r="BE9" s="64"/>
+      <c r="BF9" s="64"/>
+      <c r="BG9" s="64"/>
+      <c r="BH9" s="64"/>
+      <c r="BI9" s="64"/>
+      <c r="BJ9" s="64"/>
+      <c r="BK9" s="64"/>
+      <c r="BL9" s="64"/>
+      <c r="BM9" s="64"/>
+      <c r="BN9" s="64"/>
+      <c r="BO9" s="64"/>
+      <c r="BP9" s="64"/>
+      <c r="BQ9" s="64"/>
+      <c r="BR9" s="64"/>
+      <c r="BS9" s="64"/>
+      <c r="BT9" s="64"/>
+      <c r="BU9" s="64"/>
+      <c r="BV9" s="64"/>
+      <c r="BW9" s="64"/>
+      <c r="BX9" s="64"/>
+      <c r="BY9" s="64"/>
+      <c r="BZ9" s="64"/>
       <c r="CA9" s="38"/>
       <c r="CB9" s="38"/>
       <c r="CC9" s="38"/>
@@ -2206,7 +2159,7 @@
       <c r="DE9" s="38"/>
       <c r="DF9" s="38"/>
     </row>
-    <row r="10" spans="2:120" ht="15.75">
+    <row r="10" spans="2:120" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="48" t="s">
         <v>17</v>
@@ -2219,27 +2172,27 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" s="54" t="s">
+      <c r="L10" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="104"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="104"/>
       <c r="AE10"/>
       <c r="AF10"/>
       <c r="AG10"/>
@@ -2315,7 +2268,7 @@
       <c r="DE10" s="38"/>
       <c r="DF10" s="38"/>
     </row>
-    <row r="11" spans="2:120" ht="15.75">
+    <row r="11" spans="2:120" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="47" t="s">
         <v>19</v>
@@ -2405,7 +2358,7 @@
       <c r="DF11" s="38"/>
       <c r="DG11"/>
     </row>
-    <row r="12" spans="2:120">
+    <row r="12" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12"/>
       <c r="F12" s="36" t="s">
@@ -2430,47 +2383,47 @@
       <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12"/>
-      <c r="AN12" s="98" t="s">
+      <c r="AN12" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="AO12" s="98"/>
-      <c r="AP12" s="98"/>
-      <c r="AQ12" s="98"/>
-      <c r="AR12" s="98"/>
-      <c r="AS12" s="98"/>
-      <c r="AT12" s="98"/>
-      <c r="AU12" s="98"/>
-      <c r="AV12" s="98"/>
-      <c r="AW12" s="98"/>
-      <c r="AX12" s="98"/>
-      <c r="AY12" s="98"/>
-      <c r="AZ12" s="98"/>
-      <c r="BA12" s="98"/>
-      <c r="BB12" s="98"/>
-      <c r="BC12" s="98"/>
-      <c r="BD12" s="98"/>
-      <c r="BE12" s="98"/>
-      <c r="BF12" s="98"/>
-      <c r="BG12" s="98"/>
-      <c r="BH12" s="98"/>
-      <c r="BI12" s="98"/>
-      <c r="BJ12" s="98"/>
-      <c r="BK12" s="98"/>
-      <c r="BL12" s="98"/>
-      <c r="BM12" s="98"/>
-      <c r="BN12" s="98"/>
-      <c r="BO12" s="98"/>
-      <c r="BP12" s="98"/>
-      <c r="BQ12" s="98"/>
-      <c r="BR12" s="98"/>
-      <c r="BS12" s="98"/>
-      <c r="BT12" s="98"/>
-      <c r="BU12" s="98"/>
-      <c r="BV12" s="98"/>
-      <c r="BW12" s="98"/>
-      <c r="BX12" s="98"/>
-      <c r="BY12" s="98"/>
-      <c r="BZ12" s="98"/>
+      <c r="AO12" s="103"/>
+      <c r="AP12" s="103"/>
+      <c r="AQ12" s="103"/>
+      <c r="AR12" s="103"/>
+      <c r="AS12" s="103"/>
+      <c r="AT12" s="103"/>
+      <c r="AU12" s="103"/>
+      <c r="AV12" s="103"/>
+      <c r="AW12" s="103"/>
+      <c r="AX12" s="103"/>
+      <c r="AY12" s="103"/>
+      <c r="AZ12" s="103"/>
+      <c r="BA12" s="103"/>
+      <c r="BB12" s="103"/>
+      <c r="BC12" s="103"/>
+      <c r="BD12" s="103"/>
+      <c r="BE12" s="103"/>
+      <c r="BF12" s="103"/>
+      <c r="BG12" s="103"/>
+      <c r="BH12" s="103"/>
+      <c r="BI12" s="103"/>
+      <c r="BJ12" s="103"/>
+      <c r="BK12" s="103"/>
+      <c r="BL12" s="103"/>
+      <c r="BM12" s="103"/>
+      <c r="BN12" s="103"/>
+      <c r="BO12" s="103"/>
+      <c r="BP12" s="103"/>
+      <c r="BQ12" s="103"/>
+      <c r="BR12" s="103"/>
+      <c r="BS12" s="103"/>
+      <c r="BT12" s="103"/>
+      <c r="BU12" s="103"/>
+      <c r="BV12" s="103"/>
+      <c r="BW12" s="103"/>
+      <c r="BX12" s="103"/>
+      <c r="BY12" s="103"/>
+      <c r="BZ12" s="103"/>
       <c r="CL12" s="7"/>
       <c r="CQ12"/>
       <c r="CT12"/>
@@ -2479,7 +2432,7 @@
       <c r="CY12"/>
       <c r="CZ12"/>
     </row>
-    <row r="13" spans="2:120" ht="14.25" customHeight="1">
+    <row r="13" spans="2:120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="41" t="s">
         <v>23</v>
@@ -2488,11 +2441,11 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
       <c r="M13" s="40" t="s">
         <v>24</v>
       </c>
@@ -2508,88 +2461,88 @@
       <c r="W13" s="39"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
       <c r="CL13" s="7"/>
       <c r="CR13"/>
       <c r="CV13"/>
       <c r="CW13"/>
     </row>
-    <row r="14" spans="2:120" ht="14.25" customHeight="1">
+    <row r="14" spans="2:120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="64"/>
-      <c r="AX14" s="64"/>
-      <c r="AY14" s="64"/>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="64"/>
-      <c r="BB14" s="64"/>
-      <c r="BC14" s="64"/>
-      <c r="BD14" s="64"/>
-      <c r="BE14" s="64"/>
-      <c r="BF14" s="64"/>
-      <c r="BG14" s="64"/>
-      <c r="BH14" s="64"/>
-      <c r="BI14" s="64"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="64"/>
-      <c r="BN14" s="64"/>
-      <c r="BO14" s="64"/>
-      <c r="BP14" s="64"/>
-      <c r="BQ14" s="64"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="53"/>
+      <c r="BB14" s="53"/>
+      <c r="BC14" s="53"/>
+      <c r="BD14" s="53"/>
+      <c r="BE14" s="53"/>
+      <c r="BF14" s="53"/>
+      <c r="BG14" s="53"/>
+      <c r="BH14" s="53"/>
+      <c r="BI14" s="53"/>
+      <c r="BJ14" s="53"/>
+      <c r="BK14" s="53"/>
+      <c r="BL14" s="53"/>
+      <c r="BM14" s="53"/>
+      <c r="BN14" s="53"/>
+      <c r="BO14" s="53"/>
+      <c r="BP14" s="53"/>
+      <c r="BQ14" s="53"/>
       <c r="CL14" s="7"/>
       <c r="CR14"/>
       <c r="CT14"/>
@@ -2597,73 +2550,73 @@
       <c r="DA14"/>
       <c r="DF14"/>
     </row>
-    <row r="15" spans="2:120">
+    <row r="15" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="64"/>
-      <c r="AI15" s="64"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="64"/>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="64"/>
-      <c r="AO15" s="64"/>
-      <c r="AP15" s="64"/>
-      <c r="AQ15" s="64"/>
-      <c r="AR15" s="64"/>
-      <c r="AS15" s="64"/>
-      <c r="AT15" s="64"/>
-      <c r="AU15" s="64"/>
-      <c r="AV15" s="64"/>
-      <c r="AW15" s="64"/>
-      <c r="AX15" s="64"/>
-      <c r="AY15" s="64"/>
-      <c r="AZ15" s="64"/>
-      <c r="BA15" s="64"/>
-      <c r="BB15" s="64"/>
-      <c r="BC15" s="64"/>
-      <c r="BD15" s="64"/>
-      <c r="BE15" s="64"/>
-      <c r="BF15" s="64"/>
-      <c r="BG15" s="64"/>
-      <c r="BH15" s="64"/>
-      <c r="BI15" s="64"/>
-      <c r="BJ15" s="64"/>
-      <c r="BK15" s="64"/>
-      <c r="BL15" s="64"/>
-      <c r="BM15" s="64"/>
-      <c r="BN15" s="64"/>
-      <c r="BO15" s="64"/>
-      <c r="BP15" s="64"/>
-      <c r="BQ15" s="64"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="53"/>
+      <c r="AU15" s="53"/>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="53"/>
+      <c r="AZ15" s="53"/>
+      <c r="BA15" s="53"/>
+      <c r="BB15" s="53"/>
+      <c r="BC15" s="53"/>
+      <c r="BD15" s="53"/>
+      <c r="BE15" s="53"/>
+      <c r="BF15" s="53"/>
+      <c r="BG15" s="53"/>
+      <c r="BH15" s="53"/>
+      <c r="BI15" s="53"/>
+      <c r="BJ15" s="53"/>
+      <c r="BK15" s="53"/>
+      <c r="BL15" s="53"/>
+      <c r="BM15" s="53"/>
+      <c r="BN15" s="53"/>
+      <c r="BO15" s="53"/>
+      <c r="BP15" s="53"/>
+      <c r="BQ15" s="53"/>
       <c r="CL15" s="7"/>
       <c r="CR15"/>
       <c r="CU15"/>
@@ -2673,56 +2626,56 @@
       <c r="DK15"/>
       <c r="DP15"/>
     </row>
-    <row r="16" spans="2:120">
+    <row r="16" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AM16" s="64"/>
-      <c r="AN16" s="64"/>
-      <c r="AO16" s="64"/>
-      <c r="AP16" s="64"/>
-      <c r="AQ16" s="64"/>
-      <c r="AR16" s="64"/>
-      <c r="AS16" s="64"/>
-      <c r="AT16" s="64"/>
-      <c r="AU16" s="64"/>
-      <c r="AV16" s="64"/>
-      <c r="AW16" s="64"/>
-      <c r="AX16" s="64"/>
-      <c r="AY16" s="64"/>
-      <c r="AZ16" s="64"/>
-      <c r="BA16" s="64"/>
-      <c r="BB16" s="64"/>
-      <c r="BC16" s="64"/>
-      <c r="BD16" s="64"/>
-      <c r="BE16" s="64"/>
-      <c r="BF16" s="64"/>
-      <c r="BG16" s="64"/>
-      <c r="BH16" s="64"/>
-      <c r="BI16" s="64"/>
-      <c r="BJ16" s="64"/>
-      <c r="BK16" s="64"/>
-      <c r="BL16" s="64"/>
-      <c r="BM16" s="64"/>
-      <c r="BN16" s="64"/>
-      <c r="BO16" s="64"/>
-      <c r="BP16" s="64"/>
-      <c r="BQ16" s="64"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="53"/>
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="53"/>
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
+      <c r="BB16" s="53"/>
+      <c r="BC16" s="53"/>
+      <c r="BD16" s="53"/>
+      <c r="BE16" s="53"/>
+      <c r="BF16" s="53"/>
+      <c r="BG16" s="53"/>
+      <c r="BH16" s="53"/>
+      <c r="BI16" s="53"/>
+      <c r="BJ16" s="53"/>
+      <c r="BK16" s="53"/>
+      <c r="BL16" s="53"/>
+      <c r="BM16" s="53"/>
+      <c r="BN16" s="53"/>
+      <c r="BO16" s="53"/>
+      <c r="BP16" s="53"/>
+      <c r="BQ16" s="53"/>
       <c r="BX16" s="38" t="s">
         <v>25</v>
       </c>
@@ -2732,44 +2685,44 @@
       <c r="CW16"/>
       <c r="CY16"/>
     </row>
-    <row r="17" spans="2:105">
+    <row r="17" spans="2:105" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
-      <c r="AM17" s="64"/>
-      <c r="AN17" s="64"/>
-      <c r="AO17" s="64"/>
-      <c r="AP17" s="64"/>
-      <c r="AQ17" s="64"/>
-      <c r="AR17" s="64"/>
-      <c r="AS17" s="64"/>
-      <c r="AT17" s="64"/>
-      <c r="AU17" s="64"/>
-      <c r="AV17" s="64"/>
-      <c r="AW17" s="64"/>
-      <c r="AX17" s="64"/>
-      <c r="AY17" s="64"/>
-      <c r="AZ17" s="64"/>
-      <c r="BA17" s="64"/>
-      <c r="BB17" s="64"/>
-      <c r="BC17" s="64"/>
-      <c r="BD17" s="64"/>
-      <c r="BE17" s="64"/>
-      <c r="BF17" s="64"/>
-      <c r="BG17" s="64"/>
-      <c r="BH17" s="64"/>
-      <c r="BI17" s="64"/>
-      <c r="BJ17" s="64"/>
-      <c r="BK17" s="64"/>
-      <c r="BL17" s="64"/>
-      <c r="BM17" s="64"/>
-      <c r="BN17" s="64"/>
-      <c r="BO17" s="64"/>
-      <c r="BP17" s="64"/>
-      <c r="BQ17" s="64"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="53"/>
+      <c r="AS17" s="53"/>
+      <c r="AT17" s="53"/>
+      <c r="AU17" s="53"/>
+      <c r="AV17" s="53"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="53"/>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="53"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="53"/>
+      <c r="BE17" s="53"/>
+      <c r="BF17" s="53"/>
+      <c r="BG17" s="53"/>
+      <c r="BH17" s="53"/>
+      <c r="BI17" s="53"/>
+      <c r="BJ17" s="53"/>
+      <c r="BK17" s="53"/>
+      <c r="BL17" s="53"/>
+      <c r="BM17" s="53"/>
+      <c r="BN17" s="53"/>
+      <c r="BO17" s="53"/>
+      <c r="BP17" s="53"/>
+      <c r="BQ17" s="53"/>
       <c r="CL17" s="7"/>
       <c r="CT17"/>
       <c r="DA17"/>
     </row>
-    <row r="18" spans="2:105" ht="11.25" customHeight="1">
+    <row r="18" spans="2:105" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="F18" s="36"/>
       <c r="CL18" s="7"/>
@@ -2778,7 +2731,7 @@
       <c r="CU18"/>
       <c r="CX18"/>
     </row>
-    <row r="19" spans="2:105" ht="3" customHeight="1" thickBot="1">
+    <row r="19" spans="2:105" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="28"/>
       <c r="D19" s="27"/>
@@ -2792,35 +2745,35 @@
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="24"/>
-      <c r="O19" s="65" t="s">
+      <c r="O19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="68"/>
       <c r="CL19" s="7"/>
     </row>
-    <row r="20" spans="2:105" ht="12.75" customHeight="1" thickBot="1">
+    <row r="20" spans="2:105" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="8"/>
@@ -2835,30 +2788,30 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="69"/>
-      <c r="AL20" s="70"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="71"/>
       <c r="AN20" s="2" t="s">
         <v>28</v>
       </c>
@@ -2900,7 +2853,7 @@
       <c r="BX20" s="2"/>
       <c r="CL20" s="7"/>
     </row>
-    <row r="21" spans="2:105" ht="3" customHeight="1" thickBot="1">
+    <row r="21" spans="2:105" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="F21" s="22"/>
@@ -2912,30 +2865,30 @@
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="70"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="71"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
@@ -2975,7 +2928,7 @@
       <c r="BX21" s="2"/>
       <c r="CL21" s="7"/>
     </row>
-    <row r="22" spans="2:105" ht="15.75" customHeight="1" thickBot="1">
+    <row r="22" spans="2:105" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="8"/>
@@ -2990,30 +2943,30 @@
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="69"/>
-      <c r="AL22" s="70"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="71"/>
       <c r="AN22" s="2" t="s">
         <v>30</v>
       </c>
@@ -3021,55 +2974,55 @@
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
-      <c r="AS22" s="95"/>
-      <c r="AT22" s="95"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="95"/>
-      <c r="AW22" s="95"/>
-      <c r="AX22" s="95"/>
-      <c r="AY22" s="95"/>
-      <c r="AZ22" s="95"/>
-      <c r="BA22" s="95"/>
-      <c r="BB22" s="95"/>
-      <c r="BC22" s="95"/>
-      <c r="BD22" s="95"/>
-      <c r="BE22" s="95"/>
-      <c r="BF22" s="95"/>
-      <c r="BG22" s="95"/>
-      <c r="BH22" s="95"/>
-      <c r="BI22" s="95"/>
-      <c r="BJ22" s="95"/>
-      <c r="BK22" s="95"/>
-      <c r="BL22" s="95"/>
-      <c r="BM22" s="95"/>
-      <c r="BN22" s="95"/>
-      <c r="BO22" s="95"/>
-      <c r="BP22" s="95"/>
-      <c r="BQ22" s="95"/>
+      <c r="AS22" s="60"/>
+      <c r="AT22" s="60"/>
+      <c r="AU22" s="60"/>
+      <c r="AV22" s="60"/>
+      <c r="AW22" s="60"/>
+      <c r="AX22" s="60"/>
+      <c r="AY22" s="60"/>
+      <c r="AZ22" s="60"/>
+      <c r="BA22" s="60"/>
+      <c r="BB22" s="60"/>
+      <c r="BC22" s="60"/>
+      <c r="BD22" s="60"/>
+      <c r="BE22" s="60"/>
+      <c r="BF22" s="60"/>
+      <c r="BG22" s="60"/>
+      <c r="BH22" s="60"/>
+      <c r="BI22" s="60"/>
+      <c r="BJ22" s="60"/>
+      <c r="BK22" s="60"/>
+      <c r="BL22" s="60"/>
+      <c r="BM22" s="60"/>
+      <c r="BN22" s="60"/>
+      <c r="BO22" s="60"/>
+      <c r="BP22" s="60"/>
+      <c r="BQ22" s="60"/>
       <c r="BR22" s="19"/>
-      <c r="BS22" s="95"/>
-      <c r="BT22" s="95"/>
-      <c r="BU22" s="95"/>
-      <c r="BV22" s="95"/>
-      <c r="BW22" s="95"/>
-      <c r="BX22" s="95"/>
-      <c r="BY22" s="95"/>
-      <c r="BZ22" s="95"/>
-      <c r="CA22" s="95"/>
-      <c r="CB22" s="95"/>
-      <c r="CC22" s="95"/>
-      <c r="CD22" s="95"/>
-      <c r="CE22" s="95"/>
-      <c r="CF22" s="95"/>
-      <c r="CG22" s="95"/>
-      <c r="CH22" s="95"/>
-      <c r="CI22" s="95"/>
-      <c r="CJ22" s="95"/>
-      <c r="CK22" s="95"/>
+      <c r="BS22" s="60"/>
+      <c r="BT22" s="60"/>
+      <c r="BU22" s="60"/>
+      <c r="BV22" s="60"/>
+      <c r="BW22" s="60"/>
+      <c r="BX22" s="60"/>
+      <c r="BY22" s="60"/>
+      <c r="BZ22" s="60"/>
+      <c r="CA22" s="60"/>
+      <c r="CB22" s="60"/>
+      <c r="CC22" s="60"/>
+      <c r="CD22" s="60"/>
+      <c r="CE22" s="60"/>
+      <c r="CF22" s="60"/>
+      <c r="CG22" s="60"/>
+      <c r="CH22" s="60"/>
+      <c r="CI22" s="60"/>
+      <c r="CJ22" s="60"/>
+      <c r="CK22" s="60"/>
       <c r="CL22" s="18"/>
       <c r="CW22"/>
     </row>
-    <row r="23" spans="2:105" ht="3.75" customHeight="1">
+    <row r="23" spans="2:105" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="6"/>
       <c r="D23" s="4"/>
@@ -3083,30 +3036,30 @@
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="72"/>
-      <c r="AL23" s="73"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="73"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="73"/>
+      <c r="AL23" s="74"/>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
@@ -3159,7 +3112,7 @@
       <c r="CK23" s="15"/>
       <c r="CL23" s="18"/>
     </row>
-    <row r="24" spans="2:105" ht="3.75" customHeight="1" thickBot="1">
+    <row r="24" spans="2:105" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="28"/>
       <c r="D24" s="27"/>
@@ -3173,39 +3126,39 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="24"/>
-      <c r="O24" s="74" t="s">
+      <c r="O24" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="75"/>
-      <c r="W24" s="75"/>
-      <c r="X24" s="75"/>
-      <c r="Y24" s="75"/>
-      <c r="Z24" s="75"/>
-      <c r="AA24" s="75"/>
-      <c r="AB24" s="75"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="75"/>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="75"/>
-      <c r="AH24" s="75"/>
-      <c r="AI24" s="75"/>
-      <c r="AJ24" s="75"/>
-      <c r="AK24" s="75"/>
-      <c r="AL24" s="76"/>
-      <c r="AN24" s="92" t="s">
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="76"/>
+      <c r="AJ24" s="76"/>
+      <c r="AK24" s="76"/>
+      <c r="AL24" s="77"/>
+      <c r="AN24" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="AO24" s="92"/>
-      <c r="AP24" s="92"/>
-      <c r="AQ24" s="92"/>
-      <c r="AR24" s="92"/>
+      <c r="AO24" s="93"/>
+      <c r="AP24" s="93"/>
+      <c r="AQ24" s="93"/>
+      <c r="AR24" s="93"/>
       <c r="AS24" s="15"/>
       <c r="AT24" s="15"/>
       <c r="AU24" s="15"/>
@@ -3253,7 +3206,7 @@
       <c r="CK24" s="15"/>
       <c r="CL24" s="18"/>
     </row>
-    <row r="25" spans="2:105" ht="18" customHeight="1" thickBot="1">
+    <row r="25" spans="2:105" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="16"/>
@@ -3268,103 +3221,101 @@
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="78"/>
-      <c r="AF25" s="78"/>
-      <c r="AG25" s="78"/>
-      <c r="AH25" s="78"/>
-      <c r="AI25" s="78"/>
-      <c r="AJ25" s="78"/>
-      <c r="AK25" s="78"/>
-      <c r="AL25" s="79"/>
-      <c r="AN25" s="92"/>
-      <c r="AO25" s="92"/>
-      <c r="AP25" s="92"/>
-      <c r="AQ25" s="92"/>
-      <c r="AR25" s="92"/>
-      <c r="AS25" s="57" t="s">
+      <c r="O25" s="78"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="79"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="79"/>
+      <c r="AL25" s="80"/>
+      <c r="AN25" s="93"/>
+      <c r="AO25" s="93"/>
+      <c r="AP25" s="93"/>
+      <c r="AQ25" s="93"/>
+      <c r="AR25" s="93"/>
+      <c r="AS25" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="62"/>
-      <c r="AX25" s="62"/>
-      <c r="AY25" s="62"/>
-      <c r="AZ25" s="62"/>
-      <c r="BA25" s="62"/>
-      <c r="BB25" s="62"/>
-      <c r="BC25" s="62"/>
-      <c r="BD25" s="62"/>
-      <c r="BE25" s="62"/>
-      <c r="BF25" s="62"/>
-      <c r="BG25" s="62"/>
-      <c r="BH25" s="62"/>
-      <c r="BI25" s="62"/>
-      <c r="BJ25" s="62"/>
-      <c r="BK25" s="62"/>
+      <c r="AT25" s="100"/>
+      <c r="AU25" s="100"/>
+      <c r="AV25" s="100"/>
+      <c r="AW25" s="54"/>
+      <c r="AX25" s="54"/>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="54"/>
+      <c r="BA25" s="54"/>
+      <c r="BB25" s="54"/>
+      <c r="BC25" s="54"/>
+      <c r="BD25" s="54"/>
+      <c r="BE25" s="54"/>
+      <c r="BF25" s="54"/>
+      <c r="BG25" s="54"/>
+      <c r="BH25" s="54"/>
+      <c r="BI25" s="54"/>
+      <c r="BJ25" s="54"/>
+      <c r="BK25" s="54"/>
       <c r="BL25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="BM25" s="62" t="s">
+      <c r="BM25" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="BN25" s="62"/>
-      <c r="BO25" s="62"/>
-      <c r="BP25" s="62"/>
-      <c r="BQ25" s="62"/>
-      <c r="BR25" s="62"/>
-      <c r="BS25" s="62"/>
-      <c r="BT25" s="62"/>
-      <c r="BU25" s="62"/>
+      <c r="BN25" s="54"/>
+      <c r="BO25" s="54"/>
+      <c r="BP25" s="54"/>
+      <c r="BQ25" s="54"/>
+      <c r="BR25" s="54"/>
+      <c r="BS25" s="54"/>
+      <c r="BT25" s="54"/>
+      <c r="BU25" s="54"/>
       <c r="BV25" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="BW25" s="57" t="s">
+      <c r="BW25" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="BX25" s="57"/>
-      <c r="BY25" s="57"/>
-      <c r="BZ25" s="57"/>
-      <c r="CA25" s="57"/>
-      <c r="CB25" s="60">
-        <f>'[1]Источники данных'!$C$20</f>
+      <c r="BX25" s="100"/>
+      <c r="BY25" s="100"/>
+      <c r="BZ25" s="100"/>
+      <c r="CA25" s="100"/>
+      <c r="CB25" s="98">
         <v>0</v>
       </c>
-      <c r="CC25" s="60"/>
-      <c r="CD25" s="60"/>
+      <c r="CC25" s="98"/>
+      <c r="CD25" s="98"/>
       <c r="CE25" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="CF25" s="60" t="s">
+      <c r="CF25" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="CG25" s="60"/>
-      <c r="CH25" s="60"/>
-      <c r="CI25" s="60">
-        <f>'[1]Источники данных'!$C$21</f>
+      <c r="CG25" s="98"/>
+      <c r="CH25" s="98"/>
+      <c r="CI25" s="98">
         <v>0</v>
       </c>
-      <c r="CJ25" s="60"/>
-      <c r="CK25" s="60"/>
-      <c r="CL25" s="61"/>
+      <c r="CJ25" s="98"/>
+      <c r="CK25" s="98"/>
+      <c r="CL25" s="99"/>
     </row>
-    <row r="26" spans="2:105" ht="3.75" customHeight="1">
+    <row r="26" spans="2:105" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="6"/>
       <c r="D26" s="4"/>
@@ -3378,30 +3329,30 @@
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="81"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="81"/>
-      <c r="AF26" s="81"/>
-      <c r="AG26" s="81"/>
-      <c r="AH26" s="81"/>
-      <c r="AI26" s="81"/>
-      <c r="AJ26" s="81"/>
-      <c r="AK26" s="81"/>
-      <c r="AL26" s="82"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="83"/>
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -3454,7 +3405,7 @@
       <c r="CK26" s="15"/>
       <c r="CL26" s="18"/>
     </row>
-    <row r="27" spans="2:105" ht="3.75" customHeight="1" thickBot="1">
+    <row r="27" spans="2:105" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
       <c r="C27" s="28"/>
       <c r="D27" s="27"/>
@@ -3468,32 +3419,32 @@
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
       <c r="N27" s="24"/>
-      <c r="O27" s="83" t="s">
+      <c r="O27" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="84"/>
-      <c r="AC27" s="84"/>
-      <c r="AD27" s="84"/>
-      <c r="AE27" s="84"/>
-      <c r="AF27" s="84"/>
-      <c r="AG27" s="84"/>
-      <c r="AH27" s="84"/>
-      <c r="AI27" s="84"/>
-      <c r="AJ27" s="84"/>
-      <c r="AK27" s="84"/>
-      <c r="AL27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="85"/>
+      <c r="AC27" s="85"/>
+      <c r="AD27" s="85"/>
+      <c r="AE27" s="85"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="85"/>
+      <c r="AH27" s="85"/>
+      <c r="AI27" s="85"/>
+      <c r="AJ27" s="85"/>
+      <c r="AK27" s="85"/>
+      <c r="AL27" s="86"/>
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
@@ -3546,7 +3497,7 @@
       <c r="CK27" s="15"/>
       <c r="CL27" s="18"/>
     </row>
-    <row r="28" spans="2:105" ht="27" customHeight="1" thickBot="1">
+    <row r="28" spans="2:105" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="8"/>
@@ -3561,68 +3512,67 @@
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="87"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="87"/>
-      <c r="AL28" s="88"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="88"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="88"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="88"/>
+      <c r="AH28" s="88"/>
+      <c r="AI28" s="88"/>
+      <c r="AJ28" s="88"/>
+      <c r="AK28" s="88"/>
+      <c r="AL28" s="89"/>
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="21"/>
-      <c r="AS28" s="58"/>
-      <c r="AT28" s="58"/>
-      <c r="AU28" s="58"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="58"/>
-      <c r="AX28" s="58"/>
-      <c r="AY28" s="58"/>
-      <c r="AZ28" s="58"/>
-      <c r="BA28" s="57" t="str">
-        <f>'[1]Источники данных'!$C$23</f>
-        <v>г.</v>
-      </c>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="58"/>
-      <c r="BD28" s="58"/>
-      <c r="BE28" s="58"/>
-      <c r="BF28" s="58"/>
-      <c r="BG28" s="58"/>
-      <c r="BH28" s="58"/>
-      <c r="BI28" s="58"/>
-      <c r="BJ28" s="58"/>
-      <c r="BK28" s="58"/>
-      <c r="BL28" s="58"/>
-      <c r="BM28" s="58"/>
-      <c r="BN28" s="58"/>
-      <c r="BO28" s="58"/>
-      <c r="BP28" s="58"/>
-      <c r="BQ28" s="58"/>
-      <c r="BR28" s="58"/>
-      <c r="BS28" s="58"/>
-      <c r="BT28" s="58"/>
-      <c r="BU28" s="58"/>
-      <c r="BV28" s="58"/>
+      <c r="AS28" s="101"/>
+      <c r="AT28" s="101"/>
+      <c r="AU28" s="101"/>
+      <c r="AV28" s="101"/>
+      <c r="AW28" s="101"/>
+      <c r="AX28" s="101"/>
+      <c r="AY28" s="101"/>
+      <c r="AZ28" s="101"/>
+      <c r="BA28" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB28" s="100"/>
+      <c r="BC28" s="101"/>
+      <c r="BD28" s="101"/>
+      <c r="BE28" s="101"/>
+      <c r="BF28" s="101"/>
+      <c r="BG28" s="101"/>
+      <c r="BH28" s="101"/>
+      <c r="BI28" s="101"/>
+      <c r="BJ28" s="101"/>
+      <c r="BK28" s="101"/>
+      <c r="BL28" s="101"/>
+      <c r="BM28" s="101"/>
+      <c r="BN28" s="101"/>
+      <c r="BO28" s="101"/>
+      <c r="BP28" s="101"/>
+      <c r="BQ28" s="101"/>
+      <c r="BR28" s="101"/>
+      <c r="BS28" s="101"/>
+      <c r="BT28" s="101"/>
+      <c r="BU28" s="101"/>
+      <c r="BV28" s="101"/>
       <c r="BW28" s="15"/>
       <c r="BX28" s="15"/>
       <c r="BY28" s="15"/>
@@ -3640,7 +3590,7 @@
       <c r="CK28" s="15"/>
       <c r="CL28" s="18"/>
     </row>
-    <row r="29" spans="2:105" ht="3.75" customHeight="1">
+    <row r="29" spans="2:105" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="6"/>
       <c r="D29" s="4"/>
@@ -3654,30 +3604,30 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="90"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="90"/>
-      <c r="AJ29" s="90"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="91"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="91"/>
+      <c r="U29" s="91"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="91"/>
+      <c r="X29" s="91"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="91"/>
+      <c r="AA29" s="91"/>
+      <c r="AB29" s="91"/>
+      <c r="AC29" s="91"/>
+      <c r="AD29" s="91"/>
+      <c r="AE29" s="91"/>
+      <c r="AF29" s="91"/>
+      <c r="AG29" s="91"/>
+      <c r="AH29" s="91"/>
+      <c r="AI29" s="91"/>
+      <c r="AJ29" s="91"/>
+      <c r="AK29" s="91"/>
+      <c r="AL29" s="92"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="2"/>
@@ -3730,79 +3680,78 @@
       <c r="CK29" s="15"/>
       <c r="CL29" s="18"/>
     </row>
-    <row r="30" spans="2:105" ht="20.25" customHeight="1" thickBot="1">
+    <row r="30" spans="2:105" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="17" t="s">
         <v>41</v>
       </c>
       <c r="AL30" s="7"/>
-      <c r="AS30" s="107">
-        <f>'[1]Источники данных'!$C$25</f>
+      <c r="AS30" s="52">
         <v>0</v>
       </c>
-      <c r="AT30" s="107"/>
-      <c r="AU30" s="107"/>
-      <c r="AV30" s="107"/>
-      <c r="AW30" s="107"/>
-      <c r="AX30" s="107"/>
-      <c r="AY30" s="107"/>
-      <c r="AZ30" s="107"/>
-      <c r="BA30" s="107"/>
-      <c r="BB30" s="107"/>
-      <c r="BC30" s="107"/>
-      <c r="BD30" s="107"/>
-      <c r="BE30" s="107"/>
-      <c r="BF30" s="107"/>
-      <c r="BG30" s="107"/>
-      <c r="BH30" s="107"/>
-      <c r="BI30" s="107" t="s">
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="52"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="52"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="52"/>
+      <c r="BA30" s="52"/>
+      <c r="BB30" s="52"/>
+      <c r="BC30" s="52"/>
+      <c r="BD30" s="52"/>
+      <c r="BE30" s="52"/>
+      <c r="BF30" s="52"/>
+      <c r="BG30" s="52"/>
+      <c r="BH30" s="52"/>
+      <c r="BI30" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="BJ30" s="107"/>
-      <c r="BK30" s="107"/>
-      <c r="BL30" s="107"/>
-      <c r="BM30" s="107"/>
+      <c r="BJ30" s="52"/>
+      <c r="BK30" s="52"/>
+      <c r="BL30" s="52"/>
+      <c r="BM30" s="52"/>
       <c r="CL30" s="7"/>
     </row>
-    <row r="31" spans="2:105" ht="11.25" customHeight="1" thickBot="1">
+    <row r="31" spans="2:105" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="16"/>
-      <c r="F31" s="99" t="s">
+      <c r="F31" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="99"/>
-      <c r="U31" s="99"/>
-      <c r="V31" s="99"/>
-      <c r="W31" s="99"/>
-      <c r="X31" s="99"/>
-      <c r="Y31" s="99"/>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="99"/>
-      <c r="AC31" s="99"/>
-      <c r="AD31" s="99"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="99"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="99"/>
-      <c r="AJ31" s="99"/>
-      <c r="AK31" s="99"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="96"/>
+      <c r="AC31" s="96"/>
+      <c r="AD31" s="96"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="96"/>
+      <c r="AG31" s="96"/>
+      <c r="AH31" s="96"/>
+      <c r="AI31" s="96"/>
+      <c r="AJ31" s="96"/>
+      <c r="AK31" s="96"/>
       <c r="AL31" s="7"/>
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
@@ -3826,7 +3775,7 @@
       <c r="CK31" s="11"/>
       <c r="CL31" s="10"/>
     </row>
-    <row r="32" spans="2:105" ht="2.25" customHeight="1" thickBot="1">
+    <row r="32" spans="2:105" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="AL32" s="7"/>
@@ -3882,72 +3831,71 @@
       <c r="CK32" s="11"/>
       <c r="CL32" s="10"/>
     </row>
-    <row r="33" spans="2:90" ht="14.25" customHeight="1" thickBot="1">
+    <row r="33" spans="2:90" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="16"/>
-      <c r="F33" s="100" t="s">
+      <c r="F33" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="100"/>
-      <c r="V33" s="100"/>
-      <c r="W33" s="100"/>
-      <c r="X33" s="100"/>
-      <c r="Y33" s="100"/>
-      <c r="Z33" s="100"/>
-      <c r="AA33" s="100"/>
-      <c r="AB33" s="100"/>
-      <c r="AC33" s="100"/>
-      <c r="AD33" s="100"/>
-      <c r="AE33" s="100"/>
-      <c r="AF33" s="100"/>
-      <c r="AG33" s="100"/>
-      <c r="AH33" s="100"/>
-      <c r="AI33" s="100"/>
-      <c r="AJ33" s="100"/>
-      <c r="AK33" s="100"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="97"/>
+      <c r="W33" s="97"/>
+      <c r="X33" s="97"/>
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97"/>
+      <c r="AK33" s="97"/>
       <c r="AL33" s="7"/>
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
-      <c r="AS33" s="107">
-        <f>'[1]Источники данных'!$C$26</f>
+      <c r="AS33" s="52">
         <v>0</v>
       </c>
-      <c r="AT33" s="107"/>
-      <c r="AU33" s="107"/>
-      <c r="AV33" s="107"/>
-      <c r="AW33" s="107"/>
-      <c r="AX33" s="107"/>
-      <c r="AY33" s="107"/>
-      <c r="AZ33" s="107"/>
-      <c r="BA33" s="107"/>
-      <c r="BB33" s="107"/>
-      <c r="BC33" s="107"/>
-      <c r="BD33" s="107"/>
-      <c r="BE33" s="107"/>
-      <c r="BF33" s="95" t="s">
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="52"/>
+      <c r="BA33" s="52"/>
+      <c r="BB33" s="52"/>
+      <c r="BC33" s="52"/>
+      <c r="BD33" s="52"/>
+      <c r="BE33" s="52"/>
+      <c r="BF33" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="BG33" s="95"/>
-      <c r="BH33" s="95"/>
-      <c r="BI33" s="95"/>
+      <c r="BG33" s="60"/>
+      <c r="BH33" s="60"/>
+      <c r="BI33" s="60"/>
       <c r="BN33" s="12"/>
       <c r="BO33" s="12"/>
       <c r="BP33" s="12"/>
@@ -3974,7 +3922,7 @@
       <c r="CK33" s="11"/>
       <c r="CL33" s="10"/>
     </row>
-    <row r="34" spans="2:90" ht="3" customHeight="1" thickBot="1">
+    <row r="34" spans="2:90" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="AL34" s="7"/>
@@ -4030,7 +3978,7 @@
       <c r="CK34" s="11"/>
       <c r="CL34" s="10"/>
     </row>
-    <row r="35" spans="2:90" ht="14.25" customHeight="1" thickBot="1">
+    <row r="35" spans="2:90" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="8"/>
@@ -4048,35 +3996,35 @@
       <c r="AY35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="BA35" s="94">
+      <c r="BA35" s="95">
         <v>375</v>
       </c>
-      <c r="BB35" s="94"/>
-      <c r="BC35" s="94"/>
-      <c r="BD35" s="94"/>
+      <c r="BB35" s="95"/>
+      <c r="BC35" s="95"/>
+      <c r="BD35" s="95"/>
       <c r="BE35" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="BF35" s="93"/>
-      <c r="BG35" s="93"/>
-      <c r="BH35" s="93"/>
+      <c r="BF35" s="94"/>
+      <c r="BG35" s="94"/>
+      <c r="BH35" s="94"/>
       <c r="BI35" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="BJ35" s="93"/>
-      <c r="BK35" s="93"/>
-      <c r="BL35" s="93"/>
-      <c r="BM35" s="93"/>
-      <c r="BN35" s="93"/>
-      <c r="BO35" s="93"/>
-      <c r="BP35" s="93"/>
-      <c r="BQ35" s="93"/>
-      <c r="BR35" s="93"/>
-      <c r="BS35" s="93"/>
-      <c r="BT35" s="93"/>
-      <c r="BU35" s="93"/>
-      <c r="BV35" s="93"/>
-      <c r="BW35" s="93"/>
+      <c r="BJ35" s="94"/>
+      <c r="BK35" s="94"/>
+      <c r="BL35" s="94"/>
+      <c r="BM35" s="94"/>
+      <c r="BN35" s="94"/>
+      <c r="BO35" s="94"/>
+      <c r="BP35" s="94"/>
+      <c r="BQ35" s="94"/>
+      <c r="BR35" s="94"/>
+      <c r="BS35" s="94"/>
+      <c r="BT35" s="94"/>
+      <c r="BU35" s="94"/>
+      <c r="BV35" s="94"/>
+      <c r="BW35" s="94"/>
       <c r="BX35" s="12"/>
       <c r="BY35" s="11"/>
       <c r="BZ35" s="11"/>
@@ -4093,7 +4041,7 @@
       <c r="CK35" s="11"/>
       <c r="CL35" s="10"/>
     </row>
-    <row r="36" spans="2:90" ht="4.5" customHeight="1" thickBot="1">
+    <row r="36" spans="2:90" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="AL36" s="7"/>
@@ -4107,38 +4055,38 @@
       <c r="AU36" s="2"/>
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
-      <c r="AX36" s="63" t="s">
+      <c r="AX36" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="AY36" s="63"/>
-      <c r="AZ36" s="63"/>
-      <c r="BA36" s="63"/>
-      <c r="BB36" s="63"/>
-      <c r="BC36" s="63"/>
-      <c r="BD36" s="63"/>
-      <c r="BE36" s="63"/>
-      <c r="BF36" s="63"/>
-      <c r="BG36" s="63"/>
-      <c r="BH36" s="63"/>
-      <c r="BI36" s="63"/>
-      <c r="BJ36" s="63"/>
-      <c r="BK36" s="63"/>
-      <c r="BL36" s="63"/>
-      <c r="BM36" s="63"/>
-      <c r="BN36" s="63"/>
-      <c r="BO36" s="63"/>
-      <c r="BP36" s="63"/>
-      <c r="BQ36" s="63"/>
-      <c r="BR36" s="63"/>
-      <c r="BS36" s="63"/>
-      <c r="BT36" s="63"/>
-      <c r="BU36" s="63"/>
-      <c r="BV36" s="63"/>
-      <c r="BW36" s="63"/>
+      <c r="AY36" s="65"/>
+      <c r="AZ36" s="65"/>
+      <c r="BA36" s="65"/>
+      <c r="BB36" s="65"/>
+      <c r="BC36" s="65"/>
+      <c r="BD36" s="65"/>
+      <c r="BE36" s="65"/>
+      <c r="BF36" s="65"/>
+      <c r="BG36" s="65"/>
+      <c r="BH36" s="65"/>
+      <c r="BI36" s="65"/>
+      <c r="BJ36" s="65"/>
+      <c r="BK36" s="65"/>
+      <c r="BL36" s="65"/>
+      <c r="BM36" s="65"/>
+      <c r="BN36" s="65"/>
+      <c r="BO36" s="65"/>
+      <c r="BP36" s="65"/>
+      <c r="BQ36" s="65"/>
+      <c r="BR36" s="65"/>
+      <c r="BS36" s="65"/>
+      <c r="BT36" s="65"/>
+      <c r="BU36" s="65"/>
+      <c r="BV36" s="65"/>
+      <c r="BW36" s="65"/>
       <c r="BX36" s="2"/>
       <c r="CL36" s="7"/>
     </row>
-    <row r="37" spans="2:90" ht="10.5" customHeight="1" thickBot="1">
+    <row r="37" spans="2:90" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="8"/>
@@ -4156,36 +4104,36 @@
       <c r="AU37" s="2"/>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
-      <c r="AX37" s="63"/>
-      <c r="AY37" s="63"/>
-      <c r="AZ37" s="63"/>
-      <c r="BA37" s="63"/>
-      <c r="BB37" s="63"/>
-      <c r="BC37" s="63"/>
-      <c r="BD37" s="63"/>
-      <c r="BE37" s="63"/>
-      <c r="BF37" s="63"/>
-      <c r="BG37" s="63"/>
-      <c r="BH37" s="63"/>
-      <c r="BI37" s="63"/>
-      <c r="BJ37" s="63"/>
-      <c r="BK37" s="63"/>
-      <c r="BL37" s="63"/>
-      <c r="BM37" s="63"/>
-      <c r="BN37" s="63"/>
-      <c r="BO37" s="63"/>
-      <c r="BP37" s="63"/>
-      <c r="BQ37" s="63"/>
-      <c r="BR37" s="63"/>
-      <c r="BS37" s="63"/>
-      <c r="BT37" s="63"/>
-      <c r="BU37" s="63"/>
-      <c r="BV37" s="63"/>
-      <c r="BW37" s="63"/>
+      <c r="AX37" s="65"/>
+      <c r="AY37" s="65"/>
+      <c r="AZ37" s="65"/>
+      <c r="BA37" s="65"/>
+      <c r="BB37" s="65"/>
+      <c r="BC37" s="65"/>
+      <c r="BD37" s="65"/>
+      <c r="BE37" s="65"/>
+      <c r="BF37" s="65"/>
+      <c r="BG37" s="65"/>
+      <c r="BH37" s="65"/>
+      <c r="BI37" s="65"/>
+      <c r="BJ37" s="65"/>
+      <c r="BK37" s="65"/>
+      <c r="BL37" s="65"/>
+      <c r="BM37" s="65"/>
+      <c r="BN37" s="65"/>
+      <c r="BO37" s="65"/>
+      <c r="BP37" s="65"/>
+      <c r="BQ37" s="65"/>
+      <c r="BR37" s="65"/>
+      <c r="BS37" s="65"/>
+      <c r="BT37" s="65"/>
+      <c r="BU37" s="65"/>
+      <c r="BV37" s="65"/>
+      <c r="BW37" s="65"/>
       <c r="BX37" s="2"/>
       <c r="CL37" s="7"/>
     </row>
-    <row r="38" spans="2:90" ht="3.75" customHeight="1">
+    <row r="38" spans="2:90" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="4"/>
@@ -4276,7 +4224,7 @@
       <c r="CK38" s="4"/>
       <c r="CL38" s="3"/>
     </row>
-    <row r="39" spans="2:90" ht="15.75">
+    <row r="39" spans="2:90" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
@@ -4317,24 +4265,22 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AS33:BE33"/>
-    <mergeCell ref="D14:AK14"/>
-    <mergeCell ref="D15:AK15"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="W16:AD16"/>
-    <mergeCell ref="AW25:BK25"/>
-    <mergeCell ref="BH3:BM3"/>
-    <mergeCell ref="BP3:BZ3"/>
-    <mergeCell ref="BB6:BJ6"/>
-    <mergeCell ref="BK6:BN6"/>
-    <mergeCell ref="BF22:BQ22"/>
-    <mergeCell ref="BL4:BN4"/>
-    <mergeCell ref="BL5:BN5"/>
-    <mergeCell ref="AN5:BG5"/>
-    <mergeCell ref="AN7:BZ7"/>
-    <mergeCell ref="BC4:BG4"/>
-    <mergeCell ref="AN8:BZ8"/>
-    <mergeCell ref="AN9:BZ9"/>
+    <mergeCell ref="C5:AM5"/>
+    <mergeCell ref="C7:AM7"/>
+    <mergeCell ref="C8:AM8"/>
+    <mergeCell ref="C6:AM6"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AN12:BZ12"/>
+    <mergeCell ref="BM25:BO25"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="Z13:AI13"/>
+    <mergeCell ref="L10:AD10"/>
+    <mergeCell ref="C9:AM9"/>
+    <mergeCell ref="CF25:CH25"/>
+    <mergeCell ref="CI25:CL25"/>
+    <mergeCell ref="BP25:BU25"/>
+    <mergeCell ref="BW25:CA25"/>
+    <mergeCell ref="CB25:CD25"/>
     <mergeCell ref="AX36:BW37"/>
     <mergeCell ref="AM14:BQ17"/>
     <mergeCell ref="O19:AL23"/>
@@ -4351,25 +4297,27 @@
     <mergeCell ref="AS30:BH30"/>
     <mergeCell ref="BI30:BM30"/>
     <mergeCell ref="BF33:BI33"/>
-    <mergeCell ref="CF25:CH25"/>
-    <mergeCell ref="CI25:CL25"/>
-    <mergeCell ref="BP25:BU25"/>
-    <mergeCell ref="BW25:CA25"/>
-    <mergeCell ref="CB25:CD25"/>
+    <mergeCell ref="BH3:BM3"/>
+    <mergeCell ref="BP3:BZ3"/>
+    <mergeCell ref="BB6:BJ6"/>
+    <mergeCell ref="BK6:BN6"/>
+    <mergeCell ref="BF22:BQ22"/>
+    <mergeCell ref="BL4:BN4"/>
+    <mergeCell ref="BL5:BN5"/>
+    <mergeCell ref="AN5:BG5"/>
+    <mergeCell ref="AN7:BZ7"/>
+    <mergeCell ref="BC4:BG4"/>
+    <mergeCell ref="AN8:BZ8"/>
+    <mergeCell ref="AN9:BZ9"/>
+    <mergeCell ref="AS33:BE33"/>
+    <mergeCell ref="D14:AK14"/>
+    <mergeCell ref="D15:AK15"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="W16:AD16"/>
+    <mergeCell ref="AW25:BK25"/>
     <mergeCell ref="BA28:BB28"/>
     <mergeCell ref="BC28:BV28"/>
     <mergeCell ref="AS28:AZ28"/>
-    <mergeCell ref="C6:AM6"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AN12:BZ12"/>
-    <mergeCell ref="BM25:BO25"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="Z13:AI13"/>
-    <mergeCell ref="L10:AD10"/>
-    <mergeCell ref="C9:AM9"/>
-    <mergeCell ref="C5:AM5"/>
-    <mergeCell ref="C7:AM7"/>
-    <mergeCell ref="C8:AM8"/>
   </mergeCells>
   <conditionalFormatting sqref="AS30:BM30">
     <cfRule type="expression" dxfId="6" priority="2">
